--- a/sms_calc.xlsx
+++ b/sms_calc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 경남대학교\GitHub\sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{057DFD75-98F7-4E1F-9CBA-50D96EAEBA60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC559D-CC80-4156-BC55-9AD46161A30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9178110-FA82-441D-9A7A-91BC9B243B04}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
   <si>
     <t>theta1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,54 @@
   </si>
   <si>
     <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Va</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ha</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>acc_fy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -481,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDB12A-83CC-4490-8117-7A72E0BFF321}">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1094,7 +1142,7 @@
         <v>103.57938348223419</v>
       </c>
     </row>
-    <row r="17" spans="11:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>16</v>
       </c>
@@ -1149,6 +1197,1513 @@
         <f>SUM(T17:X17)</f>
         <v>30375.690000000002</v>
       </c>
+    </row>
+    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="P21" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>11</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" t="s">
+        <v>25</v>
+      </c>
+      <c r="U21" t="s">
+        <v>27</v>
+      </c>
+      <c r="X21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>6</v>
+      </c>
+      <c r="G22" s="1">
+        <f>E22-E22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="1">
+        <f>F22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
+        <f>D22*G22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1">
+        <f>E29</f>
+        <v>14.999999999999996</v>
+      </c>
+      <c r="M22" s="1">
+        <f>SQRT($G$29^2+L22^2)</f>
+        <v>52.201532544552741</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="P22" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0</v>
+      </c>
+      <c r="R22" s="1">
+        <v>0</v>
+      </c>
+      <c r="S22" s="1">
+        <f>Q22-Q22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="1">
+        <f>R22-R22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <f>P22*S22</f>
+        <v>0</v>
+      </c>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1">
+        <f>Q30</f>
+        <v>21.439393939393938</v>
+      </c>
+      <c r="Y22" s="1">
+        <f>SQRT($S$30^2+X22^2)</f>
+        <v>47.000440172770311</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D23" s="1">
+        <v>20</v>
+      </c>
+      <c r="E23" s="1">
+        <v>20</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1">
+        <f>E23-E22</f>
+        <v>20</v>
+      </c>
+      <c r="H23" s="1">
+        <f>F23-F22</f>
+        <v>-6</v>
+      </c>
+      <c r="I23" s="1">
+        <f>D23*SUM(G22:G23)</f>
+        <v>400</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1">
+        <f>L22-D23</f>
+        <v>-5.0000000000000036</v>
+      </c>
+      <c r="M23" s="1">
+        <f t="shared" ref="M23:M24" si="2">SQRT($G$29^2+L23^2)</f>
+        <v>50.249378105604443</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="P23" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>12</v>
+      </c>
+      <c r="R23" s="1">
+        <v>-6.1510600000000002</v>
+      </c>
+      <c r="S23" s="1">
+        <f>Q23-Q22</f>
+        <v>12</v>
+      </c>
+      <c r="T23" s="1">
+        <f>R23-R22</f>
+        <v>-6.1510600000000002</v>
+      </c>
+      <c r="U23" s="1">
+        <f>P23*SUM(S22:S23)</f>
+        <v>180</v>
+      </c>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
+        <f>X22-P23</f>
+        <v>6.4393939393939377</v>
+      </c>
+      <c r="Y23" s="1">
+        <f>SQRT($S$30^2+X23^2)</f>
+        <v>42.318548631213034</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>20</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" ref="G24:G25" si="3">E24-E23</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" ref="H24:H25" si="4">F24-F23</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
+        <f>D24*SUM(G22:G24)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1">
+        <f t="shared" ref="L24" si="5">L23-D24</f>
+        <v>-5.0000000000000036</v>
+      </c>
+      <c r="M24" s="1">
+        <f t="shared" si="2"/>
+        <v>50.249378105604443</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="P24" s="1">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>37</v>
+      </c>
+      <c r="R24" s="1">
+        <v>-10</v>
+      </c>
+      <c r="S24" s="1">
+        <f t="shared" ref="S24:S26" si="6">Q24-Q23</f>
+        <v>25</v>
+      </c>
+      <c r="T24" s="1">
+        <f t="shared" ref="T24:T26" si="7">R24-R23</f>
+        <v>-3.8489399999999998</v>
+      </c>
+      <c r="U24" s="1">
+        <f>P24*SUM(S22:S24)</f>
+        <v>555</v>
+      </c>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
+        <f t="shared" ref="X24" si="8">X23-P24</f>
+        <v>-8.5606060606060623</v>
+      </c>
+      <c r="Y24" s="1">
+        <f>SQRT($S$30^2+X24^2)</f>
+        <v>42.692830078018069</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>30</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="H25" s="1">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="I25" s="1">
+        <f>D25*SUM(G22:G25)</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="P25" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>49</v>
+      </c>
+      <c r="R25" s="1">
+        <v>-7.5439230000000004</v>
+      </c>
+      <c r="S25" s="1">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="T25" s="1">
+        <f t="shared" si="7"/>
+        <v>2.4560769999999996</v>
+      </c>
+      <c r="U25" s="1">
+        <f>P25*SUM(S22:S25)</f>
+        <v>490</v>
+      </c>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
+        <f t="shared" ref="X25" si="9">X24-P25</f>
+        <v>-18.560606060606062</v>
+      </c>
+      <c r="Y25" s="1">
+        <f>SQRT($S$30^2+X25^2)</f>
+        <v>45.759041306419938</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1">
+        <f>SUM(D23:D24)</f>
+        <v>20</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1">
+        <f>SUM(G22:G25)</f>
+        <v>30</v>
+      </c>
+      <c r="H26" s="1">
+        <f>SUM(H22:H25)</f>
+        <v>-5</v>
+      </c>
+      <c r="I26" s="1">
+        <f>SUM(I22:I25)</f>
+        <v>400</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>66</v>
+      </c>
+      <c r="R26" s="1">
+        <v>0</v>
+      </c>
+      <c r="S26" s="1">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="T26" s="1">
+        <f t="shared" si="7"/>
+        <v>7.5439230000000004</v>
+      </c>
+      <c r="U26" s="1">
+        <f>P26*SUM(S22:S26)</f>
+        <v>0</v>
+      </c>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="1">
+        <f>SUM(P23:P25)</f>
+        <v>40</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1">
+        <f>SUM(S22:S26)</f>
+        <v>66</v>
+      </c>
+      <c r="T27" s="1">
+        <f>SUM(T22:T26)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <f>SUM(U22:U26)</f>
+        <v>1225</v>
+      </c>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1">
+        <f>(D26-I26/G26)/(1-H26/G26*G23/H23)</f>
+        <v>14.999999999999996</v>
+      </c>
+      <c r="F29" s="1">
+        <f>D26-E29</f>
+        <v>5.0000000000000036</v>
+      </c>
+      <c r="G29" s="1">
+        <f>G23/H23*E29</f>
+        <v>-49.999999999999993</v>
+      </c>
+      <c r="H29" s="1">
+        <f>-G29</f>
+        <v>49.999999999999993</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="Q29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R29" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1">
+        <f>D26/(1-H25/G25*G23/H23)</f>
+        <v>15</v>
+      </c>
+      <c r="F30" s="1">
+        <f>D26-E30</f>
+        <v>5</v>
+      </c>
+      <c r="G30" s="1">
+        <f>E30*G23/H23</f>
+        <v>-50</v>
+      </c>
+      <c r="H30" s="1">
+        <f>-G30</f>
+        <v>50</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1">
+        <f>(P27-U27/S27)/(1-T27/S27*S23/T23)</f>
+        <v>21.439393939393938</v>
+      </c>
+      <c r="R30" s="1">
+        <f>P27-Q30</f>
+        <v>18.560606060606062</v>
+      </c>
+      <c r="S30" s="1">
+        <f>S23/T23*Q30</f>
+        <v>-41.825754792300394</v>
+      </c>
+      <c r="T30" s="1">
+        <f>-S30</f>
+        <v>41.825754792300394</v>
+      </c>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1">
+        <f>P27/(1-T26/S26*S23/T23)</f>
+        <v>21.439394868233901</v>
+      </c>
+      <c r="R31" s="1">
+        <f>P27-Q31</f>
+        <v>18.560605131766099</v>
+      </c>
+      <c r="S31" s="1">
+        <f>Q31*S23/T23</f>
+        <v>-41.825756604358723</v>
+      </c>
+      <c r="T31" s="1">
+        <f>-S31</f>
+        <v>41.825756604358723</v>
+      </c>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+    </row>
+    <row r="33" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+    </row>
+    <row r="34" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1">
+        <f>-H29*H26+F29*G26-D23*G23-D24*SUM(G23:G24)</f>
+        <v>1.1368683772161603E-13</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+    </row>
+    <row r="35" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1">
+        <f>-H30*H26+F30*G26-I26</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1">
+        <f>-T30*T27+R30*S27-P23*Q23-P24*Q24-P25*Q25</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="1">
+        <f>-T30*T27+R30*S27-U27</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+    </row>
+    <row r="36" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1">
+        <f>-T31*T27+R31*S27-P23*Q23-P24*Q24-P25*Q25</f>
+        <v>-6.130343740551325E-5</v>
+      </c>
+      <c r="R36" s="1">
+        <f>-T31*T27+R31*S27-U27</f>
+        <v>-6.130343740551325E-5</v>
+      </c>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+    </row>
+    <row r="37" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+    </row>
+    <row r="38" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+    </row>
+    <row r="39" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+    </row>
+    <row r="41" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+    </row>
+    <row r="42" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row r="44" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+      <c r="F44" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s">
+        <v>25</v>
+      </c>
+      <c r="I44" t="s">
+        <v>27</v>
+      </c>
+      <c r="L44" t="s">
+        <v>29</v>
+      </c>
+      <c r="M44" t="s">
+        <v>28</v>
+      </c>
+      <c r="P44" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" t="s">
+        <v>19</v>
+      </c>
+      <c r="S44" t="s">
+        <v>24</v>
+      </c>
+      <c r="T44" t="s">
+        <v>25</v>
+      </c>
+      <c r="U44" t="s">
+        <v>27</v>
+      </c>
+      <c r="X44" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <f>E45-E45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <f>F45-F45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1">
+        <f>D45*G45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="1">
+        <f>E52</f>
+        <v>5</v>
+      </c>
+      <c r="M45" s="1">
+        <f>SQRT($G$52^2+L45^2)</f>
+        <v>15.811388300841896</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>-327.5</v>
+      </c>
+      <c r="R45" s="1">
+        <v>447.5</v>
+      </c>
+      <c r="S45" s="1">
+        <f>Q45-Q45</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <f>R45-R45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <f>P45*S45</f>
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <f>Q57</f>
+        <v>521.45810021623799</v>
+      </c>
+      <c r="Y45" s="1">
+        <f>SQRT($S$57^2+X45^2)</f>
+        <v>600.54759221068468</v>
+      </c>
+    </row>
+    <row r="46" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D46" s="1">
+        <v>6</v>
+      </c>
+      <c r="E46" s="1">
+        <v>3</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="G46" s="1">
+        <f>E46-E45</f>
+        <v>3</v>
+      </c>
+      <c r="H46" s="1">
+        <f>F46-F45</f>
+        <v>-1</v>
+      </c>
+      <c r="I46" s="1">
+        <f>D46*SUM(G45:G46)</f>
+        <v>18</v>
+      </c>
+      <c r="L46" s="1">
+        <f>L45-D46</f>
+        <v>-1</v>
+      </c>
+      <c r="M46" s="1">
+        <f>SQRT($G$52^2+L46^2)</f>
+        <v>15.033296378372908</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="P46" s="1">
+        <v>193.46</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>-232.79</v>
+      </c>
+      <c r="R46" s="1">
+        <v>281.70999999999998</v>
+      </c>
+      <c r="S46" s="1">
+        <f>Q46-Q45</f>
+        <v>94.710000000000008</v>
+      </c>
+      <c r="T46" s="1">
+        <f>R46-R45</f>
+        <v>-165.79000000000002</v>
+      </c>
+      <c r="U46" s="1">
+        <f>P46*SUM(S45:S46)</f>
+        <v>18322.596600000001</v>
+      </c>
+      <c r="X46" s="1">
+        <f>X45-P46</f>
+        <v>327.99810021623796</v>
+      </c>
+      <c r="Y46" s="1">
+        <f>SQRT($S$57^2+X46^2)</f>
+        <v>443.08194950187709</v>
+      </c>
+    </row>
+    <row r="47" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D47" s="1">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" ref="G47:G48" si="10">E47-E46</f>
+        <v>3</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" ref="H47:H48" si="11">F47-F46</f>
+        <v>0.2</v>
+      </c>
+      <c r="I47" s="1">
+        <f>D47*SUM(G45:G47)</f>
+        <v>18</v>
+      </c>
+      <c r="L47" s="1">
+        <f>L46-D47</f>
+        <v>-4</v>
+      </c>
+      <c r="M47" s="1">
+        <f>SQRT($G$52^2+L47^2)</f>
+        <v>15.524174696260024</v>
+      </c>
+      <c r="P47" s="1">
+        <v>130.02000000000001</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>-156.86000000000001</v>
+      </c>
+      <c r="R47" s="1">
+        <v>198.1</v>
+      </c>
+      <c r="S47" s="1">
+        <f t="shared" ref="S47:S49" si="12">Q47-Q46</f>
+        <v>75.929999999999978</v>
+      </c>
+      <c r="T47" s="1">
+        <f t="shared" ref="T47:T49" si="13">R47-R46</f>
+        <v>-83.609999999999985</v>
+      </c>
+      <c r="U47" s="1">
+        <f>P47*SUM(S45:S47)</f>
+        <v>22186.612799999999</v>
+      </c>
+      <c r="X47" s="1">
+        <f t="shared" ref="X47:X48" si="14">X46-P47</f>
+        <v>197.97810021623795</v>
+      </c>
+      <c r="Y47" s="1">
+        <f>SQRT($S$57^2+X47^2)</f>
+        <v>357.67889005944068</v>
+      </c>
+    </row>
+    <row r="48" spans="4:25" x14ac:dyDescent="0.3">
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>9</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="11"/>
+        <v>0.8</v>
+      </c>
+      <c r="I48" s="1">
+        <f>D48*SUM(G46:G48)</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="1">
+        <v>138.63999999999999</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>-75.52</v>
+      </c>
+      <c r="R48" s="1">
+        <v>144.05000000000001</v>
+      </c>
+      <c r="S48" s="1">
+        <f t="shared" si="12"/>
+        <v>81.340000000000018</v>
+      </c>
+      <c r="T48" s="1">
+        <f t="shared" si="13"/>
+        <v>-54.049999999999983</v>
+      </c>
+      <c r="U48" s="1">
+        <f>P48*SUM(S45:S48)</f>
+        <v>34934.5072</v>
+      </c>
+      <c r="X48" s="1">
+        <f t="shared" si="14"/>
+        <v>59.338100216237962</v>
+      </c>
+      <c r="Y48" s="1">
+        <f>SQRT($S$57^2+X48^2)</f>
+        <v>303.7430992898357</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="1">
+        <f>SUM(D46:D47)</f>
+        <v>9</v>
+      </c>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1">
+        <f>SUM(G45:G48)</f>
+        <v>9</v>
+      </c>
+      <c r="H49" s="1">
+        <f>SUM(H45:H48)</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1">
+        <f>SUM(I45:I48)</f>
+        <v>36</v>
+      </c>
+      <c r="P49" s="1">
+        <v>118.34</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>-0.99</v>
+      </c>
+      <c r="R49" s="1">
+        <v>129.19999999999999</v>
+      </c>
+      <c r="S49" s="1">
+        <f t="shared" si="12"/>
+        <v>74.53</v>
+      </c>
+      <c r="T49" s="1">
+        <f t="shared" si="13"/>
+        <v>-14.850000000000023</v>
+      </c>
+      <c r="U49" s="1">
+        <f>P49*SUM(S45:S49)</f>
+        <v>38639.193399999996</v>
+      </c>
+      <c r="X49" s="1">
+        <f t="shared" ref="X49:X53" si="15">X48-P49</f>
+        <v>-59.001899783762042</v>
+      </c>
+      <c r="Y49" s="1">
+        <f t="shared" ref="Y49:Y53" si="16">SQRT($S$57^2+X49^2)</f>
+        <v>303.67759944884938</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="P50" s="1">
+        <v>28.77</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>87.25</v>
+      </c>
+      <c r="R50" s="1">
+        <v>146.68</v>
+      </c>
+      <c r="S50" s="1">
+        <f t="shared" ref="S50:S53" si="17">Q50-Q49</f>
+        <v>88.24</v>
+      </c>
+      <c r="T50" s="1">
+        <f t="shared" ref="T50:T53" si="18">R50-R49</f>
+        <v>17.480000000000018</v>
+      </c>
+      <c r="U50" s="1">
+        <f>P50*SUM(S45:S50)</f>
+        <v>11932.3575</v>
+      </c>
+      <c r="X50" s="1">
+        <f t="shared" si="15"/>
+        <v>-87.771899783762038</v>
+      </c>
+      <c r="Y50" s="1">
+        <f t="shared" si="16"/>
+        <v>310.55235729353831</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D51" s="1"/>
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="P51" s="1">
+        <v>121.84</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>182.23</v>
+      </c>
+      <c r="R51" s="1">
+        <v>174.67</v>
+      </c>
+      <c r="S51" s="1">
+        <f t="shared" si="17"/>
+        <v>94.97999999999999</v>
+      </c>
+      <c r="T51" s="1">
+        <f t="shared" si="18"/>
+        <v>27.989999999999981</v>
+      </c>
+      <c r="U51" s="1">
+        <f>P51*SUM(S45:S51)</f>
+        <v>62105.503200000006</v>
+      </c>
+      <c r="X51" s="1">
+        <f t="shared" si="15"/>
+        <v>-209.61189978376206</v>
+      </c>
+      <c r="Y51" s="1">
+        <f t="shared" si="16"/>
+        <v>364.24718085371728</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D52" s="1"/>
+      <c r="E52" s="1">
+        <f>(D49-I49/G49)/(1-H49/G49*G46/H46)</f>
+        <v>5</v>
+      </c>
+      <c r="F52" s="1">
+        <f>D49-E52</f>
+        <v>4</v>
+      </c>
+      <c r="G52" s="1">
+        <f>G46/H46*E52</f>
+        <v>-15</v>
+      </c>
+      <c r="H52" s="1">
+        <f>-G52</f>
+        <v>15</v>
+      </c>
+      <c r="I52" s="1"/>
+      <c r="P52" s="1">
+        <v>49</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>233.11</v>
+      </c>
+      <c r="R52" s="1">
+        <v>210.47</v>
+      </c>
+      <c r="S52" s="1">
+        <f t="shared" si="17"/>
+        <v>50.880000000000024</v>
+      </c>
+      <c r="T52" s="1">
+        <f t="shared" si="18"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="U52" s="1">
+        <f>P52*SUM(S45:S52)</f>
+        <v>27469.89</v>
+      </c>
+      <c r="X52" s="1">
+        <f t="shared" si="15"/>
+        <v>-258.61189978376206</v>
+      </c>
+      <c r="Y52" s="1">
+        <f t="shared" si="16"/>
+        <v>394.48570942264723</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D53" s="1"/>
+      <c r="E53" s="1">
+        <f>D49/(1-H48/G48*G46/H46)</f>
+        <v>5</v>
+      </c>
+      <c r="F53" s="1">
+        <f>D49-E53</f>
+        <v>4</v>
+      </c>
+      <c r="G53" s="1">
+        <f>E53*G46/H46</f>
+        <v>-15</v>
+      </c>
+      <c r="H53" s="1">
+        <f>-G53</f>
+        <v>15</v>
+      </c>
+      <c r="I53" s="1"/>
+      <c r="P53" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>327.5</v>
+      </c>
+      <c r="R53" s="1">
+        <v>292.41000000000003</v>
+      </c>
+      <c r="S53" s="1">
+        <f t="shared" si="17"/>
+        <v>94.389999999999986</v>
+      </c>
+      <c r="T53" s="1">
+        <f t="shared" si="18"/>
+        <v>81.940000000000026</v>
+      </c>
+      <c r="U53" s="1">
+        <f>P53*SUM(S45:S53)</f>
+        <v>0</v>
+      </c>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="E54" s="1"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="O54" t="s">
+        <v>18</v>
+      </c>
+      <c r="P54" s="1">
+        <f>SUM(P45:P53)</f>
+        <v>780.07</v>
+      </c>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1">
+        <f>SUM(S45:S53)</f>
+        <v>655</v>
+      </c>
+      <c r="T54" s="1">
+        <f>SUM(T45:T53)</f>
+        <v>-155.09</v>
+      </c>
+      <c r="U54" s="1">
+        <f>SUM(U45:U53)</f>
+        <v>215590.66070000001</v>
+      </c>
+    </row>
+    <row r="55" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+      <c r="U55" s="1"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="Q56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T56" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U56" s="1"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D57" s="1"/>
+      <c r="E57" s="1">
+        <f>-H52*H49+F52*G49-D46*G46-D47*SUM(G46:G47)</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1">
+        <f>(P54-U54/S54)/(1-T54/S54*S46/T46)</f>
+        <v>521.45810021623799</v>
+      </c>
+      <c r="R57" s="1">
+        <f>P54-Q57</f>
+        <v>258.61189978376206</v>
+      </c>
+      <c r="S57" s="1">
+        <f>S46/T46*Q57</f>
+        <v>-297.8906850321485</v>
+      </c>
+      <c r="T57" s="1">
+        <f>-S57</f>
+        <v>297.8906850321485</v>
+      </c>
+      <c r="U57" s="1"/>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
+        <f>-H53*H49+F53*G49-I49</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1">
+        <f>P54/(1-T53/S53*S46/T46)</f>
+        <v>521.46670144749839</v>
+      </c>
+      <c r="R58" s="1">
+        <f>P54-Q58</f>
+        <v>258.60329855250166</v>
+      </c>
+      <c r="S58" s="1">
+        <f>Q58*S46/T46</f>
+        <v>-297.89559861326114</v>
+      </c>
+      <c r="T58" s="1">
+        <f>-S58</f>
+        <v>297.89559861326114</v>
+      </c>
+      <c r="U58" s="1"/>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+      <c r="U60" s="1"/>
+    </row>
+    <row r="61" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="D61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1">
+        <f>-T57*T54+R57*S54-U54</f>
+        <v>0</v>
+      </c>
+      <c r="R61" s="1">
+        <f>-T57*T54+R57*S54-U54</f>
+        <v>0</v>
+      </c>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+      <c r="U61" s="1"/>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1">
+        <f>-T58*T54+R58*S54-U54</f>
+        <v>-4.8717591807653662</v>
+      </c>
+      <c r="R62" s="1">
+        <f>-T58*T54+R58*S54-U54</f>
+        <v>-4.8717591807653662</v>
+      </c>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/sms_calc.xlsx
+++ b/sms_calc.xlsx
@@ -1,20 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 경남대학교\GitHub\sms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BC559D-CC80-4156-BC55-9AD46161A30C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{320C54E3-CF1C-4704-85E3-05BC2A60B5BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B9178110-FA82-441D-9A7A-91BC9B243B04}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{B9178110-FA82-441D-9A7A-91BC9B243B04}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="bending experiment" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="54">
   <si>
     <t>theta1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,16 +158,116 @@
     <t>acc_fy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Simple beam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cantilever beam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL^2/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Px^2/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Px^2/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL^2x/16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL^2x/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Px^3/12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Px^3/6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>y'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,6 +278,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -197,12 +309,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -215,8 +330,24 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -230,6 +361,1188 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'bending experiment'!$G$32:$G$51</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>52.36268221574344</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46.85247813411079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.342274052478139</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.832069970845488</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.32186588921283</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.811661807580176</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.301457725947522</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13.791253644314869</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2810495626822149</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.7708454810495629</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-2.7708454810495629</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.2810495626822149</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-13.791253644314869</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-19.301457725947522</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-24.811661807580176</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-30.32186588921283</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-35.832069970845488</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-41.342274052478139</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-46.85247813411079</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-52.36268221574344</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'bending experiment'!$B$32:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>16.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.88</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.38</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.88</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.38</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.63</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-6.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-7.88</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.6300000000000008</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-11.38</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-13.13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-14.88</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-16.63</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7F6-48CA-AE39-690E1EA19004}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="447860480"/>
+        <c:axId val="447863760"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="447860480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447863760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="447863760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447860480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="32">
+          <cell r="B32">
+            <v>16.63</v>
+          </cell>
+          <cell r="G32">
+            <v>52.36268221574344</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="B33">
+            <v>14.88</v>
+          </cell>
+          <cell r="G33">
+            <v>46.85247813411079</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="B34">
+            <v>13.13</v>
+          </cell>
+          <cell r="G34">
+            <v>41.342274052478139</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="B35">
+            <v>11.38</v>
+          </cell>
+          <cell r="G35">
+            <v>35.832069970845488</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="B36">
+            <v>9.6300000000000008</v>
+          </cell>
+          <cell r="G36">
+            <v>30.32186588921283</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="B37">
+            <v>7.88</v>
+          </cell>
+          <cell r="G37">
+            <v>24.811661807580176</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="B38">
+            <v>6.13</v>
+          </cell>
+          <cell r="G38">
+            <v>19.301457725947522</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="B39">
+            <v>4.38</v>
+          </cell>
+          <cell r="G39">
+            <v>13.791253644314869</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="B40">
+            <v>2.63</v>
+          </cell>
+          <cell r="G40">
+            <v>8.2810495626822149</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="B41">
+            <v>0.88</v>
+          </cell>
+          <cell r="G41">
+            <v>2.7708454810495629</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="B42">
+            <v>-0.88</v>
+          </cell>
+          <cell r="G42">
+            <v>-2.7708454810495629</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="B43">
+            <v>-2.63</v>
+          </cell>
+          <cell r="G43">
+            <v>-8.2810495626822149</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>-4.38</v>
+          </cell>
+          <cell r="G44">
+            <v>-13.791253644314869</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>-6.13</v>
+          </cell>
+          <cell r="G45">
+            <v>-19.301457725947522</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="B46">
+            <v>-7.88</v>
+          </cell>
+          <cell r="G46">
+            <v>-24.811661807580176</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="B47">
+            <v>-9.6300000000000008</v>
+          </cell>
+          <cell r="G47">
+            <v>-30.32186588921283</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="B48">
+            <v>-11.38</v>
+          </cell>
+          <cell r="G48">
+            <v>-35.832069970845488</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="B49">
+            <v>-13.13</v>
+          </cell>
+          <cell r="G49">
+            <v>-41.342274052478139</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="B50">
+            <v>-14.88</v>
+          </cell>
+          <cell r="G50">
+            <v>-46.85247813411079</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="B51">
+            <v>-16.63</v>
+          </cell>
+          <cell r="G51">
+            <v>-52.36268221574344</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -531,7 +1844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47CDB12A-83CC-4490-8117-7A72E0BFF321}">
   <dimension ref="A1:Y62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R61" sqref="R61"/>
     </sheetView>
   </sheetViews>
@@ -2352,11 +3665,11 @@
         <v>38639.193399999996</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" ref="X49:X53" si="15">X48-P49</f>
+        <f t="shared" ref="X49:X52" si="15">X48-P49</f>
         <v>-59.001899783762042</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" ref="Y49:Y53" si="16">SQRT($S$57^2+X49^2)</f>
+        <f t="shared" ref="Y49:Y52" si="16">SQRT($S$57^2+X49^2)</f>
         <v>303.67759944884938</v>
       </c>
     </row>
@@ -2710,4 +4023,1805 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541B90AC-C7DB-47FE-99C5-5BFA0071C61B}">
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="8" width="12.75" style="5" customWidth="1"/>
+    <col min="9" max="17" width="12.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="J1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="5">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
+        <v>25</v>
+      </c>
+      <c r="D2" s="5">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5">
+        <v>75</v>
+      </c>
+      <c r="F2" s="5">
+        <v>100</v>
+      </c>
+      <c r="G2" s="5">
+        <v>125</v>
+      </c>
+      <c r="H2" s="5">
+        <v>150</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>50</v>
+      </c>
+      <c r="M2" s="5">
+        <v>100</v>
+      </c>
+      <c r="N2" s="5">
+        <v>150</v>
+      </c>
+      <c r="O2" s="5">
+        <v>200</v>
+      </c>
+      <c r="P2" s="5">
+        <v>250</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5">
+        <f>B18</f>
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:H3" si="0">C18</f>
+        <v>2.5996112730806611</v>
+      </c>
+      <c r="D3" s="5">
+        <f t="shared" si="0"/>
+        <v>5.0534499514091351</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" si="0"/>
+        <v>7.2157434402332363</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" si="0"/>
+        <v>8.9407191448007772</v>
+      </c>
+      <c r="G3" s="5">
+        <f t="shared" si="0"/>
+        <v>10.082604470359573</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" si="0"/>
+        <v>10.495626822157433</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="5">
+        <f>K18</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:Q3" si="1">L18</f>
+        <v>2.2135416666666665</v>
+      </c>
+      <c r="M3" s="5">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N3" s="5">
+        <f t="shared" si="1"/>
+        <v>17.578125</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" si="1"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="P3" s="5">
+        <f t="shared" si="1"/>
+        <v>42.317708333333329</v>
+      </c>
+      <c r="Q3" s="5">
+        <f t="shared" si="1"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I4" s="6"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="C5" s="5">
+        <f>B5</f>
+        <v>5000</v>
+      </c>
+      <c r="D5" s="5">
+        <f t="shared" ref="D5:H5" si="2">C5</f>
+        <v>5000</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="G5" s="5">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>5000</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="5">
+        <f>5000</f>
+        <v>5000</v>
+      </c>
+      <c r="L5" s="5">
+        <f>K5</f>
+        <v>5000</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" ref="M5:Q7" si="3">L5</f>
+        <v>5000</v>
+      </c>
+      <c r="N5" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="3"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>30</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" ref="C6:H10" si="4">B6</f>
+        <v>30</v>
+      </c>
+      <c r="D6" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="G6" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="4"/>
+        <v>30</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="5">
+        <v>30</v>
+      </c>
+      <c r="L6" s="5">
+        <f>K6</f>
+        <v>30</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="N6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="3"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="D7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="F7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="G7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="5">
+        <v>40</v>
+      </c>
+      <c r="L7" s="5">
+        <f>K7</f>
+        <v>40</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="N7" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <f>B6*B7^3/12</f>
+        <v>107187.5</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="D8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="G8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="4"/>
+        <v>107187.5</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="5">
+        <f>K6*K7^3/12</f>
+        <v>160000</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" ref="L8:Q10" si="5">K8</f>
+        <v>160000</v>
+      </c>
+      <c r="M8" s="5">
+        <f t="shared" si="5"/>
+        <v>160000</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="5"/>
+        <v>160000</v>
+      </c>
+      <c r="O8" s="5">
+        <f t="shared" si="5"/>
+        <v>160000</v>
+      </c>
+      <c r="P8" s="5">
+        <f t="shared" si="5"/>
+        <v>160000</v>
+      </c>
+      <c r="Q8" s="5">
+        <f t="shared" si="5"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>10000</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="D9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="F9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="G9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="4"/>
+        <v>10000</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="5">
+        <v>5000</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="M9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="N9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="O9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="P9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+      <c r="Q9" s="5">
+        <f t="shared" si="5"/>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <v>300</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="D10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="F10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="G10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="4"/>
+        <v>300</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="5">
+        <v>300</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="M10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="N10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="O10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="P10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="Q10" s="5">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="5">
+        <f>B9*B10^2/(16*B5*B8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="C12" s="5">
+        <f>C9*C10^2/(16*C5*C8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="D12" s="5">
+        <f>D9*D10^2/(16*D5*D8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="E12" s="5">
+        <f>E9*E10^2/(16*E5*E8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="F12" s="5">
+        <f>F9*F10^2/(16*F5*F8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="G12" s="5">
+        <f>G9*G10^2/(16*G5*G8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="H12" s="5">
+        <f>H9*H10^2/(16*H5*H8)</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="5">
+        <f>K9*K10*K2/(K5*K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" ref="L12:Q12" si="6">L9*L10*L2/(L5*L8)</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="M12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.1875</v>
+      </c>
+      <c r="N12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.28125</v>
+      </c>
+      <c r="O12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.375</v>
+      </c>
+      <c r="P12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.46875</v>
+      </c>
+      <c r="Q12" s="5">
+        <f t="shared" si="6"/>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="5">
+        <f>-B9*B2^2/(4*B5*B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="5">
+        <f>-C9*C2^2/(4*C5*C8)</f>
+        <v>-2.9154518950437317E-3</v>
+      </c>
+      <c r="D13" s="5">
+        <f>-D9*D2^2/(4*D5*D8)</f>
+        <v>-1.1661807580174927E-2</v>
+      </c>
+      <c r="E13" s="5">
+        <f>-E9*E2^2/(4*E5*E8)</f>
+        <v>-2.6239067055393587E-2</v>
+      </c>
+      <c r="F13" s="5">
+        <f>-F9*F2^2/(4*F5*F8)</f>
+        <v>-4.6647230320699708E-2</v>
+      </c>
+      <c r="G13" s="5">
+        <f>-G9*G2^2/(4*G5*G8)</f>
+        <v>-7.2886297376093298E-2</v>
+      </c>
+      <c r="H13" s="5">
+        <f>-H9*H2^2/(4*H5*H8)</f>
+        <v>-0.10495626822157435</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="5">
+        <f>-K9*K2^2/(2*K5*K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" ref="L13:Q13" si="7">-L9*L2^2/(2*L5*L8)</f>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="M13" s="5">
+        <f t="shared" si="7"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="N13" s="5">
+        <f t="shared" si="7"/>
+        <v>-7.03125E-2</v>
+      </c>
+      <c r="O13" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.125</v>
+      </c>
+      <c r="P13" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.1953125</v>
+      </c>
+      <c r="Q13" s="5">
+        <f t="shared" si="7"/>
+        <v>-0.28125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="5">
+        <f>B12+B13</f>
+        <v>0.10495626822157435</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" ref="C14:H14" si="8">C12+C13</f>
+        <v>0.10204081632653061</v>
+      </c>
+      <c r="D14" s="5">
+        <f t="shared" si="8"/>
+        <v>9.3294460641399415E-2</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="8"/>
+        <v>7.8717201166180764E-2</v>
+      </c>
+      <c r="F14" s="5">
+        <f t="shared" si="8"/>
+        <v>5.830903790087464E-2</v>
+      </c>
+      <c r="G14" s="5">
+        <f t="shared" si="8"/>
+        <v>3.2069970845481049E-2</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="5">
+        <f>K12+K13</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <f t="shared" ref="L14:Q14" si="9">L12+L13</f>
+        <v>8.59375E-2</v>
+      </c>
+      <c r="M14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.15625</v>
+      </c>
+      <c r="N14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2109375</v>
+      </c>
+      <c r="O14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.25</v>
+      </c>
+      <c r="P14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.2734375</v>
+      </c>
+      <c r="Q14" s="5">
+        <f t="shared" si="9"/>
+        <v>0.28125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="I15" s="6"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+      <c r="O15" s="5"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="5">
+        <f>B9*B10^2*B2/(16*B5*B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="5">
+        <f t="shared" ref="C16:H16" si="10">C9*C10^2*C2/(16*C5*C8)</f>
+        <v>2.6239067055393588</v>
+      </c>
+      <c r="D16" s="5">
+        <f t="shared" si="10"/>
+        <v>5.2478134110787176</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="10"/>
+        <v>7.8717201166180759</v>
+      </c>
+      <c r="F16" s="5">
+        <f t="shared" si="10"/>
+        <v>10.495626822157435</v>
+      </c>
+      <c r="G16" s="5">
+        <f t="shared" si="10"/>
+        <v>13.119533527696793</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="10"/>
+        <v>15.743440233236152</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" t="s">
+        <v>44</v>
+      </c>
+      <c r="K16" s="5">
+        <f>K9*K10*K2^2/(2*K5*K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="5">
+        <f t="shared" ref="L16:Q16" si="11">L9*L10*L2^2/(2*L5*L8)</f>
+        <v>2.34375</v>
+      </c>
+      <c r="M16" s="5">
+        <f t="shared" si="11"/>
+        <v>9.375</v>
+      </c>
+      <c r="N16" s="5">
+        <f t="shared" si="11"/>
+        <v>21.09375</v>
+      </c>
+      <c r="O16" s="5">
+        <f t="shared" si="11"/>
+        <v>37.5</v>
+      </c>
+      <c r="P16" s="5">
+        <f t="shared" si="11"/>
+        <v>58.59375</v>
+      </c>
+      <c r="Q16" s="5">
+        <f t="shared" si="11"/>
+        <v>84.375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="5">
+        <f>-B9*B2^3/(12*B5*B8)</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="5">
+        <f t="shared" ref="C17:H17" si="12">-C9*C2^3/(12*C5*C8)</f>
+        <v>-2.4295432458697766E-2</v>
+      </c>
+      <c r="D17" s="5">
+        <f t="shared" si="12"/>
+        <v>-0.19436345966958213</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="12"/>
+        <v>-0.6559766763848397</v>
+      </c>
+      <c r="F17" s="5">
+        <f t="shared" si="12"/>
+        <v>-1.554907677356657</v>
+      </c>
+      <c r="G17" s="5">
+        <f t="shared" si="12"/>
+        <v>-3.0369290573372205</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="12"/>
+        <v>-5.2478134110787176</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" s="5">
+        <f>-K9*K2^3/(6*K5*K8)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="5">
+        <f t="shared" ref="L17:Q17" si="13">-L9*L2^3/(6*L5*L8)</f>
+        <v>-0.13020833333333334</v>
+      </c>
+      <c r="M17" s="5">
+        <f t="shared" si="13"/>
+        <v>-1.0416666666666667</v>
+      </c>
+      <c r="N17" s="5">
+        <f t="shared" si="13"/>
+        <v>-3.515625</v>
+      </c>
+      <c r="O17" s="5">
+        <f t="shared" si="13"/>
+        <v>-8.3333333333333339</v>
+      </c>
+      <c r="P17" s="5">
+        <f t="shared" si="13"/>
+        <v>-16.276041666666668</v>
+      </c>
+      <c r="Q17" s="5">
+        <f t="shared" si="13"/>
+        <v>-28.125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="5">
+        <f>B16+B17</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="5">
+        <f t="shared" ref="C18:H18" si="14">C16+C17</f>
+        <v>2.5996112730806611</v>
+      </c>
+      <c r="D18" s="5">
+        <f t="shared" si="14"/>
+        <v>5.0534499514091351</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" si="14"/>
+        <v>7.2157434402332363</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="14"/>
+        <v>8.9407191448007772</v>
+      </c>
+      <c r="G18" s="5">
+        <f t="shared" si="14"/>
+        <v>10.082604470359573</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="14"/>
+        <v>10.495626822157433</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="5">
+        <f>K16+K17</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="5">
+        <f t="shared" ref="L18:Q18" si="15">L16+L17</f>
+        <v>2.2135416666666665</v>
+      </c>
+      <c r="M18" s="5">
+        <f t="shared" si="15"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="N18" s="5">
+        <f t="shared" si="15"/>
+        <v>17.578125</v>
+      </c>
+      <c r="O18" s="5">
+        <f t="shared" si="15"/>
+        <v>29.166666666666664</v>
+      </c>
+      <c r="P18" s="5">
+        <f t="shared" si="15"/>
+        <v>42.317708333333329</v>
+      </c>
+      <c r="Q18" s="5">
+        <f t="shared" si="15"/>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="5"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="5">
+        <f>COS(B14)</f>
+        <v>0.99449714520141286</v>
+      </c>
+      <c r="C20" s="5">
+        <f>COS(C14)</f>
+        <v>0.99479835169156194</v>
+      </c>
+      <c r="D20" s="5">
+        <f>COS(D14)</f>
+        <v>0.995651227437653</v>
+      </c>
+      <c r="E20" s="5">
+        <f>COS(E14)</f>
+        <v>0.9969034005959333</v>
+      </c>
+      <c r="F20" s="5">
+        <f>COS(F14)</f>
+        <v>0.99830050964572636</v>
+      </c>
+      <c r="G20" s="5">
+        <f>COS(G14)</f>
+        <v>0.99948580255753006</v>
+      </c>
+      <c r="H20" s="5">
+        <f>COS(H14)</f>
+        <v>1</v>
+      </c>
+      <c r="J20" t="s">
+        <v>48</v>
+      </c>
+      <c r="K20" s="5">
+        <f>COS(K14)</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="5">
+        <f>COS(L14)</f>
+        <v>0.99630964506979802</v>
+      </c>
+      <c r="M20" s="5">
+        <f>COS(M14)</f>
+        <v>0.98781778381647189</v>
+      </c>
+      <c r="N20" s="5">
+        <f>COS(N14)</f>
+        <v>0.97783505379795976</v>
+      </c>
+      <c r="O20" s="5">
+        <f>COS(O14)</f>
+        <v>0.96891242171064473</v>
+      </c>
+      <c r="P20" s="5">
+        <f>COS(P14)</f>
+        <v>0.9628483147093797</v>
+      </c>
+      <c r="Q20" s="5">
+        <f>COS(Q14)</f>
+        <v>0.96070924301556193</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="5">
+        <f>SIN(B14)</f>
+        <v>0.10476367780027608</v>
+      </c>
+      <c r="C21" s="5">
+        <f>SIN(C14)</f>
+        <v>0.10186382808314016</v>
+      </c>
+      <c r="D21" s="5">
+        <f>SIN(D14)</f>
+        <v>9.3159182595678125E-2</v>
+      </c>
+      <c r="E21" s="5">
+        <f>SIN(E14)</f>
+        <v>7.86359325007603E-2</v>
+      </c>
+      <c r="F21" s="5">
+        <f>SIN(F14)</f>
+        <v>5.8276002274375273E-2</v>
+      </c>
+      <c r="G21" s="5">
+        <f>SIN(G14)</f>
+        <v>3.2064473891366845E-2</v>
+      </c>
+      <c r="H21" s="5">
+        <f>SIN(H14)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="5">
+        <f>SIN(K14)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="5">
+        <f>SIN(L14)</f>
+        <v>8.5831760676879351E-2</v>
+      </c>
+      <c r="M21" s="5">
+        <f>SIN(M14)</f>
+        <v>0.15561499277355603</v>
+      </c>
+      <c r="N21" s="5">
+        <f>SIN(N14)</f>
+        <v>0.20937671208599365</v>
+      </c>
+      <c r="O21" s="5">
+        <f>SIN(O14)</f>
+        <v>0.24740395925452294</v>
+      </c>
+      <c r="P21" s="5">
+        <f>SIN(P14)</f>
+        <v>0.27004281671858504</v>
+      </c>
+      <c r="Q21" s="5">
+        <f>SIN(Q14)</f>
+        <v>0.27755675164633631</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="5">
+        <v>0</v>
+      </c>
+      <c r="N22" s="5">
+        <v>0</v>
+      </c>
+      <c r="O22" s="5">
+        <v>0</v>
+      </c>
+      <c r="P22" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="5">
+        <f>-B7</f>
+        <v>-35</v>
+      </c>
+      <c r="C23" s="5">
+        <f>B23</f>
+        <v>-35</v>
+      </c>
+      <c r="D23" s="5">
+        <f t="shared" ref="D23:H23" si="16">C23</f>
+        <v>-35</v>
+      </c>
+      <c r="E23" s="5">
+        <f t="shared" si="16"/>
+        <v>-35</v>
+      </c>
+      <c r="F23" s="5">
+        <f t="shared" si="16"/>
+        <v>-35</v>
+      </c>
+      <c r="G23" s="5">
+        <f t="shared" si="16"/>
+        <v>-35</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="16"/>
+        <v>-35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>12</v>
+      </c>
+      <c r="K23" s="5">
+        <f>-K7</f>
+        <v>-40</v>
+      </c>
+      <c r="L23" s="5">
+        <f>K23</f>
+        <v>-40</v>
+      </c>
+      <c r="M23" s="5">
+        <f t="shared" ref="M23:Q23" si="17">L23</f>
+        <v>-40</v>
+      </c>
+      <c r="N23" s="5">
+        <f t="shared" si="17"/>
+        <v>-40</v>
+      </c>
+      <c r="O23" s="5">
+        <f t="shared" si="17"/>
+        <v>-40</v>
+      </c>
+      <c r="P23" s="5">
+        <f t="shared" si="17"/>
+        <v>-40</v>
+      </c>
+      <c r="Q23" s="5">
+        <f t="shared" si="17"/>
+        <v>-40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="5">
+        <f>B20*B22-B21*B23</f>
+        <v>3.6667287230096628</v>
+      </c>
+      <c r="C25" s="5">
+        <f>C20*C22-C21*C23</f>
+        <v>3.5652339829099056</v>
+      </c>
+      <c r="D25" s="5">
+        <f>D20*D22-D21*D23</f>
+        <v>3.2605713908487344</v>
+      </c>
+      <c r="E25" s="5">
+        <f>E20*E22-E21*E23</f>
+        <v>2.7522576375266103</v>
+      </c>
+      <c r="F25" s="5">
+        <f>F20*F22-F21*F23</f>
+        <v>2.0396600796031343</v>
+      </c>
+      <c r="G25" s="5">
+        <f>G20*G22-G21*G23</f>
+        <v>1.1222565861978395</v>
+      </c>
+      <c r="H25" s="5">
+        <f>H20*H22-H21*H23</f>
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>50</v>
+      </c>
+      <c r="K25" s="5">
+        <f>K20*K22-K21*K23</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="5">
+        <f>L20*L22-L21*L23</f>
+        <v>3.4332704270751742</v>
+      </c>
+      <c r="M25" s="5">
+        <f>M20*M22-M21*M23</f>
+        <v>6.2245997109422415</v>
+      </c>
+      <c r="N25" s="5">
+        <f>N20*N22-N21*N23</f>
+        <v>8.3750684834397457</v>
+      </c>
+      <c r="O25" s="5">
+        <f>O20*O22-O21*O23</f>
+        <v>9.8961583701809168</v>
+      </c>
+      <c r="P25" s="5">
+        <f>P20*P22-P21*P23</f>
+        <v>10.801712668743402</v>
+      </c>
+      <c r="Q25" s="5">
+        <f>Q20*Q22-Q21*Q23</f>
+        <v>11.102270065853453</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="5">
+        <f>B21*B22+B20*B23</f>
+        <v>-34.807400082049448</v>
+      </c>
+      <c r="C26" s="5">
+        <f>C21*C22+C20*C23</f>
+        <v>-34.817942309204668</v>
+      </c>
+      <c r="D26" s="5">
+        <f>D21*D22+D20*D23</f>
+        <v>-34.847792960317854</v>
+      </c>
+      <c r="E26" s="5">
+        <f>E21*E22+E20*E23</f>
+        <v>-34.891619020857668</v>
+      </c>
+      <c r="F26" s="5">
+        <f>F21*F22+F20*F23</f>
+        <v>-34.940517837600424</v>
+      </c>
+      <c r="G26" s="5">
+        <f>G21*G22+G20*G23</f>
+        <v>-34.982003089513555</v>
+      </c>
+      <c r="H26" s="5">
+        <f>H21*H22+H20*H23</f>
+        <v>-35</v>
+      </c>
+      <c r="J26" t="s">
+        <v>51</v>
+      </c>
+      <c r="K26" s="5">
+        <f>K21*K22+K20*K23</f>
+        <v>-40</v>
+      </c>
+      <c r="L26" s="5">
+        <f>L21*L22+L20*L23</f>
+        <v>-39.852385802791922</v>
+      </c>
+      <c r="M26" s="5">
+        <f>M21*M22+M20*M23</f>
+        <v>-39.512711352658876</v>
+      </c>
+      <c r="N26" s="5">
+        <f>N21*N22+N20*N23</f>
+        <v>-39.113402151918393</v>
+      </c>
+      <c r="O26" s="5">
+        <f>O21*O22+O20*O23</f>
+        <v>-38.756496868425792</v>
+      </c>
+      <c r="P26" s="5">
+        <f>P21*P22+P20*P23</f>
+        <v>-38.513932588375191</v>
+      </c>
+      <c r="Q26" s="5">
+        <f>Q21*Q22+Q20*Q23</f>
+        <v>-38.428369720622477</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="5">
+        <f>B2+B25</f>
+        <v>3.6667287230096628</v>
+      </c>
+      <c r="C27" s="5">
+        <f t="shared" ref="C27:H28" si="18">C2+C25</f>
+        <v>28.565233982909906</v>
+      </c>
+      <c r="D27" s="5">
+        <f t="shared" si="18"/>
+        <v>53.260571390848732</v>
+      </c>
+      <c r="E27" s="5">
+        <f t="shared" si="18"/>
+        <v>77.752257637526611</v>
+      </c>
+      <c r="F27" s="5">
+        <f t="shared" si="18"/>
+        <v>102.03966007960314</v>
+      </c>
+      <c r="G27" s="5">
+        <f t="shared" si="18"/>
+        <v>126.12225658619784</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="18"/>
+        <v>150</v>
+      </c>
+      <c r="J27" t="s">
+        <v>52</v>
+      </c>
+      <c r="K27" s="5">
+        <f>K2+K25</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="5">
+        <f t="shared" ref="L27:Q28" si="19">L2+L25</f>
+        <v>53.433270427075172</v>
+      </c>
+      <c r="M27" s="5">
+        <f t="shared" si="19"/>
+        <v>106.22459971094224</v>
+      </c>
+      <c r="N27" s="5">
+        <f t="shared" si="19"/>
+        <v>158.37506848343975</v>
+      </c>
+      <c r="O27" s="5">
+        <f t="shared" si="19"/>
+        <v>209.89615837018093</v>
+      </c>
+      <c r="P27" s="5">
+        <f t="shared" si="19"/>
+        <v>260.80171266874339</v>
+      </c>
+      <c r="Q27" s="5">
+        <f t="shared" si="19"/>
+        <v>311.10227006585347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="5">
+        <f>B3+B26</f>
+        <v>-34.807400082049448</v>
+      </c>
+      <c r="C28" s="5">
+        <f t="shared" si="18"/>
+        <v>-32.218331036124006</v>
+      </c>
+      <c r="D28" s="5">
+        <f t="shared" si="18"/>
+        <v>-29.794343008908719</v>
+      </c>
+      <c r="E28" s="5">
+        <f t="shared" si="18"/>
+        <v>-27.675875580624432</v>
+      </c>
+      <c r="F28" s="5">
+        <f t="shared" si="18"/>
+        <v>-25.999798692799647</v>
+      </c>
+      <c r="G28" s="5">
+        <f t="shared" si="18"/>
+        <v>-24.899398619153981</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="18"/>
+        <v>-24.504373177842567</v>
+      </c>
+      <c r="J28" t="s">
+        <v>53</v>
+      </c>
+      <c r="K28" s="5">
+        <f>K3+K26</f>
+        <v>-40</v>
+      </c>
+      <c r="L28" s="5">
+        <f t="shared" si="19"/>
+        <v>-37.638844136125257</v>
+      </c>
+      <c r="M28" s="5">
+        <f t="shared" si="19"/>
+        <v>-31.17937801932554</v>
+      </c>
+      <c r="N28" s="5">
+        <f t="shared" si="19"/>
+        <v>-21.535277151918393</v>
+      </c>
+      <c r="O28" s="5">
+        <f t="shared" si="19"/>
+        <v>-9.5898302017591277</v>
+      </c>
+      <c r="P28" s="5">
+        <f t="shared" si="19"/>
+        <v>3.8037757449581378</v>
+      </c>
+      <c r="Q28" s="5">
+        <f t="shared" si="19"/>
+        <v>17.821630279377523</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="G31" s="5">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>10</v>
+      </c>
+      <c r="B32" s="5">
+        <v>16.63</v>
+      </c>
+      <c r="G32" s="5">
+        <f>(G$31/$B$10*2)*($B$9*$B$10/4)/$B$8*B32</f>
+        <v>52.36268221574344</v>
+      </c>
+      <c r="H32" s="5">
+        <f>G32*$B$6*1.75*B32</f>
+        <v>45716.5487755102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5">
+        <v>14.88</v>
+      </c>
+      <c r="G33" s="5">
+        <f t="shared" ref="G33:G52" si="20">(G$31/$B$10*2)*($B$9*$B$10/4)/$B$8*B33</f>
+        <v>46.85247813411079</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" ref="H33:H51" si="21">G33*$B$6*1.75*B33</f>
+        <v>36601.155918367353</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>8</v>
+      </c>
+      <c r="B34" s="5">
+        <v>13.13</v>
+      </c>
+      <c r="G34" s="5">
+        <f t="shared" si="20"/>
+        <v>41.342274052478139</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="21"/>
+        <v>28498.263061224494</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" s="5">
+        <v>11.38</v>
+      </c>
+      <c r="G35" s="5">
+        <f t="shared" si="20"/>
+        <v>35.832069970845488</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="21"/>
+        <v>21407.870204081635</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>6</v>
+      </c>
+      <c r="B36" s="5">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="G36" s="5">
+        <f t="shared" si="20"/>
+        <v>30.32186588921283</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="21"/>
+        <v>15329.977346938776</v>
+      </c>
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37" s="5">
+        <v>7.88</v>
+      </c>
+      <c r="G37" s="5">
+        <f t="shared" si="20"/>
+        <v>24.811661807580176</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="21"/>
+        <v>10264.58448979592</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5">
+        <v>6.13</v>
+      </c>
+      <c r="G38" s="5">
+        <f t="shared" si="20"/>
+        <v>19.301457725947522</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="21"/>
+        <v>6211.6916326530618</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" s="5">
+        <v>4.38</v>
+      </c>
+      <c r="G39" s="5">
+        <f t="shared" si="20"/>
+        <v>13.791253644314869</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="21"/>
+        <v>3171.298775510204</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2.63</v>
+      </c>
+      <c r="G40" s="5">
+        <f t="shared" si="20"/>
+        <v>8.2810495626822149</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="21"/>
+        <v>1143.4059183673467</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1</v>
+      </c>
+      <c r="B41" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="G41" s="5">
+        <f t="shared" si="20"/>
+        <v>2.7708454810495629</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="21"/>
+        <v>128.0130612244898</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B42" s="5">
+        <f>-B41</f>
+        <v>-0.88</v>
+      </c>
+      <c r="G42" s="5">
+        <f t="shared" si="20"/>
+        <v>-2.7708454810495629</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="21"/>
+        <v>128.0130612244898</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B43" s="5">
+        <f>-B40</f>
+        <v>-2.63</v>
+      </c>
+      <c r="G43" s="5">
+        <f t="shared" si="20"/>
+        <v>-8.2810495626822149</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="21"/>
+        <v>1143.4059183673467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B44" s="5">
+        <f>-B39</f>
+        <v>-4.38</v>
+      </c>
+      <c r="G44" s="5">
+        <f t="shared" si="20"/>
+        <v>-13.791253644314869</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="21"/>
+        <v>3171.298775510204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B45" s="5">
+        <f>-B38</f>
+        <v>-6.13</v>
+      </c>
+      <c r="G45" s="5">
+        <f t="shared" si="20"/>
+        <v>-19.301457725947522</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="21"/>
+        <v>6211.6916326530618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B46" s="5">
+        <f>-B37</f>
+        <v>-7.88</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" si="20"/>
+        <v>-24.811661807580176</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="21"/>
+        <v>10264.58448979592</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B47" s="5">
+        <f>-B36</f>
+        <v>-9.6300000000000008</v>
+      </c>
+      <c r="G47" s="5">
+        <f t="shared" si="20"/>
+        <v>-30.32186588921283</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="21"/>
+        <v>15329.977346938776</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B48" s="5">
+        <f>-B35</f>
+        <v>-11.38</v>
+      </c>
+      <c r="G48" s="5">
+        <f t="shared" si="20"/>
+        <v>-35.832069970845488</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="21"/>
+        <v>21407.870204081635</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="5">
+        <f>-B34</f>
+        <v>-13.13</v>
+      </c>
+      <c r="G49" s="5">
+        <f t="shared" si="20"/>
+        <v>-41.342274052478139</v>
+      </c>
+      <c r="H49" s="5">
+        <f t="shared" si="21"/>
+        <v>28498.263061224494</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="5">
+        <f>-B33</f>
+        <v>-14.88</v>
+      </c>
+      <c r="G50" s="5">
+        <f t="shared" si="20"/>
+        <v>-46.85247813411079</v>
+      </c>
+      <c r="H50" s="5">
+        <f t="shared" si="21"/>
+        <v>36601.155918367353</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B51" s="5">
+        <f>-B32</f>
+        <v>-16.63</v>
+      </c>
+      <c r="G51" s="5">
+        <f t="shared" si="20"/>
+        <v>-52.36268221574344</v>
+      </c>
+      <c r="H51" s="5">
+        <f t="shared" si="21"/>
+        <v>45716.5487755102</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="F52" s="5">
+        <f>67.5/150</f>
+        <v>0.45</v>
+      </c>
+      <c r="G52" s="5">
+        <f>(G$31/$B$10*2)*($B$9*$B$10/4)</f>
+        <v>337500</v>
+      </c>
+      <c r="H52" s="5">
+        <f>SUM(H32:H51)</f>
+        <v>336945.61836734699</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="J1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/sms_calc.xlsx
+++ b/sms_calc.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -18,17 +18,10 @@
     <sheet name="load-displacement" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -392,9 +385,9 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="0.0000"/>
-    <numFmt numFmtId="184" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="185" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="189" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="182" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -478,34 +471,28 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="182" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="184" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -513,6 +500,12 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -547,7 +540,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -987,7 +979,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1579,7 +1570,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2035,11 +2025,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR"/>
-              <a:t>normal</a:t>
+              <a:t>bending</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
-              <a:t> stress at center</a:t>
+              <a:t> stress (at center)</a:t>
             </a:r>
             <a:endParaRPr lang="ko-KR" altLang="en-US"/>
           </a:p>
@@ -2121,43 +2111,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$C$34:$C$44</c:f>
+              <c:f>'load-displacement'!$C$34:$C$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>53.699999999999996</c:v>
+                  <c:v>-53.699999999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.265000000000001</c:v>
+                  <c:v>-47.265000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.998000000000005</c:v>
+                  <c:v>-38.998000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31.041499999999999</c:v>
+                  <c:v>-31.041499999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22.843</c:v>
+                  <c:v>-22.843</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.456999999999999</c:v>
+                  <c:v>-15.456999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5434999999999999</c:v>
+                  <c:v>-7.5434999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5434999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.456999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.843</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31.041499999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>38.998000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.265000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.699999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2180,6 +2191,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2232,43 +2273,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$E$34:$E$44</c:f>
+              <c:f>'load-displacement'!$E$34:$E$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>107.714</c:v>
+                  <c:v>-107.714</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.668999999999997</c:v>
+                  <c:v>-94.668999999999997</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.385000000000005</c:v>
+                  <c:v>-76.385000000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63.021500000000003</c:v>
+                  <c:v>-63.021500000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.718499999999999</c:v>
+                  <c:v>-45.718499999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>30.97</c:v>
+                  <c:v>-30.97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.468500000000001</c:v>
+                  <c:v>-15.468500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.468500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>45.718499999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>63.021500000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>76.385000000000005</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>94.668999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>107.714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2291,6 +2353,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2343,43 +2435,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$G$34:$G$44</c:f>
+              <c:f>'load-displacement'!$G$34:$G$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>162.4</c:v>
+                  <c:v>-162.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>139.273</c:v>
+                  <c:v>-139.273</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116.9045</c:v>
+                  <c:v>-116.9045</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.831499999999991</c:v>
+                  <c:v>-94.831499999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>68.983999999999995</c:v>
+                  <c:v>-68.983999999999995</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.4495</c:v>
+                  <c:v>-47.4495</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>23.295500000000001</c:v>
+                  <c:v>-23.295500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.295500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>47.4495</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68.983999999999995</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>94.831499999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>116.9045</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>139.273</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>162.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2402,6 +2515,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2454,43 +2597,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$I$34:$I$44</c:f>
+              <c:f>'load-displacement'!$I$34:$I$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>215.19900000000001</c:v>
+                  <c:v>-215.19900000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>184.33499999999998</c:v>
+                  <c:v>-184.33499999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>154.07749999999999</c:v>
+                  <c:v>-154.07749999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>121.7795</c:v>
+                  <c:v>-121.7795</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>93.739500000000007</c:v>
+                  <c:v>-93.739500000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>60.459499999999998</c:v>
+                  <c:v>-60.459499999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>30.409500000000001</c:v>
+                  <c:v>-30.409500000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.409500000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60.459499999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>93.739500000000007</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>121.7795</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>154.07749999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>184.33499999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>215.19900000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2513,6 +2677,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2565,43 +2759,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$K$34:$K$44</c:f>
+              <c:f>'load-displacement'!$K$34:$K$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>232.441</c:v>
+                  <c:v>-232.441</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>194.9975</c:v>
+                  <c:v>-194.9975</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>157.59649999999999</c:v>
+                  <c:v>-157.59649999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>117.5945</c:v>
+                  <c:v>-117.5945</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>79.08250000000001</c:v>
+                  <c:v>-79.08250000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.637500000000003</c:v>
+                  <c:v>-38.637500000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38.637500000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.08250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>117.5945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>157.59649999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>194.9975</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>232.441</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2624,6 +2839,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2676,43 +2921,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$M$34:$M$44</c:f>
+              <c:f>'load-displacement'!$M$34:$M$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>230.321</c:v>
+                  <c:v>-230.321</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>188.11799999999999</c:v>
+                  <c:v>-188.11799999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>137.66300000000001</c:v>
+                  <c:v>-137.66300000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>93.216999999999999</c:v>
+                  <c:v>-93.216999999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.870000000000005</c:v>
+                  <c:v>-46.870000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46.870000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.216999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>137.66300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>188.11799999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>230.321</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2735,6 +3001,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2793,43 +3089,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$O$34:$O$44</c:f>
+              <c:f>'load-displacement'!$O$34:$O$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>217.98399999999998</c:v>
+                  <c:v>-217.98399999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>164.2165</c:v>
+                  <c:v>-164.2165</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>108.88250000000001</c:v>
+                  <c:v>-108.88250000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>53.985500000000002</c:v>
+                  <c:v>-53.985500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.985500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>108.88250000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>164.2165</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>217.98399999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2852,6 +3169,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2910,43 +3257,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$Q$34:$Q$44</c:f>
+              <c:f>'load-displacement'!$Q$34:$Q$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>186.39</c:v>
+                  <c:v>-186.39</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>124.182</c:v>
+                  <c:v>-124.182</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60.335999999999999</c:v>
+                  <c:v>-60.335999999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.335999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>124.182</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>186.39</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -2969,6 +3337,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3027,43 +3425,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$S$34:$S$44</c:f>
+              <c:f>'load-displacement'!$S$34:$S$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>211.1285</c:v>
+                  <c:v>-211.1285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>142.50649999999999</c:v>
+                  <c:v>-142.50649999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>68.744500000000002</c:v>
+                  <c:v>-68.744500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68.744500000000002</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>142.50649999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>211.1285</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -3086,6 +3505,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3144,43 +3593,64 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'load-displacement'!$U$34:$U$44</c:f>
+              <c:f>'load-displacement'!$U$34:$U$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.00000_-;\-* #,##0.00000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>250</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>234.637</c:v>
+                  <c:v>-234.637</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>153.93600000000001</c:v>
+                  <c:v>-153.93600000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.995000000000005</c:v>
+                  <c:v>-76.995000000000005</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>76.995000000000005</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>153.93600000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>234.637</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'load-displacement'!$B$34:$B$44</c:f>
+              <c:f>'load-displacement'!$B$34:$B$54</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0.000_-;\-* #,##0.000_-;_-* "-"_-;_-@_-</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="3">
                   <c:v>16.329999999999998</c:v>
                 </c:pt>
@@ -3203,6 +3673,36 @@
                   <c:v>2.33</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-2.33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-4.67</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-9.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-11.67</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-16.329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3247,6 +3747,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>stress (MPa)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3309,6 +3866,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>distance form neutral</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR" baseline="0"/>
+                  <a:t> axis (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3773,6 +4390,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>displacement (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3835,6 +4509,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ko-KR"/>
+                  <a:t>load (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="ko-KR" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ko-KR"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6836,16 +7567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>400750</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>175762</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>285330</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160074</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>853468</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>57031</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>844504</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>44704</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6874,16 +7605,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>488331</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>158593</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>917516</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>164196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>801382</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>43571</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>204669</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>52536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7344,11 +8075,11 @@
         <v>50.1</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" ref="G6:G7" si="0">F6*PI()/180</f>
+        <f>F6*PI()/180</f>
         <v>0.8744099552491591</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" ref="H6:H7" si="1">SIN(G6)</f>
+        <f>SIN(G6)</f>
         <v>0.76716515181529954</v>
       </c>
       <c r="K6" t="s">
@@ -7392,11 +8123,11 @@
         <v>114.85</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="0"/>
+        <f>F7*PI()/180</f>
         <v>2.0045106459154876</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f>SIN(G7)</f>
         <v>0.90741109192869673</v>
       </c>
       <c r="K7" t="s">
@@ -8033,11 +8764,11 @@
         <v>0</v>
       </c>
       <c r="G23" s="1">
-        <f>E23-E22</f>
+        <f t="shared" ref="G23:H25" si="0">E23-E22</f>
         <v>20</v>
       </c>
       <c r="H23" s="1">
-        <f>F23-F22</f>
+        <f t="shared" si="0"/>
         <v>-6</v>
       </c>
       <c r="I23" s="1">
@@ -8051,7 +8782,7 @@
         <v>-5.0000000000000036</v>
       </c>
       <c r="M23" s="1">
-        <f t="shared" ref="M23:M24" si="2">SQRT($G$29^2+L23^2)</f>
+        <f>SQRT($G$29^2+L23^2)</f>
         <v>50.249378105604443</v>
       </c>
       <c r="N23" s="1"/>
@@ -8065,11 +8796,11 @@
         <v>-6.1510600000000002</v>
       </c>
       <c r="S23" s="1">
-        <f>Q23-Q22</f>
+        <f t="shared" ref="S23:T26" si="1">Q23-Q22</f>
         <v>12</v>
       </c>
       <c r="T23" s="1">
-        <f>R23-R22</f>
+        <f t="shared" si="1"/>
         <v>-6.1510600000000002</v>
       </c>
       <c r="U23" s="1">
@@ -8098,11 +8829,11 @@
         <v>0</v>
       </c>
       <c r="G24" s="1">
-        <f t="shared" ref="G24:G25" si="3">E24-E23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" ref="H24:H25" si="4">F24-F23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="1">
@@ -8112,11 +8843,11 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <f t="shared" ref="L24" si="5">L23-D24</f>
+        <f>L23-D24</f>
         <v>-5.0000000000000036</v>
       </c>
       <c r="M24" s="1">
-        <f t="shared" si="2"/>
+        <f>SQRT($G$29^2+L24^2)</f>
         <v>50.249378105604443</v>
       </c>
       <c r="N24" s="1"/>
@@ -8130,11 +8861,11 @@
         <v>-10</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" ref="S24:S26" si="6">Q24-Q23</f>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" ref="T24:T26" si="7">R24-R23</f>
+        <f t="shared" si="1"/>
         <v>-3.8489399999999998</v>
       </c>
       <c r="U24" s="1">
@@ -8144,7 +8875,7 @@
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1">
-        <f t="shared" ref="X24" si="8">X23-P24</f>
+        <f>X23-P24</f>
         <v>-8.5606060606060623</v>
       </c>
       <c r="Y24" s="1">
@@ -8163,11 +8894,11 @@
         <v>1</v>
       </c>
       <c r="G25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I25" s="1">
@@ -8189,11 +8920,11 @@
         <v>-7.5439230000000004</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>2.4560769999999996</v>
       </c>
       <c r="U25" s="1">
@@ -8203,7 +8934,7 @@
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
       <c r="X25" s="1">
-        <f t="shared" ref="X25" si="9">X24-P25</f>
+        <f>X24-P25</f>
         <v>-18.560606060606062</v>
       </c>
       <c r="Y25" s="1">
@@ -8248,11 +8979,11 @@
         <v>0</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="1"/>
         <v>7.5439230000000004</v>
       </c>
       <c r="U26" s="1">
@@ -8812,7 +9543,7 @@
         <v>521.45810021623799</v>
       </c>
       <c r="Y45" s="1">
-        <f>SQRT($S$57^2+X45^2)</f>
+        <f t="shared" ref="Y45:Y52" si="2">SQRT($S$57^2+X45^2)</f>
         <v>600.54759221068468</v>
       </c>
     </row>
@@ -8827,11 +9558,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f>E46-E45</f>
+        <f t="shared" ref="G46:H48" si="3">E46-E45</f>
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <f>F46-F45</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
       <c r="I46" s="1">
@@ -8857,11 +9588,11 @@
         <v>281.70999999999998</v>
       </c>
       <c r="S46" s="1">
-        <f>Q46-Q45</f>
+        <f t="shared" ref="S46:T53" si="4">Q46-Q45</f>
         <v>94.710000000000008</v>
       </c>
       <c r="T46" s="1">
-        <f>R46-R45</f>
+        <f t="shared" si="4"/>
         <v>-165.79000000000002</v>
       </c>
       <c r="U46" s="1">
@@ -8869,11 +9600,11 @@
         <v>18322.596600000001</v>
       </c>
       <c r="X46" s="1">
-        <f>X45-P46</f>
+        <f t="shared" ref="X46:X52" si="5">X45-P46</f>
         <v>327.99810021623796</v>
       </c>
       <c r="Y46" s="1">
-        <f>SQRT($S$57^2+X46^2)</f>
+        <f t="shared" si="2"/>
         <v>443.08194950187709</v>
       </c>
     </row>
@@ -8888,11 +9619,11 @@
         <v>0.2</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" ref="G47:G48" si="10">E47-E46</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" ref="H47:H48" si="11">F47-F46</f>
+        <f t="shared" si="3"/>
         <v>0.2</v>
       </c>
       <c r="I47" s="1">
@@ -8917,11 +9648,11 @@
         <v>198.1</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" ref="S47:S49" si="12">Q47-Q46</f>
+        <f t="shared" si="4"/>
         <v>75.929999999999978</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" ref="T47:T49" si="13">R47-R46</f>
+        <f t="shared" si="4"/>
         <v>-83.609999999999985</v>
       </c>
       <c r="U47" s="1">
@@ -8929,11 +9660,11 @@
         <v>22186.612799999999</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" ref="X47:X48" si="14">X46-P47</f>
+        <f t="shared" si="5"/>
         <v>197.97810021623795</v>
       </c>
       <c r="Y47" s="1">
-        <f>SQRT($S$57^2+X47^2)</f>
+        <f t="shared" si="2"/>
         <v>357.67889005944068</v>
       </c>
     </row>
@@ -8948,11 +9679,11 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="3"/>
         <v>0.8</v>
       </c>
       <c r="I48" s="1">
@@ -8969,11 +9700,11 @@
         <v>144.05000000000001</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>81.340000000000018</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-54.049999999999983</v>
       </c>
       <c r="U48" s="1">
@@ -8981,11 +9712,11 @@
         <v>34934.5072</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="5"/>
         <v>59.338100216237962</v>
       </c>
       <c r="Y48" s="1">
-        <f>SQRT($S$57^2+X48^2)</f>
+        <f t="shared" si="2"/>
         <v>303.7430992898357</v>
       </c>
     </row>
@@ -9021,11 +9752,11 @@
         <v>129.19999999999999</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="4"/>
         <v>74.53</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="4"/>
         <v>-14.850000000000023</v>
       </c>
       <c r="U49" s="1">
@@ -9033,11 +9764,11 @@
         <v>38639.193399999996</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" ref="X49:X52" si="15">X48-P49</f>
+        <f t="shared" si="5"/>
         <v>-59.001899783762042</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" ref="Y49:Y52" si="16">SQRT($S$57^2+X49^2)</f>
+        <f t="shared" si="2"/>
         <v>303.67759944884938</v>
       </c>
     </row>
@@ -9058,11 +9789,11 @@
         <v>146.68</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" ref="S50:S53" si="17">Q50-Q49</f>
+        <f t="shared" si="4"/>
         <v>88.24</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" ref="T50:T53" si="18">R50-R49</f>
+        <f t="shared" si="4"/>
         <v>17.480000000000018</v>
       </c>
       <c r="U50" s="1">
@@ -9070,11 +9801,11 @@
         <v>11932.3575</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-87.771899783762038</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>310.55235729353831</v>
       </c>
     </row>
@@ -9103,11 +9834,11 @@
         <v>174.67</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>94.97999999999999</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>27.989999999999981</v>
       </c>
       <c r="U51" s="1">
@@ -9115,11 +9846,11 @@
         <v>62105.503200000006</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-209.61189978376206</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>364.24718085371728</v>
       </c>
     </row>
@@ -9152,11 +9883,11 @@
         <v>210.47</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>50.880000000000024</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>35.800000000000011</v>
       </c>
       <c r="U52" s="1">
@@ -9164,11 +9895,11 @@
         <v>27469.89</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="5"/>
         <v>-258.61189978376206</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="2"/>
         <v>394.48570942264723</v>
       </c>
     </row>
@@ -9201,11 +9932,11 @@
         <v>292.41000000000003</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="4"/>
         <v>94.389999999999986</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="4"/>
         <v>81.940000000000026</v>
       </c>
       <c r="U53" s="1">
@@ -9408,26 +10139,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9564,11 +10295,11 @@
         <v>5000</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
+        <f t="shared" ref="C5:H5" si="2">B5</f>
         <v>5000</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:H5" si="2">C5</f>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="E5" s="4">
@@ -10542,11 +11273,11 @@
         <v>-35</v>
       </c>
       <c r="C23" s="4">
-        <f>B23</f>
+        <f t="shared" ref="C23:H23" si="22">B23</f>
         <v>-35</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" ref="D23:H23" si="22">C23</f>
+        <f t="shared" si="22"/>
         <v>-35</v>
       </c>
       <c r="E23" s="4">
@@ -10573,11 +11304,11 @@
         <v>-40</v>
       </c>
       <c r="L23" s="4">
-        <f>K23</f>
+        <f t="shared" ref="L23:Q23" si="23">K23</f>
         <v>-40</v>
       </c>
       <c r="M23" s="4">
-        <f t="shared" ref="M23:Q23" si="23">L23</f>
+        <f t="shared" si="23"/>
         <v>-40</v>
       </c>
       <c r="N23" s="4">
@@ -11216,26 +11947,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="J1" s="8" t="s">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="J1" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -11372,11 +12103,11 @@
         <v>5000</v>
       </c>
       <c r="C5" s="4">
-        <f>B5</f>
+        <f t="shared" ref="C5:H5" si="2">B5</f>
         <v>5000</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" ref="D5:H5" si="2">C5</f>
+        <f t="shared" si="2"/>
         <v>5000</v>
       </c>
       <c r="E5" s="4">
@@ -12163,10 +12894,10 @@
       <c r="T18" t="s">
         <v>61</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="10">
         <v>44</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="10">
         <f>U18</f>
         <v>44</v>
       </c>
@@ -12203,11 +12934,11 @@
       <c r="T20" t="s">
         <v>62</v>
       </c>
-      <c r="U20" s="10">
+      <c r="U20" s="9">
         <f>U19*B10/4</f>
         <v>3144166.6666666665</v>
       </c>
-      <c r="V20" s="10">
+      <c r="V20" s="9">
         <f>V19*C10</f>
         <v>786041.66666666663</v>
       </c>
@@ -12353,11 +13084,11 @@
       <c r="T22" t="s">
         <v>60</v>
       </c>
-      <c r="U22" s="12">
+      <c r="U22" s="11">
         <f>U21/B5</f>
         <v>9.5822222222222211E-2</v>
       </c>
-      <c r="V22" s="12">
+      <c r="V22" s="11">
         <f>V21/C5</f>
         <v>2.3955555555555553E-2</v>
       </c>
@@ -12421,11 +13152,11 @@
         <v>-35</v>
       </c>
       <c r="C24" s="4">
-        <f>B24</f>
+        <f t="shared" ref="C24:H24" si="22">B24</f>
         <v>-35</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" ref="D24:H24" si="22">C24</f>
+        <f t="shared" si="22"/>
         <v>-35</v>
       </c>
       <c r="E24" s="4">
@@ -12452,11 +13183,11 @@
         <v>-40</v>
       </c>
       <c r="L24" s="4">
-        <f>K24</f>
+        <f t="shared" ref="L24:Q24" si="23">K24</f>
         <v>-40</v>
       </c>
       <c r="M24" s="4">
-        <f t="shared" ref="M24:Q24" si="23">L24</f>
+        <f t="shared" si="23"/>
         <v>-40</v>
       </c>
       <c r="N24" s="4">
@@ -12618,62 +13349,62 @@
         <v>52</v>
       </c>
       <c r="B28" s="4">
-        <f>B2+B26</f>
+        <f t="shared" ref="B28:H29" si="28">B2+B26</f>
         <v>14.907881277309984</v>
       </c>
       <c r="C28" s="4">
-        <f>C2+C26</f>
+        <f t="shared" si="28"/>
         <v>39.519744781266652</v>
       </c>
       <c r="D28" s="4">
-        <f>D2+D26</f>
+        <f t="shared" si="28"/>
         <v>63.342554993624404</v>
       </c>
       <c r="E28" s="4">
-        <f>E2+E26</f>
+        <f t="shared" si="28"/>
         <v>86.341505993820391</v>
       </c>
       <c r="F28" s="4">
-        <f>F2+F26</f>
+        <f t="shared" si="28"/>
         <v>108.47060627714789</v>
       </c>
       <c r="G28" s="4">
-        <f>G2+G26</f>
+        <f t="shared" si="28"/>
         <v>129.69139263340998</v>
       </c>
       <c r="H28" s="4">
-        <f>H2+H26</f>
+        <f t="shared" si="28"/>
         <v>150</v>
       </c>
       <c r="J28" t="s">
         <v>52</v>
       </c>
       <c r="K28" s="4">
-        <f>K2+K26</f>
+        <f t="shared" ref="K28:Q29" si="29">K2+K26</f>
         <v>0</v>
       </c>
       <c r="L28" s="4">
-        <f>L2+L26</f>
+        <f t="shared" si="29"/>
         <v>53.433270427075172</v>
       </c>
       <c r="M28" s="4">
-        <f>M2+M26</f>
+        <f t="shared" si="29"/>
         <v>106.22459971094224</v>
       </c>
       <c r="N28" s="4">
-        <f>N2+N26</f>
+        <f t="shared" si="29"/>
         <v>158.37506848343975</v>
       </c>
       <c r="O28" s="4">
-        <f>O2+O26</f>
+        <f t="shared" si="29"/>
         <v>209.89615837018093</v>
       </c>
       <c r="P28" s="4">
-        <f>P2+P26</f>
+        <f t="shared" si="29"/>
         <v>260.80171266874339</v>
       </c>
       <c r="Q28" s="4">
-        <f>Q2+Q26</f>
+        <f t="shared" si="29"/>
         <v>311.10227006585347</v>
       </c>
     </row>
@@ -12682,62 +13413,62 @@
         <v>53</v>
       </c>
       <c r="B29" s="4">
-        <f>B3+B27</f>
+        <f t="shared" si="28"/>
         <v>-31.666308212698723</v>
       </c>
       <c r="C29" s="4">
-        <f>C3+C27</f>
+        <f t="shared" si="28"/>
         <v>-20.94799779585707</v>
       </c>
       <c r="D29" s="4">
-        <f>D3+D27</f>
+        <f t="shared" si="28"/>
         <v>-11.171826825229317</v>
       </c>
       <c r="E29" s="4">
-        <f>E3+E27</f>
+        <f t="shared" si="28"/>
         <v>-2.8614820234935507</v>
       </c>
       <c r="F29" s="4">
-        <f>F3+F27</f>
+        <f t="shared" si="28"/>
         <v>3.5219639746389646</v>
       </c>
       <c r="G29" s="4">
-        <f>G3+G27</f>
+        <f t="shared" si="28"/>
         <v>7.5843602447591962</v>
       </c>
       <c r="H29" s="4">
-        <f>H3+H27</f>
+        <f t="shared" si="28"/>
         <v>8.9999999999999858</v>
       </c>
       <c r="J29" t="s">
         <v>53</v>
       </c>
       <c r="K29" s="4">
-        <f>K3+K27</f>
+        <f t="shared" si="29"/>
         <v>-40</v>
       </c>
       <c r="L29" s="4">
-        <f>L3+L27</f>
+        <f t="shared" si="29"/>
         <v>-37.638844136125257</v>
       </c>
       <c r="M29" s="4">
-        <f>M3+M27</f>
+        <f t="shared" si="29"/>
         <v>-31.17937801932554</v>
       </c>
       <c r="N29" s="4">
-        <f>N3+N27</f>
+        <f t="shared" si="29"/>
         <v>-21.535277151918393</v>
       </c>
       <c r="O29" s="4">
-        <f>O3+O27</f>
+        <f t="shared" si="29"/>
         <v>-9.5898302017591277</v>
       </c>
       <c r="P29" s="4">
-        <f>P3+P27</f>
+        <f t="shared" si="29"/>
         <v>3.8037757449581378</v>
       </c>
       <c r="Q29" s="4">
-        <f>Q3+Q27</f>
+        <f t="shared" si="29"/>
         <v>17.821630279377523</v>
       </c>
     </row>
@@ -12847,14 +13578,14 @@
         <v>-479.01333333333326</v>
       </c>
       <c r="F36" s="4">
-        <f>E36*$B$6*($B$7/(2*$A$36+1))*B36</f>
+        <f t="shared" ref="F36:F50" si="30">E36*$B$6*($B$7/(2*$A$36+1))*B36</f>
         <v>-547560.14133333322</v>
       </c>
       <c r="G36" s="4">
         <v>-116.11</v>
       </c>
       <c r="H36" s="4">
-        <f>G36*$B$6*($B$7/(2*$A$36+1))*B36</f>
+        <f t="shared" ref="H36:H50" si="31">G36*$B$6*($B$7/(2*$A$36+1))*B36</f>
         <v>-132725.34099999999</v>
       </c>
       <c r="J36">
@@ -12871,14 +13602,14 @@
         <v>-239.50666666666663</v>
       </c>
       <c r="P36" s="4">
-        <f>O36*$B$6*($B$7/(2*$A$36+1))*B36</f>
+        <f t="shared" ref="P36:P50" si="32">O36*$B$6*($B$7/(2*$A$36+1))*B36</f>
         <v>-273780.07066666661</v>
       </c>
       <c r="Q36" s="4">
         <v>-56.85</v>
       </c>
       <c r="R36" s="4">
-        <f>Q36*$B$6*($B$7/(2*$A$36+1))*B36</f>
+        <f t="shared" ref="R36:R50" si="33">Q36*$B$6*($B$7/(2*$A$36+1))*B36</f>
         <v>-64985.235000000001</v>
       </c>
     </row>
@@ -12890,18 +13621,18 @@
         <v>14</v>
       </c>
       <c r="E37" s="4">
-        <f t="shared" ref="E37:E50" si="28">-$H$9*$H$10/4/$H$8*B37</f>
+        <f t="shared" ref="E37:E50" si="34">-$H$9*$H$10/4/$H$8*B37</f>
         <v>-410.66666666666663</v>
       </c>
       <c r="F37" s="4">
-        <f>E37*$B$6*($B$7/(2*$A$36+1))*B37</f>
+        <f t="shared" si="30"/>
         <v>-402453.33333333331</v>
       </c>
       <c r="G37" s="4">
         <v>-99.31</v>
       </c>
       <c r="H37" s="4">
-        <f>G37*$B$6*($B$7/(2*$A$36+1))*B37</f>
+        <f t="shared" si="31"/>
         <v>-97323.800000000017</v>
       </c>
       <c r="I37" s="7"/>
@@ -12915,18 +13646,18 @@
         <v>8.5</v>
       </c>
       <c r="O37" s="4">
-        <f t="shared" ref="O37:O50" si="29">-$H$9*$H$10/8/$H$8*B37</f>
+        <f t="shared" ref="O37:O50" si="35">-$H$9*$H$10/8/$H$8*B37</f>
         <v>-205.33333333333331</v>
       </c>
       <c r="P37" s="4">
-        <f>O37*$B$6*($B$7/(2*$A$36+1))*B37</f>
+        <f t="shared" si="32"/>
         <v>-201226.66666666666</v>
       </c>
       <c r="Q37" s="4">
         <v>-50.07</v>
       </c>
       <c r="R37" s="4">
-        <f>Q37*$B$6*($B$7/(2*$A$36+1))*B37</f>
+        <f t="shared" si="33"/>
         <v>-49068.6</v>
       </c>
     </row>
@@ -12938,18 +13669,18 @@
         <v>11.67</v>
       </c>
       <c r="E38" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-342.32</v>
       </c>
       <c r="F38" s="4">
-        <f>E38*$B$6*($B$7/(2*$A$36+1))*B38</f>
+        <f t="shared" si="30"/>
         <v>-279641.20800000004</v>
       </c>
       <c r="G38" s="4">
         <v>-81.849999999999994</v>
       </c>
       <c r="H38" s="4">
-        <f>G38*$B$6*($B$7/(2*$A$36+1))*B38</f>
+        <f t="shared" si="31"/>
         <v>-66863.264999999999</v>
       </c>
       <c r="J38">
@@ -12962,18 +13693,18 @@
         <v>10.5</v>
       </c>
       <c r="O38" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-171.16</v>
       </c>
       <c r="P38" s="4">
-        <f>O38*$B$6*($B$7/(2*$A$36+1))*B38</f>
+        <f t="shared" si="32"/>
         <v>-139820.60400000002</v>
       </c>
       <c r="Q38" s="4">
         <v>-40.799999999999997</v>
       </c>
       <c r="R38" s="4">
-        <f>Q38*$B$6*($B$7/(2*$A$36+1))*B38</f>
+        <f t="shared" si="33"/>
         <v>-33329.519999999997</v>
       </c>
     </row>
@@ -12985,33 +13716,33 @@
         <v>9.33</v>
       </c>
       <c r="E39" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-273.68</v>
       </c>
       <c r="F39" s="4">
-        <f>E39*$B$6*($B$7/(2*$A$36+1))*B39</f>
+        <f t="shared" si="30"/>
         <v>-178740.40800000002</v>
       </c>
       <c r="G39" s="4">
         <v>-65.88</v>
       </c>
       <c r="H39" s="4">
-        <f>G39*$B$6*($B$7/(2*$A$36+1))*B39</f>
+        <f t="shared" si="31"/>
         <v>-43026.228000000003</v>
       </c>
       <c r="O39" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-136.84</v>
       </c>
       <c r="P39" s="4">
-        <f>O39*$B$6*($B$7/(2*$A$36+1))*B39</f>
+        <f t="shared" si="32"/>
         <v>-89370.204000000012</v>
       </c>
       <c r="Q39" s="4">
         <v>-32.409999999999997</v>
       </c>
       <c r="R39" s="4">
-        <f>Q39*$B$6*($B$7/(2*$A$36+1))*B39</f>
+        <f t="shared" si="33"/>
         <v>-21166.970999999998</v>
       </c>
     </row>
@@ -13023,33 +13754,33 @@
         <v>7</v>
       </c>
       <c r="E40" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-205.33333333333331</v>
       </c>
       <c r="F40" s="4">
-        <f>E40*$B$6*($B$7/(2*$A$36+1))*B40</f>
+        <f t="shared" si="30"/>
         <v>-100613.33333333333</v>
       </c>
       <c r="G40" s="4">
         <v>-49.51</v>
       </c>
       <c r="H40" s="4">
-        <f>G40*$B$6*($B$7/(2*$A$36+1))*B40</f>
+        <f t="shared" si="31"/>
         <v>-24259.9</v>
       </c>
       <c r="O40" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-102.66666666666666</v>
       </c>
       <c r="P40" s="4">
-        <f>O40*$B$6*($B$7/(2*$A$36+1))*B40</f>
+        <f t="shared" si="32"/>
         <v>-50306.666666666664</v>
       </c>
       <c r="Q40" s="4">
         <v>-24.47</v>
       </c>
       <c r="R40" s="4">
-        <f>Q40*$B$6*($B$7/(2*$A$36+1))*B40</f>
+        <f t="shared" si="33"/>
         <v>-11990.3</v>
       </c>
     </row>
@@ -13061,33 +13792,33 @@
         <v>4.67</v>
       </c>
       <c r="E41" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-136.98666666666665</v>
       </c>
       <c r="F41" s="4">
-        <f>E41*$B$6*($B$7/(2*$A$36+1))*B41</f>
+        <f t="shared" si="30"/>
         <v>-44780.941333333329</v>
       </c>
       <c r="G41" s="4">
         <v>-31.86</v>
       </c>
       <c r="H41" s="4">
-        <f>G41*$B$6*($B$7/(2*$A$36+1))*B41</f>
+        <f t="shared" si="31"/>
         <v>-10415.034</v>
       </c>
       <c r="O41" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-68.493333333333325</v>
       </c>
       <c r="P41" s="4">
-        <f>O41*$B$6*($B$7/(2*$A$36+1))*B41</f>
+        <f t="shared" si="32"/>
         <v>-22390.470666666664</v>
       </c>
       <c r="Q41" s="4">
         <v>-16.37</v>
       </c>
       <c r="R41" s="4">
-        <f>Q41*$B$6*($B$7/(2*$A$36+1))*B41</f>
+        <f t="shared" si="33"/>
         <v>-5351.3530000000001</v>
       </c>
     </row>
@@ -13099,33 +13830,33 @@
         <v>2.33</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>-68.346666666666664</v>
       </c>
       <c r="F42" s="4">
-        <f>E42*$B$6*($B$7/(2*$A$36+1))*B42</f>
+        <f t="shared" si="30"/>
         <v>-11147.341333333336</v>
       </c>
       <c r="G42" s="4">
         <v>-16.39</v>
       </c>
       <c r="H42" s="4">
-        <f>G42*$B$6*($B$7/(2*$A$36+1))*B42</f>
+        <f t="shared" si="31"/>
         <v>-2673.2090000000003</v>
       </c>
       <c r="O42" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>-34.173333333333332</v>
       </c>
       <c r="P42" s="4">
-        <f>O42*$B$6*($B$7/(2*$A$36+1))*B42</f>
+        <f t="shared" si="32"/>
         <v>-5573.6706666666678</v>
       </c>
       <c r="Q42" s="4">
         <v>-8.08</v>
       </c>
       <c r="R42" s="4">
-        <f>Q42*$B$6*($B$7/(2*$A$36+1))*B42</f>
+        <f t="shared" si="33"/>
         <v>-1317.8480000000002</v>
       </c>
     </row>
@@ -13137,33 +13868,33 @@
         <v>0</v>
       </c>
       <c r="E43" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="F43" s="4">
-        <f>E43*$B$6*($B$7/(2*$A$36+1))*B43</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
       </c>
       <c r="H43" s="4">
-        <f>G43*$B$6*($B$7/(2*$A$36+1))*B43</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="O43" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P43" s="4">
-        <f>O43*$B$6*($B$7/(2*$A$36+1))*B43</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Q43" s="4">
         <v>0</v>
       </c>
       <c r="R43" s="4">
-        <f>Q43*$B$6*($B$7/(2*$A$36+1))*B43</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
     </row>
@@ -13173,33 +13904,33 @@
         <v>-2.33</v>
       </c>
       <c r="E44" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>68.346666666666664</v>
       </c>
       <c r="F44" s="4">
-        <f>E44*$B$6*($B$7/(2*$A$36+1))*B44</f>
+        <f t="shared" si="30"/>
         <v>-11147.341333333336</v>
       </c>
       <c r="G44" s="4">
         <v>16.350000000000001</v>
       </c>
       <c r="H44" s="4">
-        <f>G44*$B$6*($B$7/(2*$A$36+1))*B44</f>
+        <f t="shared" si="31"/>
         <v>-2666.6850000000004</v>
       </c>
       <c r="O44" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>34.173333333333332</v>
       </c>
       <c r="P44" s="4">
-        <f>O44*$B$6*($B$7/(2*$A$36+1))*B44</f>
+        <f t="shared" si="32"/>
         <v>-5573.6706666666678</v>
       </c>
       <c r="Q44" s="4">
         <v>8.36</v>
       </c>
       <c r="R44" s="4">
-        <f>Q44*$B$6*($B$7/(2*$A$36+1))*B44</f>
+        <f t="shared" si="33"/>
         <v>-1363.5160000000001</v>
       </c>
     </row>
@@ -13209,33 +13940,33 @@
         <v>-4.67</v>
       </c>
       <c r="E45" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>136.98666666666665</v>
       </c>
       <c r="F45" s="4">
-        <f>E45*$B$6*($B$7/(2*$A$36+1))*B45</f>
+        <f t="shared" si="30"/>
         <v>-44780.941333333329</v>
       </c>
       <c r="G45" s="4">
         <v>31.93</v>
       </c>
       <c r="H45" s="4">
-        <f>G45*$B$6*($B$7/(2*$A$36+1))*B45</f>
+        <f t="shared" si="31"/>
         <v>-10437.916999999999</v>
       </c>
       <c r="O45" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>68.493333333333325</v>
       </c>
       <c r="P45" s="4">
-        <f>O45*$B$6*($B$7/(2*$A$36+1))*B45</f>
+        <f t="shared" si="32"/>
         <v>-22390.470666666664</v>
       </c>
       <c r="Q45" s="4">
         <v>15.96</v>
       </c>
       <c r="R45" s="4">
-        <f>Q45*$B$6*($B$7/(2*$A$36+1))*B45</f>
+        <f t="shared" si="33"/>
         <v>-5217.3240000000005</v>
       </c>
     </row>
@@ -13245,33 +13976,33 @@
         <v>-7</v>
       </c>
       <c r="E46" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>205.33333333333331</v>
       </c>
       <c r="F46" s="4">
-        <f>E46*$B$6*($B$7/(2*$A$36+1))*B46</f>
+        <f t="shared" si="30"/>
         <v>-100613.33333333333</v>
       </c>
       <c r="G46" s="4">
         <v>49.65</v>
       </c>
       <c r="H46" s="4">
-        <f>G46*$B$6*($B$7/(2*$A$36+1))*B46</f>
+        <f t="shared" si="31"/>
         <v>-24328.5</v>
       </c>
       <c r="O46" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>102.66666666666666</v>
       </c>
       <c r="P46" s="4">
-        <f>O46*$B$6*($B$7/(2*$A$36+1))*B46</f>
+        <f t="shared" si="32"/>
         <v>-50306.666666666664</v>
       </c>
       <c r="Q46" s="4">
         <v>24.55</v>
       </c>
       <c r="R46" s="4">
-        <f>Q46*$B$6*($B$7/(2*$A$36+1))*B46</f>
+        <f t="shared" si="33"/>
         <v>-12029.5</v>
       </c>
     </row>
@@ -13281,33 +14012,33 @@
         <v>-9.33</v>
       </c>
       <c r="E47" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>273.68</v>
       </c>
       <c r="F47" s="4">
-        <f>E47*$B$6*($B$7/(2*$A$36+1))*B47</f>
+        <f t="shared" si="30"/>
         <v>-178740.40800000002</v>
       </c>
       <c r="G47" s="4">
         <v>64.17</v>
       </c>
       <c r="H47" s="4">
-        <f>G47*$B$6*($B$7/(2*$A$36+1))*B47</f>
+        <f t="shared" si="31"/>
         <v>-41909.427000000003</v>
       </c>
       <c r="O47" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>136.84</v>
       </c>
       <c r="P47" s="4">
-        <f>O47*$B$6*($B$7/(2*$A$36+1))*B47</f>
+        <f t="shared" si="32"/>
         <v>-89370.204000000012</v>
       </c>
       <c r="Q47" s="4">
         <v>31.95</v>
       </c>
       <c r="R47" s="4">
-        <f>Q47*$B$6*($B$7/(2*$A$36+1))*B47</f>
+        <f t="shared" si="33"/>
         <v>-20866.545000000002</v>
       </c>
     </row>
@@ -13317,33 +14048,33 @@
         <v>-11.67</v>
       </c>
       <c r="E48" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>342.32</v>
       </c>
       <c r="F48" s="4">
-        <f>E48*$B$6*($B$7/(2*$A$36+1))*B48</f>
+        <f t="shared" si="30"/>
         <v>-279641.20800000004</v>
       </c>
       <c r="G48" s="4">
         <v>82.01</v>
       </c>
       <c r="H48" s="4">
-        <f>G48*$B$6*($B$7/(2*$A$36+1))*B48</f>
+        <f t="shared" si="31"/>
         <v>-66993.969000000012</v>
       </c>
       <c r="O48" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>171.16</v>
       </c>
       <c r="P48" s="4">
-        <f>O48*$B$6*($B$7/(2*$A$36+1))*B48</f>
+        <f t="shared" si="32"/>
         <v>-139820.60400000002</v>
       </c>
       <c r="Q48" s="4">
         <v>40.82</v>
       </c>
       <c r="R48" s="4">
-        <f>Q48*$B$6*($B$7/(2*$A$36+1))*B48</f>
+        <f t="shared" si="33"/>
         <v>-33345.858</v>
       </c>
     </row>
@@ -13353,33 +14084,33 @@
         <v>-14</v>
       </c>
       <c r="E49" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>410.66666666666663</v>
       </c>
       <c r="F49" s="4">
-        <f>E49*$B$6*($B$7/(2*$A$36+1))*B49</f>
+        <f t="shared" si="30"/>
         <v>-402453.33333333331</v>
       </c>
       <c r="G49" s="4">
         <v>99.62</v>
       </c>
       <c r="H49" s="4">
-        <f>G49*$B$6*($B$7/(2*$A$36+1))*B49</f>
+        <f t="shared" si="31"/>
         <v>-97627.60000000002</v>
       </c>
       <c r="O49" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>205.33333333333331</v>
       </c>
       <c r="P49" s="4">
-        <f>O49*$B$6*($B$7/(2*$A$36+1))*B49</f>
+        <f t="shared" si="32"/>
         <v>-201226.66666666666</v>
       </c>
       <c r="Q49" s="4">
         <v>49.88</v>
       </c>
       <c r="R49" s="4">
-        <f>Q49*$B$6*($B$7/(2*$A$36+1))*B49</f>
+        <f t="shared" si="33"/>
         <v>-48882.400000000009</v>
       </c>
     </row>
@@ -13389,33 +14120,33 @@
         <v>-16.329999999999998</v>
       </c>
       <c r="E50" s="4">
-        <f t="shared" si="28"/>
+        <f t="shared" si="34"/>
         <v>479.01333333333326</v>
       </c>
       <c r="F50" s="4">
-        <f>E50*$B$6*($B$7/(2*$A$36+1))*B50</f>
+        <f t="shared" si="30"/>
         <v>-547560.14133333322</v>
       </c>
       <c r="G50" s="4">
         <v>113.52</v>
       </c>
       <c r="H50" s="4">
-        <f>G50*$B$6*($B$7/(2*$A$36+1))*B50</f>
+        <f t="shared" si="31"/>
         <v>-129764.712</v>
       </c>
       <c r="O50" s="4">
-        <f t="shared" si="29"/>
+        <f t="shared" si="35"/>
         <v>239.50666666666663</v>
       </c>
       <c r="P50" s="4">
-        <f>O50*$B$6*($B$7/(2*$A$36+1))*B50</f>
+        <f t="shared" si="32"/>
         <v>-273780.07066666661</v>
       </c>
       <c r="Q50" s="4">
         <v>57.96</v>
       </c>
       <c r="R50" s="4">
-        <f>Q50*$B$6*($B$7/(2*$A$36+1))*B50</f>
+        <f t="shared" si="33"/>
         <v>-66254.076000000001</v>
       </c>
     </row>
@@ -13465,7 +14196,7 @@
       </c>
     </row>
     <row r="62" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="Q62" s="9" t="s">
+      <c r="Q62" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -13485,8 +14216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="I30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13500,66 +14231,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="4">
         <f>5000</f>
         <v>5000</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>80</v>
       </c>
       <c r="D2" s="4">
         <v>30</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="16" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="4">
         <v>35</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="16" t="s">
         <v>82</v>
       </c>
       <c r="H2" s="4">
         <f>D2*F2^3/12</f>
         <v>107187.5</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="16" t="s">
         <v>83</v>
       </c>
       <c r="J2" s="4">
         <v>300</v>
       </c>
-      <c r="K2" s="19" t="s">
+      <c r="K2" s="17" t="s">
         <v>84</v>
       </c>
       <c r="L2" s="4">
         <f>B2/20</f>
         <v>250</v>
       </c>
-      <c r="M2" s="19" t="s">
+      <c r="M2" s="17" t="s">
         <v>85</v>
       </c>
       <c r="N2" s="4">
@@ -13591,76 +14322,76 @@
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="19" t="s">
         <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="10">
         <f>D6*$J$2/4</f>
         <v>357291.66666666663</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <f>F6*$J$2/4</f>
         <v>714583.33333333326</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="10">
         <f>H6*$J$2/4</f>
         <v>1071875</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <f>J6*$J$2/4</f>
         <v>1429166.6666666665</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="10">
         <f>L6*$J$2/4</f>
         <v>1786458.3333333335</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="11">
+      <c r="N5" s="10">
         <f>N6*$J$2/4</f>
         <v>2143750</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="10">
         <f>P6*$J$2/4</f>
         <v>2501041.6666666665</v>
       </c>
       <c r="Q5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R5" s="11">
+      <c r="R5" s="10">
         <f>R6*$J$2/4</f>
         <v>2858333.333333333</v>
       </c>
       <c r="S5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="T5" s="11">
+      <c r="T5" s="10">
         <f>T6*$J$2/4</f>
         <v>3215625</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="V5" s="11">
+      <c r="V5" s="10">
         <f>V6*$J$2/4</f>
         <v>3572916.666666667</v>
       </c>
@@ -13675,74 +14406,74 @@
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B6" s="16"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="10">
         <f>D7*48*$B$2*$H$2/$J$2^3</f>
         <v>4763.8888888888887</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <f>F7*48*$B$2*$H$2/$J$2^3</f>
         <v>9527.7777777777774</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <f>H7*48*$B$2*$H$2/$J$2^3</f>
         <v>14291.666666666666</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <f>J7*48*$B$2*$H$2/$J$2^3</f>
         <v>19055.555555555555</v>
       </c>
       <c r="K6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="10">
         <f>L7*48*$B$2*$H$2/$J$2^3</f>
         <v>23819.444444444445</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="N6" s="11">
+      <c r="N6" s="10">
         <f>N7*48*$B$2*$H$2/$J$2^3</f>
         <v>28583.333333333332</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="10">
         <f>P7*48*$B$2*$H$2/$J$2^3</f>
         <v>33347.222222222219</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="R6" s="11">
+      <c r="R6" s="10">
         <f>R7*48*$B$2*$H$2/$J$2^3</f>
         <v>38111.111111111109</v>
       </c>
       <c r="S6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T6" s="11">
+      <c r="T6" s="10">
         <f>T7*48*$B$2*$H$2/$J$2^3</f>
         <v>42875</v>
       </c>
       <c r="U6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="V6" s="11">
+      <c r="V6" s="10">
         <f>V7*48*$B$2*$H$2/$J$2^3</f>
         <v>47638.888888888891</v>
       </c>
@@ -13757,75 +14488,75 @@
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B7" s="16"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>5</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>10</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>15</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>20</v>
       </c>
       <c r="K7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="10">
         <v>25</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>30</v>
       </c>
       <c r="O7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>35</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R7" s="11">
+      <c r="R7" s="10">
         <v>40</v>
       </c>
       <c r="S7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="T7" s="11">
+      <c r="T7" s="10">
         <v>45</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>50</v>
       </c>
       <c r="X7">
         <v>5</v>
       </c>
-      <c r="Y7" s="17">
+      <c r="Y7" s="15">
         <f>D6</f>
         <v>4763.8888888888887</v>
       </c>
-      <c r="Z7" s="17">
+      <c r="Z7" s="15">
         <f>D31</f>
         <v>4728.2972799999998</v>
       </c>
@@ -13894,11 +14625,11 @@
       <c r="X8">
         <v>10</v>
       </c>
-      <c r="Y8" s="17">
+      <c r="Y8" s="15">
         <f>F6</f>
         <v>9527.7777777777774</v>
       </c>
-      <c r="Z8" s="17">
+      <c r="Z8" s="15">
         <f>F31</f>
         <v>9453.621650666666</v>
       </c>
@@ -13907,61 +14638,61 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
-        <f>MIN(C9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="11">
-        <f>MIN(E9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="11">
-        <f>MIN(G9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="D9" s="10">
+        <f t="shared" ref="D9:D29" si="0">MIN(C9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ref="F9:F29" si="1">MIN(E9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" ref="H9:H29" si="2">MIN(G9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="11">
-        <f>MIN(I9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="J9" s="10">
+        <f t="shared" ref="J9:J29" si="3">MIN(I9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="K9" s="4"/>
-      <c r="L9" s="11">
-        <f>MIN(K9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="L9" s="10">
+        <f t="shared" ref="L9:L29" si="4">MIN(K9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="M9" s="4"/>
-      <c r="N9" s="11">
-        <f>MIN(M9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="N9" s="10">
+        <f t="shared" ref="N9:N29" si="5">MIN(M9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="11">
-        <f>MIN(O9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="P9" s="10">
+        <f t="shared" ref="P9:P29" si="6">MIN(O9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="Q9" s="4"/>
-      <c r="R9" s="11">
-        <f>MIN(Q9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="R9" s="10">
+        <f t="shared" ref="R9:R29" si="7">MIN(Q9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="S9" s="4"/>
-      <c r="T9" s="11">
-        <f>MIN(S9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="T9" s="10">
+        <f t="shared" ref="T9:T29" si="8">MIN(S9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="U9" s="4"/>
-      <c r="V9" s="11">
-        <f>MIN(U9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
+      <c r="V9" s="10">
+        <f t="shared" ref="V9:V29" si="9">MIN(U9,0.05)*$B$2*($D$2*$F$2/2*2/15)*B9</f>
         <v>0</v>
       </c>
       <c r="X9">
         <v>15</v>
       </c>
-      <c r="Y9" s="17">
+      <c r="Y9" s="15">
         <f>H6</f>
         <v>14291.666666666666</v>
       </c>
-      <c r="Z9" s="17">
+      <c r="Z9" s="15">
         <f>H31</f>
         <v>14204.629768000001</v>
       </c>
@@ -13970,61 +14701,61 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="D10" s="11">
-        <f>MIN(C10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="11">
-        <f>MIN(E10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="11">
-        <f>MIN(G10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="D10" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="4"/>
-      <c r="J10" s="11">
-        <f>MIN(I10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="J10" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
-      <c r="L10" s="11">
-        <f>MIN(K10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="L10" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M10" s="4"/>
-      <c r="N10" s="11">
-        <f>MIN(M10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="N10" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="11">
-        <f>MIN(O10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="P10" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q10" s="4"/>
-      <c r="R10" s="11">
-        <f>MIN(Q10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="R10" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S10" s="4"/>
-      <c r="T10" s="11">
-        <f>MIN(S10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="T10" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U10" s="4"/>
-      <c r="V10" s="11">
-        <f>MIN(U10,0.05)*$B$2*($D$2*$F$2/2*2/15)*B10</f>
+      <c r="V10" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X10">
         <v>20</v>
       </c>
-      <c r="Y10" s="17">
+      <c r="Y10" s="15">
         <f>J6</f>
         <v>19055.555555555555</v>
       </c>
-      <c r="Z10" s="17">
+      <c r="Z10" s="15">
         <f>J31</f>
         <v>18738.632882666665</v>
       </c>
@@ -14033,61 +14764,61 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="D11" s="11">
-        <f>MIN(C11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f>MIN(E11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="11">
-        <f>MIN(G11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="D11" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="4"/>
-      <c r="J11" s="11">
-        <f>MIN(I11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="J11" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="4"/>
-      <c r="L11" s="11">
-        <f>MIN(K11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="L11" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M11" s="4"/>
-      <c r="N11" s="11">
-        <f>MIN(M11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="N11" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="11">
-        <f>MIN(O11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="P11" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q11" s="4"/>
-      <c r="R11" s="11">
-        <f>MIN(Q11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="R11" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S11" s="4"/>
-      <c r="T11" s="11">
-        <f>MIN(S11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="T11" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U11" s="4"/>
-      <c r="V11" s="11">
-        <f>MIN(U11,0.05)*$B$2*($D$2*$F$2/2*2/15)*B11</f>
+      <c r="V11" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X11">
         <v>25</v>
       </c>
-      <c r="Y11" s="17">
+      <c r="Y11" s="15">
         <f>L6</f>
         <v>23819.444444444445</v>
       </c>
-      <c r="Z11" s="17">
+      <c r="Z11" s="15">
         <f>L31</f>
         <v>23081.654997333335</v>
       </c>
@@ -14099,84 +14830,84 @@
       <c r="B12" s="4">
         <v>16.329999999999998</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="13">
         <v>1.074E-2</v>
       </c>
-      <c r="D12" s="11">
-        <f>MIN(C12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="D12" s="10">
+        <f t="shared" si="0"/>
         <v>61384.469999999987</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="13">
         <v>2.1542800000000001E-2</v>
       </c>
-      <c r="F12" s="11">
-        <f>MIN(E12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="F12" s="10">
+        <f t="shared" si="1"/>
         <v>123127.87339999998</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>3.2480000000000002E-2</v>
       </c>
-      <c r="H12" s="11">
-        <f>MIN(G12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="H12" s="10">
+        <f t="shared" si="2"/>
         <v>185639.43999999997</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="13">
         <v>4.3039800000000003E-2</v>
       </c>
-      <c r="J12" s="11">
-        <f>MIN(I12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="J12" s="10">
+        <f t="shared" si="3"/>
         <v>245993.97689999998</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="13">
         <v>5.4163799999999998E-2</v>
       </c>
-      <c r="L12" s="11">
-        <f>MIN(K12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="L12" s="10">
+        <f t="shared" si="4"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="M12" s="14">
+      <c r="M12" s="13">
         <v>6.3611000000000001E-2</v>
       </c>
-      <c r="N12" s="11">
-        <f>MIN(M12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="N12" s="10">
+        <f t="shared" si="5"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="O12" s="14">
+      <c r="O12" s="13">
         <v>7.6282600000000006E-2</v>
       </c>
-      <c r="P12" s="11">
-        <f>MIN(O12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="P12" s="10">
+        <f t="shared" si="6"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="Q12" s="14">
+      <c r="Q12" s="13">
         <v>8.5456500000000005E-2</v>
       </c>
-      <c r="R12" s="11">
-        <f>MIN(Q12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="R12" s="10">
+        <f t="shared" si="7"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="S12" s="14">
+      <c r="S12" s="13">
         <v>9.96755E-2</v>
       </c>
-      <c r="T12" s="11">
-        <f>MIN(S12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="T12" s="10">
+        <f t="shared" si="8"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="U12" s="14">
+      <c r="U12" s="13">
         <v>0.10568130000000001</v>
       </c>
-      <c r="V12" s="11">
-        <f>MIN(U12,0.05)*$B$2*($D$2*$F$2/2*2/15)*B12</f>
+      <c r="V12" s="10">
+        <f t="shared" si="9"/>
         <v>285774.99999999994</v>
       </c>
       <c r="X12">
         <v>30</v>
       </c>
-      <c r="Y12" s="17">
+      <c r="Y12" s="15">
         <f>N6</f>
         <v>28583.333333333332</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12" s="15">
         <f>N31</f>
         <v>25262.8292</v>
       </c>
@@ -14188,84 +14919,84 @@
       <c r="B13" s="4">
         <v>14</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>9.4529999999999996E-3</v>
       </c>
-      <c r="D13" s="11">
-        <f>MIN(C13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="D13" s="10">
+        <f t="shared" si="0"/>
         <v>46319.700000000004</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="13">
         <v>1.8933800000000001E-2</v>
       </c>
-      <c r="F13" s="11">
-        <f>MIN(E13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="F13" s="10">
+        <f t="shared" si="1"/>
         <v>92775.62</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>2.78546E-2</v>
       </c>
-      <c r="H13" s="11">
-        <f>MIN(G13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="H13" s="10">
+        <f t="shared" si="2"/>
         <v>136487.54</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="13">
         <v>3.6866999999999997E-2</v>
       </c>
-      <c r="J13" s="11">
-        <f>MIN(I13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="J13" s="10">
+        <f t="shared" si="3"/>
         <v>180648.3</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="13">
         <v>4.64882E-2</v>
       </c>
-      <c r="L13" s="11">
-        <f>MIN(K13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="L13" s="10">
+        <f t="shared" si="4"/>
         <v>227792.18000000002</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="13">
         <v>5.6155700000000003E-2</v>
       </c>
-      <c r="N13" s="11">
-        <f>MIN(M13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="N13" s="10">
+        <f t="shared" si="5"/>
         <v>245000</v>
       </c>
-      <c r="O13" s="14">
+      <c r="O13" s="13">
         <v>6.6235500000000003E-2</v>
       </c>
-      <c r="P13" s="11">
-        <f>MIN(O13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="P13" s="10">
+        <f t="shared" si="6"/>
         <v>245000</v>
       </c>
-      <c r="Q13" s="14">
+      <c r="Q13" s="13">
         <v>7.5047100000000005E-2</v>
       </c>
-      <c r="R13" s="11">
-        <f>MIN(Q13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="R13" s="10">
+        <f t="shared" si="7"/>
         <v>245000</v>
       </c>
-      <c r="S13" s="14">
+      <c r="S13" s="13">
         <v>8.1780599999999995E-2</v>
       </c>
-      <c r="T13" s="11">
-        <f>MIN(S13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="T13" s="10">
+        <f t="shared" si="8"/>
         <v>245000</v>
       </c>
-      <c r="U13" s="14">
+      <c r="U13" s="13">
         <v>9.4609700000000005E-2</v>
       </c>
-      <c r="V13" s="11">
-        <f>MIN(U13,0.05)*$B$2*($D$2*$F$2/2*2/15)*B13</f>
+      <c r="V13" s="10">
+        <f t="shared" si="9"/>
         <v>245000</v>
       </c>
       <c r="X13">
         <v>35</v>
       </c>
-      <c r="Y13" s="17">
+      <c r="Y13" s="15">
         <f>P6</f>
         <v>33347.222222222219</v>
       </c>
-      <c r="Z13" s="17">
+      <c r="Z13" s="15">
         <f>P31</f>
         <v>26726.137591999999</v>
       </c>
@@ -14277,84 +15008,84 @@
       <c r="B14" s="4">
         <v>11.67</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="13">
         <v>7.7996000000000003E-3</v>
       </c>
-      <c r="D14" s="11">
-        <f>MIN(C14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="D14" s="10">
+        <f t="shared" si="0"/>
         <v>31857.466200000003</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="13">
         <v>1.5277000000000001E-2</v>
       </c>
-      <c r="F14" s="11">
-        <f>MIN(E14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="F14" s="10">
+        <f t="shared" si="1"/>
         <v>62398.906500000005</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>2.33809E-2</v>
       </c>
-      <c r="H14" s="11">
-        <f>MIN(G14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="H14" s="10">
+        <f t="shared" si="2"/>
         <v>95499.286049999995</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="13">
         <v>3.0815499999999999E-2</v>
       </c>
-      <c r="J14" s="11">
-        <f>MIN(I14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="J14" s="10">
+        <f t="shared" si="3"/>
         <v>125865.90974999999</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="13">
         <v>3.8999499999999999E-2</v>
       </c>
-      <c r="L14" s="11">
-        <f>MIN(K14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="L14" s="10">
+        <f t="shared" si="4"/>
         <v>159293.45775</v>
       </c>
-      <c r="M14" s="14">
+      <c r="M14" s="13">
         <v>4.60642E-2</v>
       </c>
-      <c r="N14" s="11">
-        <f>MIN(M14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="N14" s="10">
+        <f t="shared" si="5"/>
         <v>188149.2249</v>
       </c>
-      <c r="O14" s="14">
+      <c r="O14" s="13">
         <v>5.36663E-2</v>
       </c>
-      <c r="P14" s="11">
-        <f>MIN(O14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="P14" s="10">
+        <f t="shared" si="6"/>
         <v>204225</v>
       </c>
-      <c r="Q14" s="14">
+      <c r="Q14" s="13">
         <v>6.2011200000000002E-2</v>
       </c>
-      <c r="R14" s="11">
-        <f>MIN(Q14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="R14" s="10">
+        <f t="shared" si="7"/>
         <v>204225</v>
       </c>
-      <c r="S14" s="14">
+      <c r="S14" s="13">
         <v>6.7900299999999997E-2</v>
       </c>
-      <c r="T14" s="11">
-        <f>MIN(S14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="T14" s="10">
+        <f t="shared" si="8"/>
         <v>204225</v>
       </c>
-      <c r="U14" s="14">
+      <c r="U14" s="13">
         <v>7.7568300000000007E-2</v>
       </c>
-      <c r="V14" s="11">
-        <f>MIN(U14,0.05)*$B$2*($D$2*$F$2/2*2/15)*B14</f>
+      <c r="V14" s="10">
+        <f t="shared" si="9"/>
         <v>204225</v>
       </c>
       <c r="X14">
         <v>40</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="Y14" s="15">
         <f>R6</f>
         <v>38111.111111111109</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="Z14" s="15">
         <f>R31</f>
         <v>27734.453264</v>
       </c>
@@ -14366,84 +15097,84 @@
       <c r="B15" s="4">
         <v>9.33</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="13">
         <v>6.2082999999999999E-3</v>
       </c>
-      <c r="D15" s="11">
-        <f>MIN(C15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="D15" s="10">
+        <f t="shared" si="0"/>
         <v>20273.203649999999</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>1.2604300000000001E-2</v>
       </c>
-      <c r="F15" s="11">
-        <f>MIN(E15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="F15" s="10">
+        <f t="shared" si="1"/>
         <v>41159.341650000002</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>1.8966299999999998E-2</v>
       </c>
-      <c r="H15" s="11">
-        <f>MIN(G15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="H15" s="10">
+        <f t="shared" si="2"/>
         <v>61934.452649999992</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="13">
         <v>2.43559E-2</v>
       </c>
-      <c r="J15" s="11">
-        <f>MIN(I15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="J15" s="10">
+        <f t="shared" si="3"/>
         <v>79534.191449999998</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="13">
         <v>3.15193E-2</v>
       </c>
-      <c r="L15" s="11">
-        <f>MIN(K15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="L15" s="10">
+        <f t="shared" si="4"/>
         <v>102926.27415</v>
       </c>
-      <c r="M15" s="14">
+      <c r="M15" s="13">
         <v>3.76236E-2</v>
       </c>
-      <c r="N15" s="11">
-        <f>MIN(M15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="N15" s="10">
+        <f t="shared" si="5"/>
         <v>122859.8658</v>
       </c>
-      <c r="O15" s="14">
+      <c r="O15" s="13">
         <v>4.3596799999999998E-2</v>
       </c>
-      <c r="P15" s="11">
-        <f>MIN(O15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="P15" s="10">
+        <f t="shared" si="6"/>
         <v>142365.3504</v>
       </c>
-      <c r="Q15" s="14">
+      <c r="Q15" s="13">
         <v>5.0071299999999999E-2</v>
       </c>
-      <c r="R15" s="11">
-        <f>MIN(Q15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="R15" s="10">
+        <f t="shared" si="7"/>
         <v>163275</v>
       </c>
-      <c r="S15" s="14">
+      <c r="S15" s="13">
         <v>5.6396599999999998E-2</v>
       </c>
-      <c r="T15" s="11">
-        <f>MIN(S15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="T15" s="10">
+        <f t="shared" si="8"/>
         <v>163275</v>
       </c>
-      <c r="U15" s="14">
+      <c r="U15" s="13">
         <v>6.2996700000000003E-2</v>
       </c>
-      <c r="V15" s="11">
-        <f>MIN(U15,0.05)*$B$2*($D$2*$F$2/2*2/15)*B15</f>
+      <c r="V15" s="10">
+        <f t="shared" si="9"/>
         <v>163275</v>
       </c>
       <c r="X15">
         <v>45</v>
       </c>
-      <c r="Y15" s="17">
+      <c r="Y15" s="15">
         <f>T6</f>
         <v>42875</v>
       </c>
-      <c r="Z15" s="17">
+      <c r="Z15" s="15">
         <f>T31</f>
         <v>28254.015141333337</v>
       </c>
@@ -14455,84 +15186,84 @@
       <c r="B16" s="4">
         <v>7</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="13">
         <v>4.5685999999999999E-3</v>
       </c>
-      <c r="D16" s="11">
-        <f>MIN(C16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="D16" s="10">
+        <f t="shared" si="0"/>
         <v>11193.07</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>9.1436999999999994E-3</v>
       </c>
-      <c r="F16" s="11">
-        <f>MIN(E16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="F16" s="10">
+        <f t="shared" si="1"/>
         <v>22402.065000000002</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>1.37968E-2</v>
       </c>
-      <c r="H16" s="11">
-        <f>MIN(G16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="H16" s="10">
+        <f t="shared" si="2"/>
         <v>33802.159999999996</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="13">
         <v>1.8747900000000001E-2</v>
       </c>
-      <c r="J16" s="11">
-        <f>MIN(I16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="J16" s="10">
+        <f t="shared" si="3"/>
         <v>45932.355000000003</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="13">
         <v>2.3518899999999999E-2</v>
       </c>
-      <c r="L16" s="11">
-        <f>MIN(K16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="L16" s="10">
+        <f t="shared" si="4"/>
         <v>57621.305</v>
       </c>
-      <c r="M16" s="14">
+      <c r="M16" s="13">
         <v>2.7532600000000001E-2</v>
       </c>
-      <c r="N16" s="11">
-        <f>MIN(M16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="N16" s="10">
+        <f t="shared" si="5"/>
         <v>67454.87</v>
       </c>
-      <c r="O16" s="14">
+      <c r="O16" s="13">
         <v>3.2843299999999999E-2</v>
       </c>
-      <c r="P16" s="11">
-        <f>MIN(O16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="P16" s="10">
+        <f t="shared" si="6"/>
         <v>80466.084999999992</v>
       </c>
-      <c r="Q16" s="14">
+      <c r="Q16" s="13">
         <v>3.7277999999999999E-2</v>
       </c>
-      <c r="R16" s="11">
-        <f>MIN(Q16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="R16" s="10">
+        <f t="shared" si="7"/>
         <v>91331.099999999991</v>
       </c>
-      <c r="S16" s="14">
+      <c r="S16" s="13">
         <v>4.2225699999999998E-2</v>
       </c>
-      <c r="T16" s="11">
-        <f>MIN(S16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="T16" s="10">
+        <f t="shared" si="8"/>
         <v>103452.96500000001</v>
       </c>
-      <c r="U16" s="14">
+      <c r="U16" s="13">
         <v>4.6927400000000001E-2</v>
       </c>
-      <c r="V16" s="11">
-        <f>MIN(U16,0.05)*$B$2*($D$2*$F$2/2*2/15)*B16</f>
+      <c r="V16" s="10">
+        <f t="shared" si="9"/>
         <v>114972.13</v>
       </c>
       <c r="X16">
         <v>50</v>
       </c>
-      <c r="Y16" s="17">
+      <c r="Y16" s="15">
         <f>V6</f>
         <v>47638.888888888891</v>
       </c>
-      <c r="Z16" s="17">
+      <c r="Z16" s="15">
         <f>V31</f>
         <v>28696.711810666664</v>
       </c>
@@ -14544,74 +15275,74 @@
       <c r="B17" s="4">
         <v>4.67</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="13">
         <v>3.0913999999999998E-3</v>
       </c>
-      <c r="D17" s="11">
-        <f>MIN(C17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
         <v>5052.8932999999997</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>6.1939999999999999E-3</v>
       </c>
-      <c r="F17" s="11">
-        <f>MIN(E17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="F17" s="10">
+        <f t="shared" si="1"/>
         <v>10124.093000000001</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>9.4899000000000008E-3</v>
       </c>
-      <c r="H17" s="11">
-        <f>MIN(G17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="H17" s="10">
+        <f t="shared" si="2"/>
         <v>15511.241550000001</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="13">
         <v>1.2091899999999999E-2</v>
       </c>
-      <c r="J17" s="11">
-        <f>MIN(I17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="J17" s="10">
+        <f t="shared" si="3"/>
         <v>19764.21055</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="13">
         <v>1.5816500000000001E-2</v>
       </c>
-      <c r="L17" s="11">
-        <f>MIN(K17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="L17" s="10">
+        <f t="shared" si="4"/>
         <v>25852.06925</v>
       </c>
-      <c r="M17" s="14">
+      <c r="M17" s="13">
         <v>1.8643400000000001E-2</v>
       </c>
-      <c r="N17" s="11">
-        <f>MIN(M17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="N17" s="10">
+        <f t="shared" si="5"/>
         <v>30472.637299999999</v>
       </c>
-      <c r="O17" s="14">
+      <c r="O17" s="13">
         <v>2.1776500000000001E-2</v>
       </c>
-      <c r="P17" s="11">
-        <f>MIN(O17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="P17" s="10">
+        <f t="shared" si="6"/>
         <v>35593.689250000003</v>
       </c>
-      <c r="Q17" s="14">
+      <c r="Q17" s="13">
         <v>2.4836400000000002E-2</v>
       </c>
-      <c r="R17" s="11">
-        <f>MIN(Q17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="R17" s="10">
+        <f t="shared" si="7"/>
         <v>40595.095799999996</v>
       </c>
-      <c r="S17" s="14">
+      <c r="S17" s="13">
         <v>2.85013E-2</v>
       </c>
-      <c r="T17" s="11">
-        <f>MIN(S17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="T17" s="10">
+        <f t="shared" si="8"/>
         <v>46585.37485</v>
       </c>
-      <c r="U17" s="14">
+      <c r="U17" s="13">
         <v>3.0787200000000001E-2</v>
       </c>
-      <c r="V17" s="11">
-        <f>MIN(U17,0.05)*$B$2*($D$2*$F$2/2*2/15)*B17</f>
+      <c r="V17" s="10">
+        <f t="shared" si="9"/>
         <v>50321.678400000004</v>
       </c>
     </row>
@@ -14622,74 +15353,74 @@
       <c r="B18" s="4">
         <v>2.33</v>
       </c>
-      <c r="C18" s="14">
+      <c r="C18" s="13">
         <v>1.5087E-3</v>
       </c>
-      <c r="D18" s="11">
-        <f>MIN(C18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="D18" s="10">
+        <f t="shared" si="0"/>
         <v>1230.34485</v>
       </c>
-      <c r="E18" s="14">
+      <c r="E18" s="13">
         <v>3.0937E-3</v>
       </c>
-      <c r="F18" s="11">
-        <f>MIN(E18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="F18" s="10">
+        <f t="shared" si="1"/>
         <v>2522.9123500000001</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>4.6591000000000002E-3</v>
       </c>
-      <c r="H18" s="11">
-        <f>MIN(G18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="H18" s="10">
+        <f t="shared" si="2"/>
         <v>3799.4960500000002</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="13">
         <v>6.0819000000000003E-3</v>
       </c>
-      <c r="J18" s="11">
-        <f>MIN(I18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="J18" s="10">
+        <f t="shared" si="3"/>
         <v>4959.7894500000002</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="13">
         <v>7.7275E-3</v>
       </c>
-      <c r="L18" s="11">
-        <f>MIN(K18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="L18" s="10">
+        <f t="shared" si="4"/>
         <v>6301.7762499999999</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="13">
         <v>9.3740000000000004E-3</v>
       </c>
-      <c r="N18" s="11">
-        <f>MIN(M18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="N18" s="10">
+        <f t="shared" si="5"/>
         <v>7644.4970000000012</v>
       </c>
-      <c r="O18" s="14">
+      <c r="O18" s="13">
         <v>1.07971E-2</v>
       </c>
-      <c r="P18" s="11">
-        <f>MIN(O18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="P18" s="10">
+        <f t="shared" si="6"/>
         <v>8805.0350500000004</v>
       </c>
-      <c r="Q18" s="14">
+      <c r="Q18" s="13">
         <v>1.20672E-2</v>
       </c>
-      <c r="R18" s="11">
-        <f>MIN(Q18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="R18" s="10">
+        <f t="shared" si="7"/>
         <v>9840.8015999999989</v>
       </c>
-      <c r="S18" s="14">
+      <c r="S18" s="13">
         <v>1.37489E-2</v>
       </c>
-      <c r="T18" s="11">
-        <f>MIN(S18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="T18" s="10">
+        <f t="shared" si="8"/>
         <v>11212.22795</v>
       </c>
-      <c r="U18" s="14">
+      <c r="U18" s="13">
         <v>1.5398999999999999E-2</v>
       </c>
-      <c r="V18" s="11">
-        <f>MIN(U18,0.05)*$B$2*($D$2*$F$2/2*2/15)*B18</f>
+      <c r="V18" s="10">
+        <f t="shared" si="9"/>
         <v>12557.884500000002</v>
       </c>
     </row>
@@ -14700,74 +15431,74 @@
       <c r="B19" s="4">
         <v>0</v>
       </c>
-      <c r="C19" s="14">
-        <v>0</v>
-      </c>
-      <c r="D19" s="11">
-        <f>MIN(C19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="E19" s="14">
-        <v>0</v>
-      </c>
-      <c r="F19" s="11">
-        <f>MIN(E19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="G19" s="14">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <f>MIN(G19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11">
-        <f>MIN(I19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="14">
-        <v>0</v>
-      </c>
-      <c r="L19" s="11">
-        <f>MIN(K19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="14">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <f>MIN(M19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="14">
-        <v>0</v>
-      </c>
-      <c r="P19" s="11">
-        <f>MIN(O19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="14">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11">
-        <f>MIN(Q19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="14">
-        <v>0</v>
-      </c>
-      <c r="T19" s="11">
-        <f>MIN(S19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="14">
-        <v>0</v>
-      </c>
-      <c r="V19" s="11">
-        <f>MIN(U19,0.05)*$B$2*($D$2*$F$2/2*2/15)*B19</f>
+      <c r="C19" s="13">
+        <v>0</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <v>0</v>
+      </c>
+      <c r="L19" s="10">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="10">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="10">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="10">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="13">
+        <v>0</v>
+      </c>
+      <c r="V19" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -14776,84 +15507,84 @@
         <f>B18</f>
         <v>2.33</v>
       </c>
-      <c r="C20" s="14">
+      <c r="C20" s="13">
         <f>C18</f>
         <v>1.5087E-3</v>
       </c>
-      <c r="D20" s="11">
-        <f>MIN(C20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="D20" s="10">
+        <f t="shared" si="0"/>
         <v>1230.34485</v>
       </c>
-      <c r="E20" s="14">
+      <c r="E20" s="13">
         <f>E18</f>
         <v>3.0937E-3</v>
       </c>
-      <c r="F20" s="11">
-        <f>MIN(E20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="F20" s="10">
+        <f t="shared" si="1"/>
         <v>2522.9123500000001</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <f>G18</f>
         <v>4.6591000000000002E-3</v>
       </c>
-      <c r="H20" s="11">
-        <f>MIN(G20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="H20" s="10">
+        <f t="shared" si="2"/>
         <v>3799.4960500000002</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f>I18</f>
         <v>6.0819000000000003E-3</v>
       </c>
-      <c r="J20" s="11">
-        <f>MIN(I20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="J20" s="10">
+        <f t="shared" si="3"/>
         <v>4959.7894500000002</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="13">
         <f>K18</f>
         <v>7.7275E-3</v>
       </c>
-      <c r="L20" s="11">
-        <f>MIN(K20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="L20" s="10">
+        <f t="shared" si="4"/>
         <v>6301.7762499999999</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="13">
         <f>M18</f>
         <v>9.3740000000000004E-3</v>
       </c>
-      <c r="N20" s="11">
-        <f>MIN(M20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="N20" s="10">
+        <f t="shared" si="5"/>
         <v>7644.4970000000012</v>
       </c>
-      <c r="O20" s="14">
+      <c r="O20" s="13">
         <f>O18</f>
         <v>1.07971E-2</v>
       </c>
-      <c r="P20" s="11">
-        <f>MIN(O20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="P20" s="10">
+        <f t="shared" si="6"/>
         <v>8805.0350500000004</v>
       </c>
-      <c r="Q20" s="14">
+      <c r="Q20" s="13">
         <f>Q18</f>
         <v>1.20672E-2</v>
       </c>
-      <c r="R20" s="11">
-        <f>MIN(Q20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="R20" s="10">
+        <f t="shared" si="7"/>
         <v>9840.8015999999989</v>
       </c>
-      <c r="S20" s="14">
+      <c r="S20" s="13">
         <f>S18</f>
         <v>1.37489E-2</v>
       </c>
-      <c r="T20" s="11">
-        <f>MIN(S20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="T20" s="10">
+        <f t="shared" si="8"/>
         <v>11212.22795</v>
       </c>
-      <c r="U20" s="14">
+      <c r="U20" s="13">
         <f>U18</f>
         <v>1.5398999999999999E-2</v>
       </c>
-      <c r="V20" s="11">
-        <f>MIN(U20,0.05)*$B$2*($D$2*$F$2/2*2/15)*B20</f>
+      <c r="V20" s="10">
+        <f t="shared" si="9"/>
         <v>12557.884500000002</v>
       </c>
     </row>
@@ -14862,84 +15593,84 @@
         <f>B17</f>
         <v>4.67</v>
       </c>
-      <c r="C21" s="14">
+      <c r="C21" s="13">
         <f>C17</f>
         <v>3.0913999999999998E-3</v>
       </c>
-      <c r="D21" s="11">
-        <f>MIN(C21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="D21" s="10">
+        <f t="shared" si="0"/>
         <v>5052.8932999999997</v>
       </c>
-      <c r="E21" s="14">
+      <c r="E21" s="13">
         <f>E17</f>
         <v>6.1939999999999999E-3</v>
       </c>
-      <c r="F21" s="11">
-        <f>MIN(E21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="F21" s="10">
+        <f t="shared" si="1"/>
         <v>10124.093000000001</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <f>G17</f>
         <v>9.4899000000000008E-3</v>
       </c>
-      <c r="H21" s="11">
-        <f>MIN(G21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="H21" s="10">
+        <f t="shared" si="2"/>
         <v>15511.241550000001</v>
       </c>
-      <c r="I21" s="14">
+      <c r="I21" s="13">
         <f>I17</f>
         <v>1.2091899999999999E-2</v>
       </c>
-      <c r="J21" s="11">
-        <f>MIN(I21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="J21" s="10">
+        <f t="shared" si="3"/>
         <v>19764.21055</v>
       </c>
-      <c r="K21" s="14">
+      <c r="K21" s="13">
         <f>K17</f>
         <v>1.5816500000000001E-2</v>
       </c>
-      <c r="L21" s="11">
-        <f>MIN(K21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="L21" s="10">
+        <f t="shared" si="4"/>
         <v>25852.06925</v>
       </c>
-      <c r="M21" s="14">
+      <c r="M21" s="13">
         <f>M17</f>
         <v>1.8643400000000001E-2</v>
       </c>
-      <c r="N21" s="11">
-        <f>MIN(M21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="N21" s="10">
+        <f t="shared" si="5"/>
         <v>30472.637299999999</v>
       </c>
-      <c r="O21" s="14">
+      <c r="O21" s="13">
         <f>O17</f>
         <v>2.1776500000000001E-2</v>
       </c>
-      <c r="P21" s="11">
-        <f>MIN(O21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="P21" s="10">
+        <f t="shared" si="6"/>
         <v>35593.689250000003</v>
       </c>
-      <c r="Q21" s="14">
+      <c r="Q21" s="13">
         <f>Q17</f>
         <v>2.4836400000000002E-2</v>
       </c>
-      <c r="R21" s="11">
-        <f>MIN(Q21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="R21" s="10">
+        <f t="shared" si="7"/>
         <v>40595.095799999996</v>
       </c>
-      <c r="S21" s="14">
+      <c r="S21" s="13">
         <f>S17</f>
         <v>2.85013E-2</v>
       </c>
-      <c r="T21" s="11">
-        <f>MIN(S21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="T21" s="10">
+        <f t="shared" si="8"/>
         <v>46585.37485</v>
       </c>
-      <c r="U21" s="14">
+      <c r="U21" s="13">
         <f>U17</f>
         <v>3.0787200000000001E-2</v>
       </c>
-      <c r="V21" s="11">
-        <f>MIN(U21,0.05)*$B$2*($D$2*$F$2/2*2/15)*B21</f>
+      <c r="V21" s="10">
+        <f t="shared" si="9"/>
         <v>50321.678400000004</v>
       </c>
     </row>
@@ -14948,84 +15679,84 @@
         <f>B16</f>
         <v>7</v>
       </c>
-      <c r="C22" s="14">
+      <c r="C22" s="13">
         <f>C16</f>
         <v>4.5685999999999999E-3</v>
       </c>
-      <c r="D22" s="11">
-        <f>MIN(C22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="D22" s="10">
+        <f t="shared" si="0"/>
         <v>11193.07</v>
       </c>
-      <c r="E22" s="14">
+      <c r="E22" s="13">
         <f>E16</f>
         <v>9.1436999999999994E-3</v>
       </c>
-      <c r="F22" s="11">
-        <f>MIN(E22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="F22" s="10">
+        <f t="shared" si="1"/>
         <v>22402.065000000002</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <f>G16</f>
         <v>1.37968E-2</v>
       </c>
-      <c r="H22" s="11">
-        <f>MIN(G22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="H22" s="10">
+        <f t="shared" si="2"/>
         <v>33802.159999999996</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="13">
         <f>I16</f>
         <v>1.8747900000000001E-2</v>
       </c>
-      <c r="J22" s="11">
-        <f>MIN(I22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="J22" s="10">
+        <f t="shared" si="3"/>
         <v>45932.355000000003</v>
       </c>
-      <c r="K22" s="14">
+      <c r="K22" s="13">
         <f>K16</f>
         <v>2.3518899999999999E-2</v>
       </c>
-      <c r="L22" s="11">
-        <f>MIN(K22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="L22" s="10">
+        <f t="shared" si="4"/>
         <v>57621.305</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="13">
         <f>M16</f>
         <v>2.7532600000000001E-2</v>
       </c>
-      <c r="N22" s="11">
-        <f>MIN(M22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="N22" s="10">
+        <f t="shared" si="5"/>
         <v>67454.87</v>
       </c>
-      <c r="O22" s="14">
+      <c r="O22" s="13">
         <f>O16</f>
         <v>3.2843299999999999E-2</v>
       </c>
-      <c r="P22" s="11">
-        <f>MIN(O22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="P22" s="10">
+        <f t="shared" si="6"/>
         <v>80466.084999999992</v>
       </c>
-      <c r="Q22" s="14">
+      <c r="Q22" s="13">
         <f>Q16</f>
         <v>3.7277999999999999E-2</v>
       </c>
-      <c r="R22" s="11">
-        <f>MIN(Q22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="R22" s="10">
+        <f t="shared" si="7"/>
         <v>91331.099999999991</v>
       </c>
-      <c r="S22" s="14">
+      <c r="S22" s="13">
         <f>S16</f>
         <v>4.2225699999999998E-2</v>
       </c>
-      <c r="T22" s="11">
-        <f>MIN(S22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="T22" s="10">
+        <f t="shared" si="8"/>
         <v>103452.96500000001</v>
       </c>
-      <c r="U22" s="14">
+      <c r="U22" s="13">
         <f>U16</f>
         <v>4.6927400000000001E-2</v>
       </c>
-      <c r="V22" s="11">
-        <f>MIN(U22,0.05)*$B$2*($D$2*$F$2/2*2/15)*B22</f>
+      <c r="V22" s="10">
+        <f t="shared" si="9"/>
         <v>114972.13</v>
       </c>
     </row>
@@ -15034,84 +15765,84 @@
         <f>B15</f>
         <v>9.33</v>
       </c>
-      <c r="C23" s="14">
+      <c r="C23" s="13">
         <f>C15</f>
         <v>6.2082999999999999E-3</v>
       </c>
-      <c r="D23" s="11">
-        <f>MIN(C23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="D23" s="10">
+        <f t="shared" si="0"/>
         <v>20273.203649999999</v>
       </c>
-      <c r="E23" s="14">
+      <c r="E23" s="13">
         <f>E15</f>
         <v>1.2604300000000001E-2</v>
       </c>
-      <c r="F23" s="11">
-        <f>MIN(E23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="F23" s="10">
+        <f t="shared" si="1"/>
         <v>41159.341650000002</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <f>G15</f>
         <v>1.8966299999999998E-2</v>
       </c>
-      <c r="H23" s="11">
-        <f>MIN(G23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="H23" s="10">
+        <f t="shared" si="2"/>
         <v>61934.452649999992</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="13">
         <f>I15</f>
         <v>2.43559E-2</v>
       </c>
-      <c r="J23" s="11">
-        <f>MIN(I23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="J23" s="10">
+        <f t="shared" si="3"/>
         <v>79534.191449999998</v>
       </c>
-      <c r="K23" s="14">
+      <c r="K23" s="13">
         <f>K15</f>
         <v>3.15193E-2</v>
       </c>
-      <c r="L23" s="11">
-        <f>MIN(K23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="L23" s="10">
+        <f t="shared" si="4"/>
         <v>102926.27415</v>
       </c>
-      <c r="M23" s="14">
+      <c r="M23" s="13">
         <f>M15</f>
         <v>3.76236E-2</v>
       </c>
-      <c r="N23" s="11">
-        <f>MIN(M23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="N23" s="10">
+        <f t="shared" si="5"/>
         <v>122859.8658</v>
       </c>
-      <c r="O23" s="14">
+      <c r="O23" s="13">
         <f>O15</f>
         <v>4.3596799999999998E-2</v>
       </c>
-      <c r="P23" s="11">
-        <f>MIN(O23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="P23" s="10">
+        <f t="shared" si="6"/>
         <v>142365.3504</v>
       </c>
-      <c r="Q23" s="14">
+      <c r="Q23" s="13">
         <f>Q15</f>
         <v>5.0071299999999999E-2</v>
       </c>
-      <c r="R23" s="11">
-        <f>MIN(Q23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="R23" s="10">
+        <f t="shared" si="7"/>
         <v>163275</v>
       </c>
-      <c r="S23" s="14">
+      <c r="S23" s="13">
         <f>S15</f>
         <v>5.6396599999999998E-2</v>
       </c>
-      <c r="T23" s="11">
-        <f>MIN(S23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="T23" s="10">
+        <f t="shared" si="8"/>
         <v>163275</v>
       </c>
-      <c r="U23" s="14">
+      <c r="U23" s="13">
         <f>U15</f>
         <v>6.2996700000000003E-2</v>
       </c>
-      <c r="V23" s="11">
-        <f>MIN(U23,0.05)*$B$2*($D$2*$F$2/2*2/15)*B23</f>
+      <c r="V23" s="10">
+        <f t="shared" si="9"/>
         <v>163275</v>
       </c>
     </row>
@@ -15120,84 +15851,84 @@
         <f>B14</f>
         <v>11.67</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="13">
         <f>C14</f>
         <v>7.7996000000000003E-3</v>
       </c>
-      <c r="D24" s="11">
-        <f>MIN(C24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="D24" s="10">
+        <f t="shared" si="0"/>
         <v>31857.466200000003</v>
       </c>
-      <c r="E24" s="14">
+      <c r="E24" s="13">
         <f>E14</f>
         <v>1.5277000000000001E-2</v>
       </c>
-      <c r="F24" s="11">
-        <f>MIN(E24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="F24" s="10">
+        <f t="shared" si="1"/>
         <v>62398.906500000005</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <f>G14</f>
         <v>2.33809E-2</v>
       </c>
-      <c r="H24" s="11">
-        <f>MIN(G24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="H24" s="10">
+        <f t="shared" si="2"/>
         <v>95499.286049999995</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="13">
         <f>I14</f>
         <v>3.0815499999999999E-2</v>
       </c>
-      <c r="J24" s="11">
-        <f>MIN(I24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="J24" s="10">
+        <f t="shared" si="3"/>
         <v>125865.90974999999</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="13">
         <f>K14</f>
         <v>3.8999499999999999E-2</v>
       </c>
-      <c r="L24" s="11">
-        <f>MIN(K24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="L24" s="10">
+        <f t="shared" si="4"/>
         <v>159293.45775</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="13">
         <f>M14</f>
         <v>4.60642E-2</v>
       </c>
-      <c r="N24" s="11">
-        <f>MIN(M24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="N24" s="10">
+        <f t="shared" si="5"/>
         <v>188149.2249</v>
       </c>
-      <c r="O24" s="14">
+      <c r="O24" s="13">
         <f>O14</f>
         <v>5.36663E-2</v>
       </c>
-      <c r="P24" s="11">
-        <f>MIN(O24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="P24" s="10">
+        <f t="shared" si="6"/>
         <v>204225</v>
       </c>
-      <c r="Q24" s="14">
+      <c r="Q24" s="13">
         <f>Q14</f>
         <v>6.2011200000000002E-2</v>
       </c>
-      <c r="R24" s="11">
-        <f>MIN(Q24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="R24" s="10">
+        <f t="shared" si="7"/>
         <v>204225</v>
       </c>
-      <c r="S24" s="14">
+      <c r="S24" s="13">
         <f>S14</f>
         <v>6.7900299999999997E-2</v>
       </c>
-      <c r="T24" s="11">
-        <f>MIN(S24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="T24" s="10">
+        <f t="shared" si="8"/>
         <v>204225</v>
       </c>
-      <c r="U24" s="14">
+      <c r="U24" s="13">
         <f>U14</f>
         <v>7.7568300000000007E-2</v>
       </c>
-      <c r="V24" s="11">
-        <f>MIN(U24,0.05)*$B$2*($D$2*$F$2/2*2/15)*B24</f>
+      <c r="V24" s="10">
+        <f t="shared" si="9"/>
         <v>204225</v>
       </c>
     </row>
@@ -15206,84 +15937,84 @@
         <f>B13</f>
         <v>14</v>
       </c>
-      <c r="C25" s="14">
+      <c r="C25" s="13">
         <f>C13</f>
         <v>9.4529999999999996E-3</v>
       </c>
-      <c r="D25" s="11">
-        <f>MIN(C25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="D25" s="10">
+        <f t="shared" si="0"/>
         <v>46319.700000000004</v>
       </c>
-      <c r="E25" s="14">
+      <c r="E25" s="13">
         <f>E13</f>
         <v>1.8933800000000001E-2</v>
       </c>
-      <c r="F25" s="11">
-        <f>MIN(E25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="F25" s="10">
+        <f t="shared" si="1"/>
         <v>92775.62</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <f>G13</f>
         <v>2.78546E-2</v>
       </c>
-      <c r="H25" s="11">
-        <f>MIN(G25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="H25" s="10">
+        <f t="shared" si="2"/>
         <v>136487.54</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="13">
         <f>I13</f>
         <v>3.6866999999999997E-2</v>
       </c>
-      <c r="J25" s="11">
-        <f>MIN(I25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="J25" s="10">
+        <f t="shared" si="3"/>
         <v>180648.3</v>
       </c>
-      <c r="K25" s="14">
+      <c r="K25" s="13">
         <f>K13</f>
         <v>4.64882E-2</v>
       </c>
-      <c r="L25" s="11">
-        <f>MIN(K25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="L25" s="10">
+        <f t="shared" si="4"/>
         <v>227792.18000000002</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="13">
         <f>M13</f>
         <v>5.6155700000000003E-2</v>
       </c>
-      <c r="N25" s="11">
-        <f>MIN(M25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="N25" s="10">
+        <f t="shared" si="5"/>
         <v>245000</v>
       </c>
-      <c r="O25" s="14">
+      <c r="O25" s="13">
         <f>O13</f>
         <v>6.6235500000000003E-2</v>
       </c>
-      <c r="P25" s="11">
-        <f>MIN(O25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="P25" s="10">
+        <f t="shared" si="6"/>
         <v>245000</v>
       </c>
-      <c r="Q25" s="14">
+      <c r="Q25" s="13">
         <f>Q13</f>
         <v>7.5047100000000005E-2</v>
       </c>
-      <c r="R25" s="11">
-        <f>MIN(Q25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="R25" s="10">
+        <f t="shared" si="7"/>
         <v>245000</v>
       </c>
-      <c r="S25" s="14">
+      <c r="S25" s="13">
         <f>S13</f>
         <v>8.1780599999999995E-2</v>
       </c>
-      <c r="T25" s="11">
-        <f>MIN(S25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="T25" s="10">
+        <f t="shared" si="8"/>
         <v>245000</v>
       </c>
-      <c r="U25" s="14">
+      <c r="U25" s="13">
         <f>U13</f>
         <v>9.4609700000000005E-2</v>
       </c>
-      <c r="V25" s="11">
-        <f>MIN(U25,0.05)*$B$2*($D$2*$F$2/2*2/15)*B25</f>
+      <c r="V25" s="10">
+        <f t="shared" si="9"/>
         <v>245000</v>
       </c>
     </row>
@@ -15292,84 +16023,84 @@
         <f>B12</f>
         <v>16.329999999999998</v>
       </c>
-      <c r="C26" s="14">
+      <c r="C26" s="13">
         <f>C12</f>
         <v>1.074E-2</v>
       </c>
-      <c r="D26" s="11">
-        <f>MIN(C26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="D26" s="10">
+        <f t="shared" si="0"/>
         <v>61384.469999999987</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="13">
         <f>E12</f>
         <v>2.1542800000000001E-2</v>
       </c>
-      <c r="F26" s="11">
-        <f>MIN(E26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="F26" s="10">
+        <f t="shared" si="1"/>
         <v>123127.87339999998</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <f>G12</f>
         <v>3.2480000000000002E-2</v>
       </c>
-      <c r="H26" s="11">
-        <f>MIN(G26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="H26" s="10">
+        <f t="shared" si="2"/>
         <v>185639.43999999997</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="13">
         <f>I12</f>
         <v>4.3039800000000003E-2</v>
       </c>
-      <c r="J26" s="11">
-        <f>MIN(I26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="J26" s="10">
+        <f t="shared" si="3"/>
         <v>245993.97689999998</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="13">
         <f>K12</f>
         <v>5.4163799999999998E-2</v>
       </c>
-      <c r="L26" s="11">
-        <f>MIN(K26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="L26" s="10">
+        <f t="shared" si="4"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="13">
         <f>M12</f>
         <v>6.3611000000000001E-2</v>
       </c>
-      <c r="N26" s="11">
-        <f>MIN(M26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="N26" s="10">
+        <f t="shared" si="5"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="O26" s="14">
+      <c r="O26" s="13">
         <f>O12</f>
         <v>7.6282600000000006E-2</v>
       </c>
-      <c r="P26" s="11">
-        <f>MIN(O26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="P26" s="10">
+        <f t="shared" si="6"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="Q26" s="14">
+      <c r="Q26" s="13">
         <f>Q12</f>
         <v>8.5456500000000005E-2</v>
       </c>
-      <c r="R26" s="11">
-        <f>MIN(Q26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="R26" s="10">
+        <f t="shared" si="7"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="S26" s="14">
+      <c r="S26" s="13">
         <f>S12</f>
         <v>9.96755E-2</v>
       </c>
-      <c r="T26" s="11">
-        <f>MIN(S26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="T26" s="10">
+        <f t="shared" si="8"/>
         <v>285774.99999999994</v>
       </c>
-      <c r="U26" s="14">
+      <c r="U26" s="13">
         <f>U12</f>
         <v>0.10568130000000001</v>
       </c>
-      <c r="V26" s="11">
-        <f>MIN(U26,0.05)*$B$2*($D$2*$F$2/2*2/15)*B26</f>
+      <c r="V26" s="10">
+        <f t="shared" si="9"/>
         <v>285774.99999999994</v>
       </c>
     </row>
@@ -15378,51 +16109,51 @@
         <f>B11</f>
         <v>0</v>
       </c>
-      <c r="D27" s="11">
-        <f>MIN(C27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="11">
-        <f>MIN(E27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="11">
-        <f>MIN(G27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="D27" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I27" s="4"/>
-      <c r="J27" s="11">
-        <f>MIN(I27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="J27" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K27" s="4"/>
-      <c r="L27" s="11">
-        <f>MIN(K27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="L27" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M27" s="4"/>
-      <c r="N27" s="11">
-        <f>MIN(M27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="N27" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="11">
-        <f>MIN(O27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="P27" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q27" s="4"/>
-      <c r="R27" s="11">
-        <f>MIN(Q27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="R27" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S27" s="4"/>
-      <c r="T27" s="11">
-        <f>MIN(S27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="T27" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U27" s="4"/>
-      <c r="V27" s="11">
-        <f>MIN(U27,0.05)*$B$2*($D$2*$F$2/2*2/15)*B27</f>
+      <c r="V27" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15431,51 +16162,51 @@
         <f>B10</f>
         <v>0</v>
       </c>
-      <c r="D28" s="11">
-        <f>MIN(C28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
-        <v>0</v>
-      </c>
-      <c r="F28" s="11">
-        <f>MIN(E28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="11">
-        <f>MIN(G28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="D28" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I28" s="4"/>
-      <c r="J28" s="11">
-        <f>MIN(I28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="J28" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="11">
-        <f>MIN(K28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="L28" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M28" s="4"/>
-      <c r="N28" s="11">
-        <f>MIN(M28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="N28" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="11">
-        <f>MIN(O28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="P28" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q28" s="4"/>
-      <c r="R28" s="11">
-        <f>MIN(Q28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="R28" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S28" s="4"/>
-      <c r="T28" s="11">
-        <f>MIN(S28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="T28" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U28" s="4"/>
-      <c r="V28" s="11">
-        <f>MIN(U28,0.05)*$B$2*($D$2*$F$2/2*2/15)*B28</f>
+      <c r="V28" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -15484,221 +16215,221 @@
         <f>B9</f>
         <v>0</v>
       </c>
-      <c r="D29" s="11">
-        <f>MIN(C29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
-        <v>0</v>
-      </c>
-      <c r="F29" s="11">
-        <f>MIN(E29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="11">
-        <f>MIN(G29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="D29" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I29" s="4"/>
-      <c r="J29" s="11">
-        <f>MIN(I29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="J29" s="10">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K29" s="4"/>
-      <c r="L29" s="11">
-        <f>MIN(K29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="L29" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="M29" s="4"/>
-      <c r="N29" s="11">
-        <f>MIN(M29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="N29" s="10">
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="P29" s="11">
-        <f>MIN(O29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="P29" s="10">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q29" s="4"/>
-      <c r="R29" s="11">
-        <f>MIN(Q29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="R29" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S29" s="4"/>
-      <c r="T29" s="11">
-        <f>MIN(S29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="T29" s="10">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U29" s="4"/>
-      <c r="V29" s="11">
-        <f>MIN(U29,0.05)*$B$2*($D$2*$F$2/2*2/15)*B29</f>
+      <c r="V29" s="10">
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="19" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <f>SUM(D9:D29)</f>
         <v>354622.29599999997</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <f>SUM(F9:F29)</f>
         <v>709021.62379999994</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="10">
         <f>SUM(H9:H29)</f>
         <v>1065347.2326</v>
       </c>
       <c r="I30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="10">
         <f>SUM(J9:J29)</f>
         <v>1405397.4661999999</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="L30" s="11">
+      <c r="L30" s="10">
         <f>SUM(L9:L29)</f>
         <v>1731124.1248000001</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="10">
         <f>SUM(N9:N29)</f>
         <v>1894712.19</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="10">
         <f>SUM(P9:P29)</f>
         <v>2004460.3193999999</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R30" s="11">
+      <c r="R30" s="10">
         <f>SUM(R9:R29)</f>
         <v>2080083.9948</v>
       </c>
       <c r="S30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="T30" s="11">
+      <c r="T30" s="10">
         <f>SUM(T9:T29)</f>
         <v>2119051.1356000002</v>
       </c>
       <c r="U30" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="V30" s="11">
+      <c r="V30" s="10">
         <f>SUM(V9:V29)</f>
         <v>2152253.3857999998</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B31" s="16"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <f>4*D30/$J$2</f>
         <v>4728.2972799999998</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <f>4*F30/$J$2</f>
         <v>9453.621650666666</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="10">
         <f>4*H30/$J$2</f>
         <v>14204.629768000001</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="10">
         <f>4*J30/$J$2</f>
         <v>18738.632882666665</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L31" s="10">
         <f>4*L30/$J$2</f>
         <v>23081.654997333335</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N31" s="10">
         <f>4*N30/$J$2</f>
         <v>25262.8292</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="10">
         <f>4*P30/$J$2</f>
         <v>26726.137591999999</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R31" s="10">
         <f>4*R30/$J$2</f>
         <v>27734.453264</v>
       </c>
       <c r="S31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T31" s="10">
         <f>4*T30/$J$2</f>
         <v>28254.015141333337</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="V31" s="11">
+      <c r="V31" s="10">
         <f>4*V30/$J$2</f>
         <v>28696.711810666664</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="D32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="H32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="D32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="H32" s="10"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="11"/>
+      <c r="J32" s="10"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="11"/>
+      <c r="L32" s="10"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="11"/>
+      <c r="N32" s="10"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="11"/>
+      <c r="P32" s="10"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="11"/>
+      <c r="R32" s="10"/>
       <c r="S32" s="4"/>
-      <c r="T32" s="11"/>
+      <c r="T32" s="10"/>
       <c r="U32" s="4"/>
-      <c r="V32" s="11"/>
+      <c r="V32" s="10"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
@@ -15766,54 +16497,54 @@
       <c r="A34">
         <v>10</v>
       </c>
-      <c r="C34" s="14"/>
-      <c r="D34" s="11">
-        <f>C34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="E34" s="14"/>
-      <c r="F34" s="11">
-        <f>E34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="11">
-        <f>G34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="14"/>
-      <c r="J34" s="11">
-        <f>I34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="11">
-        <f>K34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="14"/>
-      <c r="N34" s="11">
-        <f>M34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="O34" s="14"/>
-      <c r="P34" s="11">
-        <f>O34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="14"/>
-      <c r="R34" s="11">
-        <f>Q34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="14"/>
-      <c r="T34" s="11">
-        <f>S34*($D$2*$F$2/2*2/15)*B34</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="14"/>
-      <c r="V34" s="11">
-        <f>U34*($D$2*$F$2/2*2/15)*B34</f>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10">
+        <f t="shared" ref="D34:D54" si="10">C34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="13"/>
+      <c r="F34" s="10">
+        <f t="shared" ref="F34:F54" si="11">E34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H54" si="12">G34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="13"/>
+      <c r="J34" s="10">
+        <f t="shared" ref="J34:J54" si="13">I34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13"/>
+      <c r="L34" s="10">
+        <f t="shared" ref="L34:L54" si="14">K34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="13"/>
+      <c r="N34" s="10">
+        <f t="shared" ref="N34:N54" si="15">M34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="13"/>
+      <c r="P34" s="10">
+        <f t="shared" ref="P34:P54" si="16">O34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="10">
+        <f t="shared" ref="R34:R54" si="17">Q34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13"/>
+      <c r="T34" s="10">
+        <f t="shared" ref="T34:T54" si="18">S34*($D$2*$F$2/2*2/15)*B34</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="13"/>
+      <c r="V34" s="10">
+        <f t="shared" ref="V34:V54" si="19">U34*($D$2*$F$2/2*2/15)*B34</f>
         <v>0</v>
       </c>
     </row>
@@ -15821,54 +16552,54 @@
       <c r="A35">
         <v>9</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="11">
-        <f>C35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="E35" s="14"/>
-      <c r="F35" s="11">
-        <f>E35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="11">
-        <f>G35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="14"/>
-      <c r="J35" s="11">
-        <f>I35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="11">
-        <f>K35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="14"/>
-      <c r="N35" s="11">
-        <f>M35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="O35" s="14"/>
-      <c r="P35" s="11">
-        <f>O35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="14"/>
-      <c r="R35" s="11">
-        <f>Q35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="14"/>
-      <c r="T35" s="11">
-        <f>S35*($D$2*$F$2/2*2/15)*B35</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="14"/>
-      <c r="V35" s="11">
-        <f>U35*($D$2*$F$2/2*2/15)*B35</f>
+      <c r="C35" s="13"/>
+      <c r="D35" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="F35" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="13"/>
+      <c r="H35" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13"/>
+      <c r="J35" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M35" s="13"/>
+      <c r="N35" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13"/>
+      <c r="T35" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U35" s="13"/>
+      <c r="V35" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15876,54 +16607,54 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="11">
-        <f>C36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="11">
-        <f>E36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="11">
-        <f>G36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="14"/>
-      <c r="J36" s="11">
-        <f>I36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="K36" s="14"/>
-      <c r="L36" s="11">
-        <f>K36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="14"/>
-      <c r="N36" s="11">
-        <f>M36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="O36" s="14"/>
-      <c r="P36" s="11">
-        <f>O36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="11">
-        <f>Q36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="14"/>
-      <c r="T36" s="11">
-        <f>S36*($D$2*$F$2/2*2/15)*B36</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="14"/>
-      <c r="V36" s="11">
-        <f>U36*($D$2*$F$2/2*2/15)*B36</f>
+      <c r="C36" s="13"/>
+      <c r="D36" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="F36" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="13"/>
+      <c r="H36" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13"/>
+      <c r="J36" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M36" s="13"/>
+      <c r="N36" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13"/>
+      <c r="T36" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U36" s="13"/>
+      <c r="V36" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -15934,85 +16665,85 @@
       <c r="B37" s="4">
         <v>16.329999999999998</v>
       </c>
-      <c r="C37" s="14">
-        <f>MIN(C12,0.05)*$B$2</f>
-        <v>53.699999999999996</v>
-      </c>
-      <c r="D37" s="11">
-        <f>C37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>61384.469999999987</v>
-      </c>
-      <c r="E37" s="14">
-        <f>MIN(E12,0.05)*$B$2</f>
-        <v>107.714</v>
-      </c>
-      <c r="F37" s="11">
-        <f>E37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>123127.87339999998</v>
-      </c>
-      <c r="G37" s="14">
-        <f>MIN(G12,0.05)*$B$2</f>
-        <v>162.4</v>
-      </c>
-      <c r="H37" s="11">
-        <f>G37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>185639.43999999997</v>
-      </c>
-      <c r="I37" s="14">
-        <f>MIN(I12,0.05)*$B$2</f>
-        <v>215.19900000000001</v>
-      </c>
-      <c r="J37" s="11">
-        <f>I37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>245993.97689999998</v>
-      </c>
-      <c r="K37" s="14">
-        <f>MIN(K12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="L37" s="11">
-        <f>K37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="M37" s="14">
-        <f>MIN(M12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="N37" s="11">
-        <f>M37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="O37" s="14">
-        <f>MIN(O12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="P37" s="11">
-        <f>O37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="Q37" s="14">
-        <f>MIN(Q12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="R37" s="11">
-        <f>Q37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="S37" s="14">
-        <f>MIN(S12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="T37" s="11">
-        <f>S37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="U37" s="14">
-        <f>MIN(U12,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="V37" s="11">
-        <f>U37*($D$2*$F$2/2*2/15)*B37</f>
-        <v>285774.99999999994</v>
+      <c r="C37" s="13">
+        <f t="shared" ref="C37:C43" si="20">-MIN(C12,0.05)*$B$2</f>
+        <v>-53.699999999999996</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="10"/>
+        <v>-61384.469999999987</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" ref="E37:E43" si="21">-MIN(E12,0.05)*$B$2</f>
+        <v>-107.714</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="11"/>
+        <v>-123127.87339999998</v>
+      </c>
+      <c r="G37" s="13">
+        <f t="shared" ref="G37:G43" si="22">-MIN(G12,0.05)*$B$2</f>
+        <v>-162.4</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="12"/>
+        <v>-185639.43999999997</v>
+      </c>
+      <c r="I37" s="13">
+        <f t="shared" ref="I37:I43" si="23">-MIN(I12,0.05)*$B$2</f>
+        <v>-215.19900000000001</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="13"/>
+        <v>-245993.97689999998</v>
+      </c>
+      <c r="K37" s="13">
+        <f t="shared" ref="K37:K43" si="24">-MIN(K12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="14"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="M37" s="13">
+        <f t="shared" ref="M37:M43" si="25">-MIN(M12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="15"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="O37" s="13">
+        <f t="shared" ref="O37:O43" si="26">-MIN(O12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="P37" s="10">
+        <f t="shared" si="16"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="Q37" s="13">
+        <f t="shared" ref="Q37:Q43" si="27">-MIN(Q12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="R37" s="10">
+        <f t="shared" si="17"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="S37" s="13">
+        <f t="shared" ref="S37:S43" si="28">-MIN(S12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="T37" s="10">
+        <f t="shared" si="18"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="U37" s="13">
+        <f t="shared" ref="U37:U43" si="29">-MIN(U12,0.05)*$B$2</f>
+        <v>-250</v>
+      </c>
+      <c r="V37" s="10">
+        <f t="shared" si="19"/>
+        <v>-285774.99999999994</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
@@ -16022,85 +16753,85 @@
       <c r="B38" s="4">
         <v>14</v>
       </c>
-      <c r="C38" s="14">
-        <f>MIN(C13,0.05)*$B$2</f>
-        <v>47.265000000000001</v>
-      </c>
-      <c r="D38" s="11">
-        <f>C38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>46319.700000000004</v>
-      </c>
-      <c r="E38" s="14">
-        <f>MIN(E13,0.05)*$B$2</f>
-        <v>94.668999999999997</v>
-      </c>
-      <c r="F38" s="11">
-        <f>E38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>92775.62</v>
-      </c>
-      <c r="G38" s="14">
-        <f>MIN(G13,0.05)*$B$2</f>
-        <v>139.273</v>
-      </c>
-      <c r="H38" s="11">
-        <f>G38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>136487.54</v>
-      </c>
-      <c r="I38" s="14">
-        <f>MIN(I13,0.05)*$B$2</f>
-        <v>184.33499999999998</v>
-      </c>
-      <c r="J38" s="11">
-        <f>I38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>180648.3</v>
-      </c>
-      <c r="K38" s="14">
-        <f>MIN(K13,0.05)*$B$2</f>
-        <v>232.441</v>
-      </c>
-      <c r="L38" s="11">
-        <f>K38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>227792.18000000002</v>
-      </c>
-      <c r="M38" s="14">
-        <f>MIN(M13,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="N38" s="11">
-        <f>M38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>245000</v>
-      </c>
-      <c r="O38" s="14">
-        <f>MIN(O13,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="P38" s="11">
-        <f>O38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>245000</v>
-      </c>
-      <c r="Q38" s="14">
-        <f>MIN(Q13,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="R38" s="11">
-        <f>Q38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>245000</v>
-      </c>
-      <c r="S38" s="14">
-        <f>MIN(S13,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="T38" s="11">
-        <f>S38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>245000</v>
-      </c>
-      <c r="U38" s="14">
-        <f>MIN(U13,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="V38" s="11">
-        <f>U38*($D$2*$F$2/2*2/15)*B38</f>
-        <v>245000</v>
+      <c r="C38" s="13">
+        <f t="shared" si="20"/>
+        <v>-47.265000000000001</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="10"/>
+        <v>-46319.700000000004</v>
+      </c>
+      <c r="E38" s="13">
+        <f t="shared" si="21"/>
+        <v>-94.668999999999997</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="11"/>
+        <v>-92775.62</v>
+      </c>
+      <c r="G38" s="13">
+        <f t="shared" si="22"/>
+        <v>-139.273</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="12"/>
+        <v>-136487.54</v>
+      </c>
+      <c r="I38" s="13">
+        <f t="shared" si="23"/>
+        <v>-184.33499999999998</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="13"/>
+        <v>-180648.3</v>
+      </c>
+      <c r="K38" s="13">
+        <f t="shared" si="24"/>
+        <v>-232.441</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="14"/>
+        <v>-227792.18000000002</v>
+      </c>
+      <c r="M38" s="13">
+        <f t="shared" si="25"/>
+        <v>-250</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="15"/>
+        <v>-245000</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" si="26"/>
+        <v>-250</v>
+      </c>
+      <c r="P38" s="10">
+        <f t="shared" si="16"/>
+        <v>-245000</v>
+      </c>
+      <c r="Q38" s="13">
+        <f t="shared" si="27"/>
+        <v>-250</v>
+      </c>
+      <c r="R38" s="10">
+        <f t="shared" si="17"/>
+        <v>-245000</v>
+      </c>
+      <c r="S38" s="13">
+        <f t="shared" si="28"/>
+        <v>-250</v>
+      </c>
+      <c r="T38" s="10">
+        <f t="shared" si="18"/>
+        <v>-245000</v>
+      </c>
+      <c r="U38" s="13">
+        <f t="shared" si="29"/>
+        <v>-250</v>
+      </c>
+      <c r="V38" s="10">
+        <f t="shared" si="19"/>
+        <v>-245000</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
@@ -16110,85 +16841,85 @@
       <c r="B39" s="4">
         <v>11.67</v>
       </c>
-      <c r="C39" s="14">
-        <f>MIN(C14,0.05)*$B$2</f>
-        <v>38.998000000000005</v>
-      </c>
-      <c r="D39" s="11">
-        <f>C39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>31857.466200000003</v>
-      </c>
-      <c r="E39" s="14">
-        <f>MIN(E14,0.05)*$B$2</f>
-        <v>76.385000000000005</v>
-      </c>
-      <c r="F39" s="11">
-        <f>E39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>62398.906500000005</v>
-      </c>
-      <c r="G39" s="14">
-        <f>MIN(G14,0.05)*$B$2</f>
-        <v>116.9045</v>
-      </c>
-      <c r="H39" s="11">
-        <f>G39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>95499.286049999995</v>
-      </c>
-      <c r="I39" s="14">
-        <f>MIN(I14,0.05)*$B$2</f>
-        <v>154.07749999999999</v>
-      </c>
-      <c r="J39" s="11">
-        <f>I39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>125865.90974999999</v>
-      </c>
-      <c r="K39" s="14">
-        <f>MIN(K14,0.05)*$B$2</f>
-        <v>194.9975</v>
-      </c>
-      <c r="L39" s="11">
-        <f>K39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>159293.45775</v>
-      </c>
-      <c r="M39" s="14">
-        <f>MIN(M14,0.05)*$B$2</f>
-        <v>230.321</v>
-      </c>
-      <c r="N39" s="11">
-        <f>M39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>188149.2249</v>
-      </c>
-      <c r="O39" s="14">
-        <f>MIN(O14,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="P39" s="11">
-        <f>O39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>204225</v>
-      </c>
-      <c r="Q39" s="14">
-        <f>MIN(Q14,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="R39" s="11">
-        <f>Q39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>204225</v>
-      </c>
-      <c r="S39" s="14">
-        <f>MIN(S14,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="T39" s="11">
-        <f>S39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>204225</v>
-      </c>
-      <c r="U39" s="14">
-        <f>MIN(U14,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="V39" s="11">
-        <f>U39*($D$2*$F$2/2*2/15)*B39</f>
-        <v>204225</v>
+      <c r="C39" s="13">
+        <f t="shared" si="20"/>
+        <v>-38.998000000000005</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="10"/>
+        <v>-31857.466200000003</v>
+      </c>
+      <c r="E39" s="13">
+        <f t="shared" si="21"/>
+        <v>-76.385000000000005</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="11"/>
+        <v>-62398.906500000005</v>
+      </c>
+      <c r="G39" s="13">
+        <f t="shared" si="22"/>
+        <v>-116.9045</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="12"/>
+        <v>-95499.286049999995</v>
+      </c>
+      <c r="I39" s="13">
+        <f t="shared" si="23"/>
+        <v>-154.07749999999999</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="13"/>
+        <v>-125865.90974999999</v>
+      </c>
+      <c r="K39" s="13">
+        <f t="shared" si="24"/>
+        <v>-194.9975</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="14"/>
+        <v>-159293.45775</v>
+      </c>
+      <c r="M39" s="13">
+        <f t="shared" si="25"/>
+        <v>-230.321</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="15"/>
+        <v>-188149.2249</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="26"/>
+        <v>-250</v>
+      </c>
+      <c r="P39" s="10">
+        <f t="shared" si="16"/>
+        <v>-204225</v>
+      </c>
+      <c r="Q39" s="13">
+        <f t="shared" si="27"/>
+        <v>-250</v>
+      </c>
+      <c r="R39" s="10">
+        <f t="shared" si="17"/>
+        <v>-204225</v>
+      </c>
+      <c r="S39" s="13">
+        <f t="shared" si="28"/>
+        <v>-250</v>
+      </c>
+      <c r="T39" s="10">
+        <f t="shared" si="18"/>
+        <v>-204225</v>
+      </c>
+      <c r="U39" s="13">
+        <f t="shared" si="29"/>
+        <v>-250</v>
+      </c>
+      <c r="V39" s="10">
+        <f t="shared" si="19"/>
+        <v>-204225</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
@@ -16198,85 +16929,85 @@
       <c r="B40" s="4">
         <v>9.33</v>
       </c>
-      <c r="C40" s="14">
-        <f>MIN(C15,0.05)*$B$2</f>
-        <v>31.041499999999999</v>
-      </c>
-      <c r="D40" s="11">
-        <f>C40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>20273.203649999999</v>
-      </c>
-      <c r="E40" s="14">
-        <f>MIN(E15,0.05)*$B$2</f>
-        <v>63.021500000000003</v>
-      </c>
-      <c r="F40" s="11">
-        <f>E40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>41159.341650000002</v>
-      </c>
-      <c r="G40" s="14">
-        <f>MIN(G15,0.05)*$B$2</f>
-        <v>94.831499999999991</v>
-      </c>
-      <c r="H40" s="11">
-        <f>G40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>61934.452649999992</v>
-      </c>
-      <c r="I40" s="14">
-        <f>MIN(I15,0.05)*$B$2</f>
-        <v>121.7795</v>
-      </c>
-      <c r="J40" s="11">
-        <f>I40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>79534.191449999998</v>
-      </c>
-      <c r="K40" s="14">
-        <f>MIN(K15,0.05)*$B$2</f>
-        <v>157.59649999999999</v>
-      </c>
-      <c r="L40" s="11">
-        <f>K40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>102926.27415</v>
-      </c>
-      <c r="M40" s="14">
-        <f>MIN(M15,0.05)*$B$2</f>
-        <v>188.11799999999999</v>
-      </c>
-      <c r="N40" s="11">
-        <f>M40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>122859.8658</v>
-      </c>
-      <c r="O40" s="14">
-        <f>MIN(O15,0.05)*$B$2</f>
-        <v>217.98399999999998</v>
-      </c>
-      <c r="P40" s="11">
-        <f>O40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>142365.3504</v>
-      </c>
-      <c r="Q40" s="14">
-        <f>MIN(Q15,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="R40" s="11">
-        <f>Q40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>163275</v>
-      </c>
-      <c r="S40" s="14">
-        <f>MIN(S15,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="T40" s="11">
-        <f>S40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>163275</v>
-      </c>
-      <c r="U40" s="14">
-        <f>MIN(U15,0.05)*$B$2</f>
-        <v>250</v>
-      </c>
-      <c r="V40" s="11">
-        <f>U40*($D$2*$F$2/2*2/15)*B40</f>
-        <v>163275</v>
+      <c r="C40" s="13">
+        <f t="shared" si="20"/>
+        <v>-31.041499999999999</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="10"/>
+        <v>-20273.203649999999</v>
+      </c>
+      <c r="E40" s="13">
+        <f t="shared" si="21"/>
+        <v>-63.021500000000003</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="11"/>
+        <v>-41159.341650000002</v>
+      </c>
+      <c r="G40" s="13">
+        <f t="shared" si="22"/>
+        <v>-94.831499999999991</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="12"/>
+        <v>-61934.452649999992</v>
+      </c>
+      <c r="I40" s="13">
+        <f t="shared" si="23"/>
+        <v>-121.7795</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="13"/>
+        <v>-79534.191449999998</v>
+      </c>
+      <c r="K40" s="13">
+        <f t="shared" si="24"/>
+        <v>-157.59649999999999</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="14"/>
+        <v>-102926.27415</v>
+      </c>
+      <c r="M40" s="13">
+        <f t="shared" si="25"/>
+        <v>-188.11799999999999</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="15"/>
+        <v>-122859.8658</v>
+      </c>
+      <c r="O40" s="13">
+        <f t="shared" si="26"/>
+        <v>-217.98399999999998</v>
+      </c>
+      <c r="P40" s="10">
+        <f t="shared" si="16"/>
+        <v>-142365.3504</v>
+      </c>
+      <c r="Q40" s="13">
+        <f t="shared" si="27"/>
+        <v>-250</v>
+      </c>
+      <c r="R40" s="10">
+        <f t="shared" si="17"/>
+        <v>-163275</v>
+      </c>
+      <c r="S40" s="13">
+        <f t="shared" si="28"/>
+        <v>-250</v>
+      </c>
+      <c r="T40" s="10">
+        <f t="shared" si="18"/>
+        <v>-163275</v>
+      </c>
+      <c r="U40" s="13">
+        <f t="shared" si="29"/>
+        <v>-250</v>
+      </c>
+      <c r="V40" s="10">
+        <f t="shared" si="19"/>
+        <v>-163275</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.3">
@@ -16286,85 +17017,85 @@
       <c r="B41" s="4">
         <v>7</v>
       </c>
-      <c r="C41" s="14">
-        <f>MIN(C16,0.05)*$B$2</f>
-        <v>22.843</v>
-      </c>
-      <c r="D41" s="11">
-        <f>C41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>11193.07</v>
-      </c>
-      <c r="E41" s="14">
-        <f>MIN(E16,0.05)*$B$2</f>
-        <v>45.718499999999999</v>
-      </c>
-      <c r="F41" s="11">
-        <f>E41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>22402.065000000002</v>
-      </c>
-      <c r="G41" s="14">
-        <f>MIN(G16,0.05)*$B$2</f>
-        <v>68.983999999999995</v>
-      </c>
-      <c r="H41" s="11">
-        <f>G41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>33802.159999999996</v>
-      </c>
-      <c r="I41" s="14">
-        <f>MIN(I16,0.05)*$B$2</f>
-        <v>93.739500000000007</v>
-      </c>
-      <c r="J41" s="11">
-        <f>I41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>45932.355000000003</v>
-      </c>
-      <c r="K41" s="14">
-        <f>MIN(K16,0.05)*$B$2</f>
-        <v>117.5945</v>
-      </c>
-      <c r="L41" s="11">
-        <f>K41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>57621.305</v>
-      </c>
-      <c r="M41" s="14">
-        <f>MIN(M16,0.05)*$B$2</f>
-        <v>137.66300000000001</v>
-      </c>
-      <c r="N41" s="11">
-        <f>M41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>67454.87</v>
-      </c>
-      <c r="O41" s="14">
-        <f>MIN(O16,0.05)*$B$2</f>
-        <v>164.2165</v>
-      </c>
-      <c r="P41" s="11">
-        <f>O41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>80466.084999999992</v>
-      </c>
-      <c r="Q41" s="14">
-        <f>MIN(Q16,0.05)*$B$2</f>
-        <v>186.39</v>
-      </c>
-      <c r="R41" s="11">
-        <f>Q41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>91331.099999999991</v>
-      </c>
-      <c r="S41" s="14">
-        <f>MIN(S16,0.05)*$B$2</f>
-        <v>211.1285</v>
-      </c>
-      <c r="T41" s="11">
-        <f>S41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>103452.96500000001</v>
-      </c>
-      <c r="U41" s="14">
-        <f>MIN(U16,0.05)*$B$2</f>
-        <v>234.637</v>
-      </c>
-      <c r="V41" s="11">
-        <f>U41*($D$2*$F$2/2*2/15)*B41</f>
-        <v>114972.13</v>
+      <c r="C41" s="13">
+        <f t="shared" si="20"/>
+        <v>-22.843</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="10"/>
+        <v>-11193.07</v>
+      </c>
+      <c r="E41" s="13">
+        <f t="shared" si="21"/>
+        <v>-45.718499999999999</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="11"/>
+        <v>-22402.065000000002</v>
+      </c>
+      <c r="G41" s="13">
+        <f t="shared" si="22"/>
+        <v>-68.983999999999995</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="12"/>
+        <v>-33802.159999999996</v>
+      </c>
+      <c r="I41" s="13">
+        <f t="shared" si="23"/>
+        <v>-93.739500000000007</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="13"/>
+        <v>-45932.355000000003</v>
+      </c>
+      <c r="K41" s="13">
+        <f t="shared" si="24"/>
+        <v>-117.5945</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="14"/>
+        <v>-57621.305</v>
+      </c>
+      <c r="M41" s="13">
+        <f t="shared" si="25"/>
+        <v>-137.66300000000001</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="15"/>
+        <v>-67454.87</v>
+      </c>
+      <c r="O41" s="13">
+        <f t="shared" si="26"/>
+        <v>-164.2165</v>
+      </c>
+      <c r="P41" s="10">
+        <f t="shared" si="16"/>
+        <v>-80466.084999999992</v>
+      </c>
+      <c r="Q41" s="13">
+        <f t="shared" si="27"/>
+        <v>-186.39</v>
+      </c>
+      <c r="R41" s="10">
+        <f t="shared" si="17"/>
+        <v>-91331.099999999991</v>
+      </c>
+      <c r="S41" s="13">
+        <f t="shared" si="28"/>
+        <v>-211.1285</v>
+      </c>
+      <c r="T41" s="10">
+        <f t="shared" si="18"/>
+        <v>-103452.96500000001</v>
+      </c>
+      <c r="U41" s="13">
+        <f t="shared" si="29"/>
+        <v>-234.637</v>
+      </c>
+      <c r="V41" s="10">
+        <f t="shared" si="19"/>
+        <v>-114972.13</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.3">
@@ -16374,85 +17105,85 @@
       <c r="B42" s="4">
         <v>4.67</v>
       </c>
-      <c r="C42" s="14">
-        <f>MIN(C17,0.05)*$B$2</f>
-        <v>15.456999999999999</v>
-      </c>
-      <c r="D42" s="11">
-        <f>C42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>5052.8932999999997</v>
-      </c>
-      <c r="E42" s="14">
-        <f>MIN(E17,0.05)*$B$2</f>
-        <v>30.97</v>
-      </c>
-      <c r="F42" s="11">
-        <f>E42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>10124.093000000001</v>
-      </c>
-      <c r="G42" s="14">
-        <f>MIN(G17,0.05)*$B$2</f>
-        <v>47.4495</v>
-      </c>
-      <c r="H42" s="11">
-        <f>G42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>15511.241550000001</v>
-      </c>
-      <c r="I42" s="14">
-        <f>MIN(I17,0.05)*$B$2</f>
-        <v>60.459499999999998</v>
-      </c>
-      <c r="J42" s="11">
-        <f>I42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>19764.21055</v>
-      </c>
-      <c r="K42" s="14">
-        <f>MIN(K17,0.05)*$B$2</f>
-        <v>79.08250000000001</v>
-      </c>
-      <c r="L42" s="11">
-        <f>K42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>25852.06925</v>
-      </c>
-      <c r="M42" s="14">
-        <f>MIN(M17,0.05)*$B$2</f>
-        <v>93.216999999999999</v>
-      </c>
-      <c r="N42" s="11">
-        <f>M42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>30472.637299999999</v>
-      </c>
-      <c r="O42" s="14">
-        <f>MIN(O17,0.05)*$B$2</f>
-        <v>108.88250000000001</v>
-      </c>
-      <c r="P42" s="11">
-        <f>O42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>35593.689250000003</v>
-      </c>
-      <c r="Q42" s="14">
-        <f>MIN(Q17,0.05)*$B$2</f>
-        <v>124.182</v>
-      </c>
-      <c r="R42" s="11">
-        <f>Q42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>40595.095799999996</v>
-      </c>
-      <c r="S42" s="14">
-        <f>MIN(S17,0.05)*$B$2</f>
-        <v>142.50649999999999</v>
-      </c>
-      <c r="T42" s="11">
-        <f>S42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>46585.37485</v>
-      </c>
-      <c r="U42" s="14">
-        <f>MIN(U17,0.05)*$B$2</f>
-        <v>153.93600000000001</v>
-      </c>
-      <c r="V42" s="11">
-        <f>U42*($D$2*$F$2/2*2/15)*B42</f>
-        <v>50321.678400000004</v>
+      <c r="C42" s="13">
+        <f t="shared" si="20"/>
+        <v>-15.456999999999999</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="10"/>
+        <v>-5052.8932999999997</v>
+      </c>
+      <c r="E42" s="13">
+        <f t="shared" si="21"/>
+        <v>-30.97</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="11"/>
+        <v>-10124.093000000001</v>
+      </c>
+      <c r="G42" s="13">
+        <f t="shared" si="22"/>
+        <v>-47.4495</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="12"/>
+        <v>-15511.241550000001</v>
+      </c>
+      <c r="I42" s="13">
+        <f t="shared" si="23"/>
+        <v>-60.459499999999998</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="13"/>
+        <v>-19764.21055</v>
+      </c>
+      <c r="K42" s="13">
+        <f t="shared" si="24"/>
+        <v>-79.08250000000001</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="14"/>
+        <v>-25852.06925</v>
+      </c>
+      <c r="M42" s="13">
+        <f t="shared" si="25"/>
+        <v>-93.216999999999999</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="15"/>
+        <v>-30472.637299999999</v>
+      </c>
+      <c r="O42" s="13">
+        <f t="shared" si="26"/>
+        <v>-108.88250000000001</v>
+      </c>
+      <c r="P42" s="10">
+        <f t="shared" si="16"/>
+        <v>-35593.689250000003</v>
+      </c>
+      <c r="Q42" s="13">
+        <f t="shared" si="27"/>
+        <v>-124.182</v>
+      </c>
+      <c r="R42" s="10">
+        <f t="shared" si="17"/>
+        <v>-40595.095799999996</v>
+      </c>
+      <c r="S42" s="13">
+        <f t="shared" si="28"/>
+        <v>-142.50649999999999</v>
+      </c>
+      <c r="T42" s="10">
+        <f t="shared" si="18"/>
+        <v>-46585.37485</v>
+      </c>
+      <c r="U42" s="13">
+        <f t="shared" si="29"/>
+        <v>-153.93600000000001</v>
+      </c>
+      <c r="V42" s="10">
+        <f t="shared" si="19"/>
+        <v>-50321.678400000004</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.3">
@@ -16462,85 +17193,85 @@
       <c r="B43" s="4">
         <v>2.33</v>
       </c>
-      <c r="C43" s="14">
-        <f>MIN(C18,0.05)*$B$2</f>
-        <v>7.5434999999999999</v>
-      </c>
-      <c r="D43" s="11">
-        <f>C43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>1230.34485</v>
-      </c>
-      <c r="E43" s="14">
-        <f>MIN(E18,0.05)*$B$2</f>
-        <v>15.468500000000001</v>
-      </c>
-      <c r="F43" s="11">
-        <f>E43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>2522.9123500000001</v>
-      </c>
-      <c r="G43" s="14">
-        <f>MIN(G18,0.05)*$B$2</f>
-        <v>23.295500000000001</v>
-      </c>
-      <c r="H43" s="11">
-        <f>G43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>3799.4960500000002</v>
-      </c>
-      <c r="I43" s="14">
-        <f>MIN(I18,0.05)*$B$2</f>
-        <v>30.409500000000001</v>
-      </c>
-      <c r="J43" s="11">
-        <f>I43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>4959.7894500000002</v>
-      </c>
-      <c r="K43" s="14">
-        <f>MIN(K18,0.05)*$B$2</f>
-        <v>38.637500000000003</v>
-      </c>
-      <c r="L43" s="11">
-        <f>K43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>6301.7762499999999</v>
-      </c>
-      <c r="M43" s="14">
-        <f>MIN(M18,0.05)*$B$2</f>
-        <v>46.870000000000005</v>
-      </c>
-      <c r="N43" s="11">
-        <f>M43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>7644.4970000000012</v>
-      </c>
-      <c r="O43" s="14">
-        <f>MIN(O18,0.05)*$B$2</f>
-        <v>53.985500000000002</v>
-      </c>
-      <c r="P43" s="11">
-        <f>O43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>8805.0350500000004</v>
-      </c>
-      <c r="Q43" s="14">
-        <f>MIN(Q18,0.05)*$B$2</f>
-        <v>60.335999999999999</v>
-      </c>
-      <c r="R43" s="11">
-        <f>Q43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>9840.8015999999989</v>
-      </c>
-      <c r="S43" s="14">
-        <f>MIN(S18,0.05)*$B$2</f>
-        <v>68.744500000000002</v>
-      </c>
-      <c r="T43" s="11">
-        <f>S43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>11212.22795</v>
-      </c>
-      <c r="U43" s="14">
-        <f>MIN(U18,0.05)*$B$2</f>
-        <v>76.995000000000005</v>
-      </c>
-      <c r="V43" s="11">
-        <f>U43*($D$2*$F$2/2*2/15)*B43</f>
-        <v>12557.884500000002</v>
+      <c r="C43" s="13">
+        <f t="shared" si="20"/>
+        <v>-7.5434999999999999</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="10"/>
+        <v>-1230.34485</v>
+      </c>
+      <c r="E43" s="13">
+        <f t="shared" si="21"/>
+        <v>-15.468500000000001</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="11"/>
+        <v>-2522.9123500000001</v>
+      </c>
+      <c r="G43" s="13">
+        <f t="shared" si="22"/>
+        <v>-23.295500000000001</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="12"/>
+        <v>-3799.4960500000002</v>
+      </c>
+      <c r="I43" s="13">
+        <f t="shared" si="23"/>
+        <v>-30.409500000000001</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="13"/>
+        <v>-4959.7894500000002</v>
+      </c>
+      <c r="K43" s="13">
+        <f t="shared" si="24"/>
+        <v>-38.637500000000003</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="14"/>
+        <v>-6301.7762499999999</v>
+      </c>
+      <c r="M43" s="13">
+        <f t="shared" si="25"/>
+        <v>-46.870000000000005</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="15"/>
+        <v>-7644.4970000000012</v>
+      </c>
+      <c r="O43" s="13">
+        <f t="shared" si="26"/>
+        <v>-53.985500000000002</v>
+      </c>
+      <c r="P43" s="10">
+        <f t="shared" si="16"/>
+        <v>-8805.0350500000004</v>
+      </c>
+      <c r="Q43" s="13">
+        <f t="shared" si="27"/>
+        <v>-60.335999999999999</v>
+      </c>
+      <c r="R43" s="10">
+        <f t="shared" si="17"/>
+        <v>-9840.8015999999989</v>
+      </c>
+      <c r="S43" s="13">
+        <f t="shared" si="28"/>
+        <v>-68.744500000000002</v>
+      </c>
+      <c r="T43" s="10">
+        <f t="shared" si="18"/>
+        <v>-11212.22795</v>
+      </c>
+      <c r="U43" s="13">
+        <f t="shared" si="29"/>
+        <v>-76.995000000000005</v>
+      </c>
+      <c r="V43" s="10">
+        <f t="shared" si="19"/>
+        <v>-12557.884500000002</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.3">
@@ -16550,687 +17281,687 @@
       <c r="B44" s="4">
         <v>0</v>
       </c>
-      <c r="C44" s="14">
-        <f>MIN(C19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="11">
-        <f>C44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="14">
-        <f>MIN(E19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="11">
-        <f>E44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="14">
-        <f>MIN(G19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="11">
-        <f>G44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="14">
-        <f>MIN(I19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="J44" s="11">
-        <f>I44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="K44" s="14">
-        <f>MIN(K19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="L44" s="11">
-        <f>K44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="14">
-        <f>MIN(M19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="N44" s="11">
-        <f>M44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="O44" s="14">
-        <f>MIN(O19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="P44" s="11">
-        <f>O44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="14">
-        <f>MIN(Q19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="R44" s="11">
-        <f>Q44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="14">
-        <f>MIN(S19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <f>S44*($D$2*$F$2/2*2/15)*B44</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="14">
-        <f>MIN(U19,0.05)*$B$2</f>
-        <v>0</v>
-      </c>
-      <c r="V44" s="11">
-        <f>U44*($D$2*$F$2/2*2/15)*B44</f>
+      <c r="C44" s="13">
+        <f t="shared" ref="C44:C51" si="30">MIN(C19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <f t="shared" ref="E44:E51" si="31">MIN(E19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <f t="shared" ref="G44:G51" si="32">MIN(G19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f t="shared" ref="I44:I51" si="33">MIN(I19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <f t="shared" ref="K44:K51" si="34">MIN(K19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M44" s="13">
+        <f t="shared" ref="M44:M51" si="35">MIN(M19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O44" s="13">
+        <f t="shared" ref="O44:O51" si="36">MIN(O19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f t="shared" ref="Q44:Q51" si="37">MIN(Q19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
+        <f t="shared" ref="S44:S51" si="38">MIN(S19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U44" s="13">
+        <f t="shared" ref="U44:U51" si="39">MIN(U19,0.05)*$B$2</f>
+        <v>0</v>
+      </c>
+      <c r="V44" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B45" s="4">
-        <f>B43</f>
-        <v>2.33</v>
-      </c>
-      <c r="C45" s="14">
-        <f>MIN(C20,0.05)*$B$2</f>
+        <f>-B43</f>
+        <v>-2.33</v>
+      </c>
+      <c r="C45" s="13">
+        <f t="shared" si="30"/>
         <v>7.5434999999999999</v>
       </c>
-      <c r="D45" s="11">
-        <f>C45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>1230.34485</v>
-      </c>
-      <c r="E45" s="14">
-        <f>MIN(E20,0.05)*$B$2</f>
+      <c r="D45" s="10">
+        <f t="shared" si="10"/>
+        <v>-1230.34485</v>
+      </c>
+      <c r="E45" s="13">
+        <f t="shared" si="31"/>
         <v>15.468500000000001</v>
       </c>
-      <c r="F45" s="11">
-        <f>E45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>2522.9123500000001</v>
-      </c>
-      <c r="G45" s="14">
-        <f>MIN(G20,0.05)*$B$2</f>
+      <c r="F45" s="10">
+        <f t="shared" si="11"/>
+        <v>-2522.9123500000001</v>
+      </c>
+      <c r="G45" s="13">
+        <f t="shared" si="32"/>
         <v>23.295500000000001</v>
       </c>
-      <c r="H45" s="11">
-        <f>G45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>3799.4960500000002</v>
-      </c>
-      <c r="I45" s="14">
-        <f>MIN(I20,0.05)*$B$2</f>
+      <c r="H45" s="10">
+        <f t="shared" si="12"/>
+        <v>-3799.4960500000002</v>
+      </c>
+      <c r="I45" s="13">
+        <f t="shared" si="33"/>
         <v>30.409500000000001</v>
       </c>
-      <c r="J45" s="11">
-        <f>I45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>4959.7894500000002</v>
-      </c>
-      <c r="K45" s="14">
-        <f>MIN(K20,0.05)*$B$2</f>
+      <c r="J45" s="10">
+        <f t="shared" si="13"/>
+        <v>-4959.7894500000002</v>
+      </c>
+      <c r="K45" s="13">
+        <f t="shared" si="34"/>
         <v>38.637500000000003</v>
       </c>
-      <c r="L45" s="11">
-        <f>K45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>6301.7762499999999</v>
-      </c>
-      <c r="M45" s="14">
-        <f>MIN(M20,0.05)*$B$2</f>
+      <c r="L45" s="10">
+        <f t="shared" si="14"/>
+        <v>-6301.7762499999999</v>
+      </c>
+      <c r="M45" s="13">
+        <f t="shared" si="35"/>
         <v>46.870000000000005</v>
       </c>
-      <c r="N45" s="11">
-        <f>M45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>7644.4970000000012</v>
-      </c>
-      <c r="O45" s="14">
-        <f>MIN(O20,0.05)*$B$2</f>
+      <c r="N45" s="10">
+        <f t="shared" si="15"/>
+        <v>-7644.4970000000012</v>
+      </c>
+      <c r="O45" s="13">
+        <f t="shared" si="36"/>
         <v>53.985500000000002</v>
       </c>
-      <c r="P45" s="11">
-        <f>O45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>8805.0350500000004</v>
-      </c>
-      <c r="Q45" s="14">
-        <f>MIN(Q20,0.05)*$B$2</f>
+      <c r="P45" s="10">
+        <f t="shared" si="16"/>
+        <v>-8805.0350500000004</v>
+      </c>
+      <c r="Q45" s="13">
+        <f t="shared" si="37"/>
         <v>60.335999999999999</v>
       </c>
-      <c r="R45" s="11">
-        <f>Q45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>9840.8015999999989</v>
-      </c>
-      <c r="S45" s="14">
-        <f>MIN(S20,0.05)*$B$2</f>
+      <c r="R45" s="10">
+        <f t="shared" si="17"/>
+        <v>-9840.8015999999989</v>
+      </c>
+      <c r="S45" s="13">
+        <f t="shared" si="38"/>
         <v>68.744500000000002</v>
       </c>
-      <c r="T45" s="11">
-        <f>S45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>11212.22795</v>
-      </c>
-      <c r="U45" s="14">
-        <f>MIN(U20,0.05)*$B$2</f>
+      <c r="T45" s="10">
+        <f t="shared" si="18"/>
+        <v>-11212.22795</v>
+      </c>
+      <c r="U45" s="13">
+        <f t="shared" si="39"/>
         <v>76.995000000000005</v>
       </c>
-      <c r="V45" s="11">
-        <f>U45*($D$2*$F$2/2*2/15)*B45</f>
-        <v>12557.884500000002</v>
+      <c r="V45" s="10">
+        <f t="shared" si="19"/>
+        <v>-12557.884500000002</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B46" s="4">
-        <f>B42</f>
-        <v>4.67</v>
-      </c>
-      <c r="C46" s="14">
-        <f>MIN(C21,0.05)*$B$2</f>
+        <f>-B42</f>
+        <v>-4.67</v>
+      </c>
+      <c r="C46" s="13">
+        <f t="shared" si="30"/>
         <v>15.456999999999999</v>
       </c>
-      <c r="D46" s="11">
-        <f>C46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>5052.8932999999997</v>
-      </c>
-      <c r="E46" s="14">
-        <f>MIN(E21,0.05)*$B$2</f>
+      <c r="D46" s="10">
+        <f t="shared" si="10"/>
+        <v>-5052.8932999999997</v>
+      </c>
+      <c r="E46" s="13">
+        <f t="shared" si="31"/>
         <v>30.97</v>
       </c>
-      <c r="F46" s="11">
-        <f>E46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>10124.093000000001</v>
-      </c>
-      <c r="G46" s="14">
-        <f>MIN(G21,0.05)*$B$2</f>
+      <c r="F46" s="10">
+        <f t="shared" si="11"/>
+        <v>-10124.093000000001</v>
+      </c>
+      <c r="G46" s="13">
+        <f t="shared" si="32"/>
         <v>47.4495</v>
       </c>
-      <c r="H46" s="11">
-        <f>G46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>15511.241550000001</v>
-      </c>
-      <c r="I46" s="14">
-        <f>MIN(I21,0.05)*$B$2</f>
+      <c r="H46" s="10">
+        <f t="shared" si="12"/>
+        <v>-15511.241550000001</v>
+      </c>
+      <c r="I46" s="13">
+        <f t="shared" si="33"/>
         <v>60.459499999999998</v>
       </c>
-      <c r="J46" s="11">
-        <f>I46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>19764.21055</v>
-      </c>
-      <c r="K46" s="14">
-        <f>MIN(K21,0.05)*$B$2</f>
+      <c r="J46" s="10">
+        <f t="shared" si="13"/>
+        <v>-19764.21055</v>
+      </c>
+      <c r="K46" s="13">
+        <f t="shared" si="34"/>
         <v>79.08250000000001</v>
       </c>
-      <c r="L46" s="11">
-        <f>K46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>25852.06925</v>
-      </c>
-      <c r="M46" s="14">
-        <f>MIN(M21,0.05)*$B$2</f>
+      <c r="L46" s="10">
+        <f t="shared" si="14"/>
+        <v>-25852.06925</v>
+      </c>
+      <c r="M46" s="13">
+        <f t="shared" si="35"/>
         <v>93.216999999999999</v>
       </c>
-      <c r="N46" s="11">
-        <f>M46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>30472.637299999999</v>
-      </c>
-      <c r="O46" s="14">
-        <f>MIN(O21,0.05)*$B$2</f>
+      <c r="N46" s="10">
+        <f t="shared" si="15"/>
+        <v>-30472.637299999999</v>
+      </c>
+      <c r="O46" s="13">
+        <f t="shared" si="36"/>
         <v>108.88250000000001</v>
       </c>
-      <c r="P46" s="11">
-        <f>O46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>35593.689250000003</v>
-      </c>
-      <c r="Q46" s="14">
-        <f>MIN(Q21,0.05)*$B$2</f>
+      <c r="P46" s="10">
+        <f t="shared" si="16"/>
+        <v>-35593.689250000003</v>
+      </c>
+      <c r="Q46" s="13">
+        <f t="shared" si="37"/>
         <v>124.182</v>
       </c>
-      <c r="R46" s="11">
-        <f>Q46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>40595.095799999996</v>
-      </c>
-      <c r="S46" s="14">
-        <f>MIN(S21,0.05)*$B$2</f>
+      <c r="R46" s="10">
+        <f t="shared" si="17"/>
+        <v>-40595.095799999996</v>
+      </c>
+      <c r="S46" s="13">
+        <f t="shared" si="38"/>
         <v>142.50649999999999</v>
       </c>
-      <c r="T46" s="11">
-        <f>S46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>46585.37485</v>
-      </c>
-      <c r="U46" s="14">
-        <f>MIN(U21,0.05)*$B$2</f>
+      <c r="T46" s="10">
+        <f t="shared" si="18"/>
+        <v>-46585.37485</v>
+      </c>
+      <c r="U46" s="13">
+        <f t="shared" si="39"/>
         <v>153.93600000000001</v>
       </c>
-      <c r="V46" s="11">
-        <f>U46*($D$2*$F$2/2*2/15)*B46</f>
-        <v>50321.678400000004</v>
+      <c r="V46" s="10">
+        <f t="shared" si="19"/>
+        <v>-50321.678400000004</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B47" s="4">
-        <f>B41</f>
-        <v>7</v>
-      </c>
-      <c r="C47" s="14">
-        <f>MIN(C22,0.05)*$B$2</f>
+        <f>-B41</f>
+        <v>-7</v>
+      </c>
+      <c r="C47" s="13">
+        <f t="shared" si="30"/>
         <v>22.843</v>
       </c>
-      <c r="D47" s="11">
-        <f>C47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>11193.07</v>
-      </c>
-      <c r="E47" s="14">
-        <f>MIN(E22,0.05)*$B$2</f>
+      <c r="D47" s="10">
+        <f t="shared" si="10"/>
+        <v>-11193.07</v>
+      </c>
+      <c r="E47" s="13">
+        <f t="shared" si="31"/>
         <v>45.718499999999999</v>
       </c>
-      <c r="F47" s="11">
-        <f>E47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>22402.065000000002</v>
-      </c>
-      <c r="G47" s="14">
-        <f>MIN(G22,0.05)*$B$2</f>
+      <c r="F47" s="10">
+        <f t="shared" si="11"/>
+        <v>-22402.065000000002</v>
+      </c>
+      <c r="G47" s="13">
+        <f t="shared" si="32"/>
         <v>68.983999999999995</v>
       </c>
-      <c r="H47" s="11">
-        <f>G47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>33802.159999999996</v>
-      </c>
-      <c r="I47" s="14">
-        <f>MIN(I22,0.05)*$B$2</f>
+      <c r="H47" s="10">
+        <f t="shared" si="12"/>
+        <v>-33802.159999999996</v>
+      </c>
+      <c r="I47" s="13">
+        <f t="shared" si="33"/>
         <v>93.739500000000007</v>
       </c>
-      <c r="J47" s="11">
-        <f>I47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>45932.355000000003</v>
-      </c>
-      <c r="K47" s="14">
-        <f>MIN(K22,0.05)*$B$2</f>
+      <c r="J47" s="10">
+        <f t="shared" si="13"/>
+        <v>-45932.355000000003</v>
+      </c>
+      <c r="K47" s="13">
+        <f t="shared" si="34"/>
         <v>117.5945</v>
       </c>
-      <c r="L47" s="11">
-        <f>K47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>57621.305</v>
-      </c>
-      <c r="M47" s="14">
-        <f>MIN(M22,0.05)*$B$2</f>
+      <c r="L47" s="10">
+        <f t="shared" si="14"/>
+        <v>-57621.305</v>
+      </c>
+      <c r="M47" s="13">
+        <f t="shared" si="35"/>
         <v>137.66300000000001</v>
       </c>
-      <c r="N47" s="11">
-        <f>M47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>67454.87</v>
-      </c>
-      <c r="O47" s="14">
-        <f>MIN(O22,0.05)*$B$2</f>
+      <c r="N47" s="10">
+        <f t="shared" si="15"/>
+        <v>-67454.87</v>
+      </c>
+      <c r="O47" s="13">
+        <f t="shared" si="36"/>
         <v>164.2165</v>
       </c>
-      <c r="P47" s="11">
-        <f>O47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>80466.084999999992</v>
-      </c>
-      <c r="Q47" s="14">
-        <f>MIN(Q22,0.05)*$B$2</f>
+      <c r="P47" s="10">
+        <f t="shared" si="16"/>
+        <v>-80466.084999999992</v>
+      </c>
+      <c r="Q47" s="13">
+        <f t="shared" si="37"/>
         <v>186.39</v>
       </c>
-      <c r="R47" s="11">
-        <f>Q47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>91331.099999999991</v>
-      </c>
-      <c r="S47" s="14">
-        <f>MIN(S22,0.05)*$B$2</f>
+      <c r="R47" s="10">
+        <f t="shared" si="17"/>
+        <v>-91331.099999999991</v>
+      </c>
+      <c r="S47" s="13">
+        <f t="shared" si="38"/>
         <v>211.1285</v>
       </c>
-      <c r="T47" s="11">
-        <f>S47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>103452.96500000001</v>
-      </c>
-      <c r="U47" s="14">
-        <f>MIN(U22,0.05)*$B$2</f>
+      <c r="T47" s="10">
+        <f t="shared" si="18"/>
+        <v>-103452.96500000001</v>
+      </c>
+      <c r="U47" s="13">
+        <f t="shared" si="39"/>
         <v>234.637</v>
       </c>
-      <c r="V47" s="11">
-        <f>U47*($D$2*$F$2/2*2/15)*B47</f>
-        <v>114972.13</v>
+      <c r="V47" s="10">
+        <f t="shared" si="19"/>
+        <v>-114972.13</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="B48" s="4">
-        <f>B40</f>
-        <v>9.33</v>
-      </c>
-      <c r="C48" s="14">
-        <f>MIN(C23,0.05)*$B$2</f>
+        <f>-B40</f>
+        <v>-9.33</v>
+      </c>
+      <c r="C48" s="13">
+        <f t="shared" si="30"/>
         <v>31.041499999999999</v>
       </c>
-      <c r="D48" s="11">
-        <f>C48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>20273.203649999999</v>
-      </c>
-      <c r="E48" s="14">
-        <f>MIN(E23,0.05)*$B$2</f>
+      <c r="D48" s="10">
+        <f t="shared" si="10"/>
+        <v>-20273.203649999999</v>
+      </c>
+      <c r="E48" s="13">
+        <f t="shared" si="31"/>
         <v>63.021500000000003</v>
       </c>
-      <c r="F48" s="11">
-        <f>E48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>41159.341650000002</v>
-      </c>
-      <c r="G48" s="14">
-        <f>MIN(G23,0.05)*$B$2</f>
+      <c r="F48" s="10">
+        <f t="shared" si="11"/>
+        <v>-41159.341650000002</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" si="32"/>
         <v>94.831499999999991</v>
       </c>
-      <c r="H48" s="11">
-        <f>G48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>61934.452649999992</v>
-      </c>
-      <c r="I48" s="14">
-        <f>MIN(I23,0.05)*$B$2</f>
+      <c r="H48" s="10">
+        <f t="shared" si="12"/>
+        <v>-61934.452649999992</v>
+      </c>
+      <c r="I48" s="13">
+        <f t="shared" si="33"/>
         <v>121.7795</v>
       </c>
-      <c r="J48" s="11">
-        <f>I48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>79534.191449999998</v>
-      </c>
-      <c r="K48" s="14">
-        <f>MIN(K23,0.05)*$B$2</f>
+      <c r="J48" s="10">
+        <f t="shared" si="13"/>
+        <v>-79534.191449999998</v>
+      </c>
+      <c r="K48" s="13">
+        <f t="shared" si="34"/>
         <v>157.59649999999999</v>
       </c>
-      <c r="L48" s="11">
-        <f>K48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>102926.27415</v>
-      </c>
-      <c r="M48" s="14">
-        <f>MIN(M23,0.05)*$B$2</f>
+      <c r="L48" s="10">
+        <f t="shared" si="14"/>
+        <v>-102926.27415</v>
+      </c>
+      <c r="M48" s="13">
+        <f t="shared" si="35"/>
         <v>188.11799999999999</v>
       </c>
-      <c r="N48" s="11">
-        <f>M48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>122859.8658</v>
-      </c>
-      <c r="O48" s="14">
-        <f>MIN(O23,0.05)*$B$2</f>
+      <c r="N48" s="10">
+        <f t="shared" si="15"/>
+        <v>-122859.8658</v>
+      </c>
+      <c r="O48" s="13">
+        <f t="shared" si="36"/>
         <v>217.98399999999998</v>
       </c>
-      <c r="P48" s="11">
-        <f>O48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>142365.3504</v>
-      </c>
-      <c r="Q48" s="14">
-        <f>MIN(Q23,0.05)*$B$2</f>
+      <c r="P48" s="10">
+        <f t="shared" si="16"/>
+        <v>-142365.3504</v>
+      </c>
+      <c r="Q48" s="13">
+        <f t="shared" si="37"/>
         <v>250</v>
       </c>
-      <c r="R48" s="11">
-        <f>Q48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>163275</v>
-      </c>
-      <c r="S48" s="14">
-        <f>MIN(S23,0.05)*$B$2</f>
+      <c r="R48" s="10">
+        <f t="shared" si="17"/>
+        <v>-163275</v>
+      </c>
+      <c r="S48" s="13">
+        <f t="shared" si="38"/>
         <v>250</v>
       </c>
-      <c r="T48" s="11">
-        <f>S48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>163275</v>
-      </c>
-      <c r="U48" s="14">
-        <f>MIN(U23,0.05)*$B$2</f>
+      <c r="T48" s="10">
+        <f t="shared" si="18"/>
+        <v>-163275</v>
+      </c>
+      <c r="U48" s="13">
+        <f t="shared" si="39"/>
         <v>250</v>
       </c>
-      <c r="V48" s="11">
-        <f>U48*($D$2*$F$2/2*2/15)*B48</f>
-        <v>163275</v>
+      <c r="V48" s="10">
+        <f t="shared" si="19"/>
+        <v>-163275</v>
       </c>
     </row>
     <row r="49" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B49" s="4">
-        <f>B39</f>
-        <v>11.67</v>
-      </c>
-      <c r="C49" s="14">
-        <f>MIN(C24,0.05)*$B$2</f>
+        <f>-B39</f>
+        <v>-11.67</v>
+      </c>
+      <c r="C49" s="13">
+        <f t="shared" si="30"/>
         <v>38.998000000000005</v>
       </c>
-      <c r="D49" s="11">
-        <f>C49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>31857.466200000003</v>
-      </c>
-      <c r="E49" s="14">
-        <f>MIN(E24,0.05)*$B$2</f>
+      <c r="D49" s="10">
+        <f t="shared" si="10"/>
+        <v>-31857.466200000003</v>
+      </c>
+      <c r="E49" s="13">
+        <f t="shared" si="31"/>
         <v>76.385000000000005</v>
       </c>
-      <c r="F49" s="11">
-        <f>E49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>62398.906500000005</v>
-      </c>
-      <c r="G49" s="14">
-        <f>MIN(G24,0.05)*$B$2</f>
+      <c r="F49" s="10">
+        <f t="shared" si="11"/>
+        <v>-62398.906500000005</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="32"/>
         <v>116.9045</v>
       </c>
-      <c r="H49" s="11">
-        <f>G49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>95499.286049999995</v>
-      </c>
-      <c r="I49" s="14">
-        <f>MIN(I24,0.05)*$B$2</f>
+      <c r="H49" s="10">
+        <f t="shared" si="12"/>
+        <v>-95499.286049999995</v>
+      </c>
+      <c r="I49" s="13">
+        <f t="shared" si="33"/>
         <v>154.07749999999999</v>
       </c>
-      <c r="J49" s="11">
-        <f>I49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>125865.90974999999</v>
-      </c>
-      <c r="K49" s="14">
-        <f>MIN(K24,0.05)*$B$2</f>
+      <c r="J49" s="10">
+        <f t="shared" si="13"/>
+        <v>-125865.90974999999</v>
+      </c>
+      <c r="K49" s="13">
+        <f t="shared" si="34"/>
         <v>194.9975</v>
       </c>
-      <c r="L49" s="11">
-        <f>K49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>159293.45775</v>
-      </c>
-      <c r="M49" s="14">
-        <f>MIN(M24,0.05)*$B$2</f>
+      <c r="L49" s="10">
+        <f t="shared" si="14"/>
+        <v>-159293.45775</v>
+      </c>
+      <c r="M49" s="13">
+        <f t="shared" si="35"/>
         <v>230.321</v>
       </c>
-      <c r="N49" s="11">
-        <f>M49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>188149.2249</v>
-      </c>
-      <c r="O49" s="14">
-        <f>MIN(O24,0.05)*$B$2</f>
+      <c r="N49" s="10">
+        <f t="shared" si="15"/>
+        <v>-188149.2249</v>
+      </c>
+      <c r="O49" s="13">
+        <f t="shared" si="36"/>
         <v>250</v>
       </c>
-      <c r="P49" s="11">
-        <f>O49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>204225</v>
-      </c>
-      <c r="Q49" s="14">
-        <f>MIN(Q24,0.05)*$B$2</f>
+      <c r="P49" s="10">
+        <f t="shared" si="16"/>
+        <v>-204225</v>
+      </c>
+      <c r="Q49" s="13">
+        <f t="shared" si="37"/>
         <v>250</v>
       </c>
-      <c r="R49" s="11">
-        <f>Q49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>204225</v>
-      </c>
-      <c r="S49" s="14">
-        <f>MIN(S24,0.05)*$B$2</f>
+      <c r="R49" s="10">
+        <f t="shared" si="17"/>
+        <v>-204225</v>
+      </c>
+      <c r="S49" s="13">
+        <f t="shared" si="38"/>
         <v>250</v>
       </c>
-      <c r="T49" s="11">
-        <f>S49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>204225</v>
-      </c>
-      <c r="U49" s="14">
-        <f>MIN(U24,0.05)*$B$2</f>
+      <c r="T49" s="10">
+        <f t="shared" si="18"/>
+        <v>-204225</v>
+      </c>
+      <c r="U49" s="13">
+        <f t="shared" si="39"/>
         <v>250</v>
       </c>
-      <c r="V49" s="11">
-        <f>U49*($D$2*$F$2/2*2/15)*B49</f>
-        <v>204225</v>
+      <c r="V49" s="10">
+        <f t="shared" si="19"/>
+        <v>-204225</v>
       </c>
     </row>
     <row r="50" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B50" s="4">
-        <f>B38</f>
-        <v>14</v>
-      </c>
-      <c r="C50" s="14">
-        <f>MIN(C25,0.05)*$B$2</f>
+        <f>-B38</f>
+        <v>-14</v>
+      </c>
+      <c r="C50" s="13">
+        <f t="shared" si="30"/>
         <v>47.265000000000001</v>
       </c>
-      <c r="D50" s="11">
-        <f>C50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>46319.700000000004</v>
-      </c>
-      <c r="E50" s="14">
-        <f>MIN(E25,0.05)*$B$2</f>
+      <c r="D50" s="10">
+        <f t="shared" si="10"/>
+        <v>-46319.700000000004</v>
+      </c>
+      <c r="E50" s="13">
+        <f t="shared" si="31"/>
         <v>94.668999999999997</v>
       </c>
-      <c r="F50" s="11">
-        <f>E50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>92775.62</v>
-      </c>
-      <c r="G50" s="14">
-        <f>MIN(G25,0.05)*$B$2</f>
+      <c r="F50" s="10">
+        <f t="shared" si="11"/>
+        <v>-92775.62</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="32"/>
         <v>139.273</v>
       </c>
-      <c r="H50" s="11">
-        <f>G50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>136487.54</v>
-      </c>
-      <c r="I50" s="14">
-        <f>MIN(I25,0.05)*$B$2</f>
+      <c r="H50" s="10">
+        <f t="shared" si="12"/>
+        <v>-136487.54</v>
+      </c>
+      <c r="I50" s="13">
+        <f t="shared" si="33"/>
         <v>184.33499999999998</v>
       </c>
-      <c r="J50" s="11">
-        <f>I50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>180648.3</v>
-      </c>
-      <c r="K50" s="14">
-        <f>MIN(K25,0.05)*$B$2</f>
+      <c r="J50" s="10">
+        <f t="shared" si="13"/>
+        <v>-180648.3</v>
+      </c>
+      <c r="K50" s="13">
+        <f t="shared" si="34"/>
         <v>232.441</v>
       </c>
-      <c r="L50" s="11">
-        <f>K50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>227792.18000000002</v>
-      </c>
-      <c r="M50" s="14">
-        <f>MIN(M25,0.05)*$B$2</f>
+      <c r="L50" s="10">
+        <f t="shared" si="14"/>
+        <v>-227792.18000000002</v>
+      </c>
+      <c r="M50" s="13">
+        <f t="shared" si="35"/>
         <v>250</v>
       </c>
-      <c r="N50" s="11">
-        <f>M50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>245000</v>
-      </c>
-      <c r="O50" s="14">
-        <f>MIN(O25,0.05)*$B$2</f>
+      <c r="N50" s="10">
+        <f t="shared" si="15"/>
+        <v>-245000</v>
+      </c>
+      <c r="O50" s="13">
+        <f t="shared" si="36"/>
         <v>250</v>
       </c>
-      <c r="P50" s="11">
-        <f>O50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>245000</v>
-      </c>
-      <c r="Q50" s="14">
-        <f>MIN(Q25,0.05)*$B$2</f>
+      <c r="P50" s="10">
+        <f t="shared" si="16"/>
+        <v>-245000</v>
+      </c>
+      <c r="Q50" s="13">
+        <f t="shared" si="37"/>
         <v>250</v>
       </c>
-      <c r="R50" s="11">
-        <f>Q50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>245000</v>
-      </c>
-      <c r="S50" s="14">
-        <f>MIN(S25,0.05)*$B$2</f>
+      <c r="R50" s="10">
+        <f t="shared" si="17"/>
+        <v>-245000</v>
+      </c>
+      <c r="S50" s="13">
+        <f t="shared" si="38"/>
         <v>250</v>
       </c>
-      <c r="T50" s="11">
-        <f>S50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>245000</v>
-      </c>
-      <c r="U50" s="14">
-        <f>MIN(U25,0.05)*$B$2</f>
+      <c r="T50" s="10">
+        <f t="shared" si="18"/>
+        <v>-245000</v>
+      </c>
+      <c r="U50" s="13">
+        <f t="shared" si="39"/>
         <v>250</v>
       </c>
-      <c r="V50" s="11">
-        <f>U50*($D$2*$F$2/2*2/15)*B50</f>
-        <v>245000</v>
+      <c r="V50" s="10">
+        <f t="shared" si="19"/>
+        <v>-245000</v>
       </c>
     </row>
     <row r="51" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B51" s="4">
-        <f>B37</f>
-        <v>16.329999999999998</v>
-      </c>
-      <c r="C51" s="14">
-        <f>MIN(C26,0.05)*$B$2</f>
+        <f>-B37</f>
+        <v>-16.329999999999998</v>
+      </c>
+      <c r="C51" s="13">
+        <f t="shared" si="30"/>
         <v>53.699999999999996</v>
       </c>
-      <c r="D51" s="11">
-        <f>C51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>61384.469999999987</v>
-      </c>
-      <c r="E51" s="14">
-        <f>MIN(E26,0.05)*$B$2</f>
+      <c r="D51" s="10">
+        <f t="shared" si="10"/>
+        <v>-61384.469999999987</v>
+      </c>
+      <c r="E51" s="13">
+        <f t="shared" si="31"/>
         <v>107.714</v>
       </c>
-      <c r="F51" s="11">
-        <f>E51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>123127.87339999998</v>
-      </c>
-      <c r="G51" s="14">
-        <f>MIN(G26,0.05)*$B$2</f>
+      <c r="F51" s="10">
+        <f t="shared" si="11"/>
+        <v>-123127.87339999998</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="32"/>
         <v>162.4</v>
       </c>
-      <c r="H51" s="11">
-        <f>G51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>185639.43999999997</v>
-      </c>
-      <c r="I51" s="14">
-        <f>MIN(I26,0.05)*$B$2</f>
+      <c r="H51" s="10">
+        <f t="shared" si="12"/>
+        <v>-185639.43999999997</v>
+      </c>
+      <c r="I51" s="13">
+        <f t="shared" si="33"/>
         <v>215.19900000000001</v>
       </c>
-      <c r="J51" s="11">
-        <f>I51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>245993.97689999998</v>
-      </c>
-      <c r="K51" s="14">
-        <f>MIN(K26,0.05)*$B$2</f>
+      <c r="J51" s="10">
+        <f t="shared" si="13"/>
+        <v>-245993.97689999998</v>
+      </c>
+      <c r="K51" s="13">
+        <f t="shared" si="34"/>
         <v>250</v>
       </c>
-      <c r="L51" s="11">
-        <f>K51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="M51" s="14">
-        <f>MIN(M26,0.05)*$B$2</f>
+      <c r="L51" s="10">
+        <f t="shared" si="14"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="M51" s="13">
+        <f t="shared" si="35"/>
         <v>250</v>
       </c>
-      <c r="N51" s="11">
-        <f>M51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="O51" s="14">
-        <f>MIN(O26,0.05)*$B$2</f>
+      <c r="N51" s="10">
+        <f t="shared" si="15"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="O51" s="13">
+        <f t="shared" si="36"/>
         <v>250</v>
       </c>
-      <c r="P51" s="11">
-        <f>O51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="Q51" s="14">
-        <f>MIN(Q26,0.05)*$B$2</f>
+      <c r="P51" s="10">
+        <f t="shared" si="16"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="Q51" s="13">
+        <f t="shared" si="37"/>
         <v>250</v>
       </c>
-      <c r="R51" s="11">
-        <f>Q51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="S51" s="14">
-        <f>MIN(S26,0.05)*$B$2</f>
+      <c r="R51" s="10">
+        <f t="shared" si="17"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="S51" s="13">
+        <f t="shared" si="38"/>
         <v>250</v>
       </c>
-      <c r="T51" s="11">
-        <f>S51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
-      </c>
-      <c r="U51" s="14">
-        <f>MIN(U26,0.05)*$B$2</f>
+      <c r="T51" s="10">
+        <f t="shared" si="18"/>
+        <v>-285774.99999999994</v>
+      </c>
+      <c r="U51" s="13">
+        <f t="shared" si="39"/>
         <v>250</v>
       </c>
-      <c r="V51" s="11">
-        <f>U51*($D$2*$F$2/2*2/15)*B51</f>
-        <v>285774.99999999994</v>
+      <c r="V51" s="10">
+        <f t="shared" si="19"/>
+        <v>-285774.99999999994</v>
       </c>
     </row>
     <row r="52" spans="2:22" x14ac:dyDescent="0.3">
@@ -17238,54 +17969,54 @@
         <f>B36</f>
         <v>0</v>
       </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="11">
-        <f>C52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="E52" s="14"/>
-      <c r="F52" s="11">
-        <f>E52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="11">
-        <f>G52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="I52" s="14"/>
-      <c r="J52" s="11">
-        <f>I52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="11">
-        <f>K52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="M52" s="14"/>
-      <c r="N52" s="11">
-        <f>M52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="O52" s="14"/>
-      <c r="P52" s="11">
-        <f>O52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="Q52" s="14"/>
-      <c r="R52" s="11">
-        <f>Q52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="S52" s="14"/>
-      <c r="T52" s="11">
-        <f>S52*($D$2*$F$2/2*2/15)*B52</f>
-        <v>0</v>
-      </c>
-      <c r="U52" s="14"/>
-      <c r="V52" s="11">
-        <f>U52*($D$2*$F$2/2*2/15)*B52</f>
+      <c r="C52" s="13"/>
+      <c r="D52" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E52" s="13"/>
+      <c r="F52" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="13"/>
+      <c r="H52" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I52" s="13"/>
+      <c r="J52" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K52" s="13"/>
+      <c r="L52" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M52" s="13"/>
+      <c r="N52" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O52" s="13"/>
+      <c r="P52" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q52" s="13"/>
+      <c r="R52" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="13"/>
+      <c r="T52" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U52" s="13"/>
+      <c r="V52" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17294,54 +18025,54 @@
         <f>B35</f>
         <v>0</v>
       </c>
-      <c r="C53" s="14"/>
-      <c r="D53" s="11">
-        <f>C53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="E53" s="14"/>
-      <c r="F53" s="11">
-        <f>E53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="G53" s="14"/>
-      <c r="H53" s="11">
-        <f>G53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="I53" s="14"/>
-      <c r="J53" s="11">
-        <f>I53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="11">
-        <f>K53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="M53" s="14"/>
-      <c r="N53" s="11">
-        <f>M53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="O53" s="14"/>
-      <c r="P53" s="11">
-        <f>O53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="11">
-        <f>Q53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="11">
-        <f>S53*($D$2*$F$2/2*2/15)*B53</f>
-        <v>0</v>
-      </c>
-      <c r="U53" s="14"/>
-      <c r="V53" s="11">
-        <f>U53*($D$2*$F$2/2*2/15)*B53</f>
+      <c r="C53" s="13"/>
+      <c r="D53" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E53" s="13"/>
+      <c r="F53" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="13"/>
+      <c r="H53" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I53" s="13"/>
+      <c r="J53" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K53" s="13"/>
+      <c r="L53" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M53" s="13"/>
+      <c r="N53" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O53" s="13"/>
+      <c r="P53" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="13"/>
+      <c r="T53" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U53" s="13"/>
+      <c r="V53" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>
@@ -17350,54 +18081,54 @@
         <f>B34</f>
         <v>0</v>
       </c>
-      <c r="C54" s="14"/>
-      <c r="D54" s="11">
-        <f>C54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="E54" s="14"/>
-      <c r="F54" s="11">
-        <f>E54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="G54" s="14"/>
-      <c r="H54" s="11">
-        <f>G54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="I54" s="14"/>
-      <c r="J54" s="11">
-        <f>I54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="11">
-        <f>K54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="M54" s="14"/>
-      <c r="N54" s="11">
-        <f>M54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="O54" s="14"/>
-      <c r="P54" s="11">
-        <f>O54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="Q54" s="14"/>
-      <c r="R54" s="11">
-        <f>Q54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="S54" s="14"/>
-      <c r="T54" s="11">
-        <f>S54*($D$2*$F$2/2*2/15)*B54</f>
-        <v>0</v>
-      </c>
-      <c r="U54" s="14"/>
-      <c r="V54" s="11">
-        <f>U54*($D$2*$F$2/2*2/15)*B54</f>
+      <c r="C54" s="13"/>
+      <c r="D54" s="10">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="E54" s="13"/>
+      <c r="F54" s="10">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G54" s="13"/>
+      <c r="H54" s="10">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I54" s="13"/>
+      <c r="J54" s="10">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K54" s="13"/>
+      <c r="L54" s="10">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M54" s="13"/>
+      <c r="N54" s="10">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O54" s="13"/>
+      <c r="P54" s="10">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="10">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="13"/>
+      <c r="T54" s="10">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U54" s="13"/>
+      <c r="V54" s="10">
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
     </row>

--- a/sms_calc.xlsx
+++ b/sms_calc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 경남대학교\GitHub\sms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knuser\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FBD25E5-44E9-4B65-AA47-D265807AA679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,18 +18,27 @@
     <sheet name="based on stress" sheetId="3" r:id="rId3"/>
     <sheet name="load-displacement" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="101">
   <si>
     <t>theta1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,12 +383,72 @@
     <t>epsilon_y=</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>support A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>support F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>moment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf/Va</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx * (Vf,Va)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dx * coeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-coeff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>measured</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>computed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="11">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.000"/>
@@ -388,6 +458,8 @@
     <numFmt numFmtId="180" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="181" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="182" formatCode="_-* #,##0.00000_-;\-* #,##0.00000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="192" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -421,15 +493,20 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -437,16 +514,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,8 +605,22 @@
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="메모" xfId="3" builtinId="10"/>
+    <cellStyle name="백분율" xfId="2" builtinId="5"/>
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -892,7 +1004,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -900,6 +1011,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1023,7 +1135,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>stress_exp</c:v>
+                  <c:v> stress_exp </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1185,7 +1297,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>stress_theory</c:v>
+                  <c:v> stress_theory </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1483,7 +1595,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1491,6 +1602,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1614,7 +1726,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p_exp</c:v>
+                  <c:v> p_exp </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1713,7 +1825,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p_theory</c:v>
+                  <c:v> p_theory </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1948,7 +2060,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -1956,6 +2067,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2035,7 +2147,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3774,7 +3885,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3896,7 +4006,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3977,7 +4086,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -3985,6 +4093,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -4064,7 +4173,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4109,7 +4217,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p_theory</c:v>
+                  <c:v> p_theory </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4238,7 +4346,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>p_exp</c:v>
+                  <c:v> p_exp </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4417,7 +4525,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4536,7 +4643,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -4617,7 +4723,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -4625,6 +4730,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -7459,7 +7565,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7502,7 +7608,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7540,7 +7646,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7583,7 +7689,7 @@
         <xdr:cNvPr id="2" name="차트 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7621,7 +7727,7 @@
         <xdr:cNvPr id="3" name="차트 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6C19822-5D40-49E9-8188-1D540E21E567}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7940,11 +8046,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y62"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R61" sqref="R61"/>
+    <sheetView tabSelected="1" topLeftCell="I43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69:AA83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7954,6 +8060,8 @@
     <col min="10" max="10" width="3.75" customWidth="1"/>
     <col min="11" max="11" width="5" customWidth="1"/>
     <col min="12" max="17" width="12.5" customWidth="1"/>
+    <col min="18" max="18" width="10.375" customWidth="1"/>
+    <col min="19" max="19" width="11" customWidth="1"/>
     <col min="20" max="25" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8554,7 +8662,7 @@
         <v>103.57938348223419</v>
       </c>
     </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:27" x14ac:dyDescent="0.3">
       <c r="K17" t="s">
         <v>16</v>
       </c>
@@ -8610,7 +8718,7 @@
         <v>30375.690000000002</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.3">
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -8624,7 +8732,7 @@
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.3">
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -8638,7 +8746,23 @@
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="P20" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="X20" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>26</v>
       </c>
@@ -8679,7 +8803,10 @@
         <v>25</v>
       </c>
       <c r="U21" t="s">
-        <v>27</v>
+        <v>91</v>
+      </c>
+      <c r="V21" t="s">
+        <v>92</v>
       </c>
       <c r="X21" t="s">
         <v>29</v>
@@ -8687,10 +8814,13 @@
       <c r="Y21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D22" s="1">
-        <v>0</v>
+        <v>35.549999999999997</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
@@ -8714,48 +8844,30 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1">
         <f>E29</f>
-        <v>14.999999999999996</v>
+        <v>59.182499999999976</v>
       </c>
       <c r="M22" s="1">
         <f>SQRT($G$29^2+L22^2)</f>
-        <v>52.201532544552741</v>
+        <v>205.9611466545328</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="P22" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>0</v>
-      </c>
-      <c r="R22" s="1">
-        <v>0</v>
-      </c>
-      <c r="S22" s="1">
-        <f>Q22-Q22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="1">
-        <f>R22-R22</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="1">
-        <f>P22*S22</f>
-        <v>0</v>
-      </c>
+      <c r="O22" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="22">
+        <v>-327.5</v>
+      </c>
+      <c r="R22" s="22">
+        <v>677.5</v>
+      </c>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
       <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1">
-        <f>Q30</f>
-        <v>21.439393939393938</v>
-      </c>
-      <c r="Y22" s="1">
-        <f>SQRT($S$30^2+X22^2)</f>
-        <v>47.000440172770311</v>
-      </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D23" s="1">
-        <v>20</v>
+        <v>59.45</v>
       </c>
       <c r="E23" s="1">
         <v>20</v>
@@ -8773,54 +8885,68 @@
       </c>
       <c r="I23" s="1">
         <f>D23*SUM(G22:G23)</f>
-        <v>400</v>
+        <v>1189</v>
       </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
         <f>L22-D23</f>
-        <v>-5.0000000000000036</v>
+        <v>-0.26750000000002672</v>
       </c>
       <c r="M23" s="1">
         <f>SQRT($G$29^2+L23^2)</f>
-        <v>50.249378105604443</v>
+        <v>197.27518136159441</v>
       </c>
       <c r="N23" s="1"/>
-      <c r="P23" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>12</v>
-      </c>
-      <c r="R23" s="1">
-        <v>-6.1510600000000002</v>
+      <c r="O23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P23" s="22">
+        <v>35.549999999999997</v>
+      </c>
+      <c r="Q23" s="22">
+        <v>-189.25</v>
+      </c>
+      <c r="R23" s="22">
+        <v>394.51</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" ref="S23:T26" si="1">Q23-Q22</f>
-        <v>12</v>
+        <f t="shared" ref="S22:S23" si="1">Q23-Q22</f>
+        <v>138.25</v>
       </c>
       <c r="T23" s="1">
-        <f t="shared" si="1"/>
-        <v>-6.1510600000000002</v>
-      </c>
-      <c r="U23" s="1">
-        <f>P23*SUM(S22:S23)</f>
-        <v>180</v>
-      </c>
-      <c r="V23" s="1"/>
+        <f t="shared" ref="T22:T23" si="2">R23-R22</f>
+        <v>-282.99</v>
+      </c>
+      <c r="U23" s="20">
+        <f>SQRT(S23^2+T23^2)</f>
+        <v>314.95460403048565</v>
+      </c>
+      <c r="V23" s="1">
+        <f>P23*S23</f>
+        <v>4914.7874999999995</v>
+      </c>
       <c r="W23" s="1"/>
       <c r="X23" s="1">
-        <f>X22-P23</f>
-        <v>6.4393939393939377</v>
+        <f>P34</f>
+        <v>133.29951991220202</v>
       </c>
       <c r="Y23" s="1">
-        <f>SQRT($S$30^2+X23^2)</f>
-        <v>42.318548631213034</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.3">
+        <f>SQRT($R$34^2+X23^2)</f>
+        <v>148.35611686420518</v>
+      </c>
+      <c r="Z23" s="1">
+        <f>Y23/$S$34*S23</f>
+        <v>314.95460403048565</v>
+      </c>
+      <c r="AA23" s="21">
+        <f>(U23-Z23)/U23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D24" s="1">
-        <v>0</v>
+        <v>19.46</v>
       </c>
       <c r="E24" s="1">
         <v>20</v>
@@ -8838,52 +8964,66 @@
       </c>
       <c r="I24" s="1">
         <f>D24*SUM(G22:G24)</f>
-        <v>0</v>
+        <v>389.20000000000005</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
         <f>L23-D24</f>
-        <v>-5.0000000000000036</v>
+        <v>-19.727500000000028</v>
       </c>
       <c r="M24" s="1">
         <f>SQRT($G$29^2+L24^2)</f>
-        <v>50.249378105604443</v>
+        <v>198.25892131566229</v>
       </c>
       <c r="N24" s="1"/>
-      <c r="P24" s="1">
-        <v>15</v>
-      </c>
-      <c r="Q24" s="1">
-        <v>37</v>
-      </c>
-      <c r="R24" s="1">
-        <v>-10</v>
+      <c r="O24" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="22">
+        <v>59.45</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>-59.83</v>
+      </c>
+      <c r="R24" s="22">
+        <v>200.25</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="1"/>
-        <v>25</v>
+        <f t="shared" ref="S24:T27" si="3">Q24-Q23</f>
+        <v>129.42000000000002</v>
       </c>
       <c r="T24" s="1">
-        <f t="shared" si="1"/>
-        <v>-3.8489399999999998</v>
-      </c>
-      <c r="U24" s="1">
-        <f>P24*SUM(S22:S24)</f>
-        <v>555</v>
-      </c>
-      <c r="V24" s="1"/>
+        <f t="shared" si="3"/>
+        <v>-194.26</v>
+      </c>
+      <c r="U24" s="20">
+        <f t="shared" ref="U24:U27" si="4">SQRT(S24^2+T24^2)</f>
+        <v>233.42340071209657</v>
+      </c>
+      <c r="V24" s="1">
+        <f>P24*SUM(S23:S24)</f>
+        <v>15912.981500000002</v>
+      </c>
       <c r="W24" s="1"/>
       <c r="X24" s="1">
-        <f>X23-P24</f>
-        <v>-8.5606060606060623</v>
+        <f>X23-P23</f>
+        <v>97.749519912202018</v>
       </c>
       <c r="Y24" s="1">
-        <f>SQRT($S$30^2+X24^2)</f>
-        <v>42.692830078018069</v>
-      </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.3">
+        <f>SQRT($R$34^2+X24^2)</f>
+        <v>117.45528530154843</v>
+      </c>
+      <c r="Z24" s="1">
+        <f t="shared" ref="Z24:Z27" si="5">Y24/$S$34*S24</f>
+        <v>233.42712630102139</v>
+      </c>
+      <c r="AA24" s="21">
+        <f t="shared" ref="AA24:AA27" si="6">(U24-Z24)/U24</f>
+        <v>-1.5960648818658986E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D25" s="1">
         <v>0</v>
       </c>
@@ -8910,45 +9050,59 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="P25" s="1">
-        <v>10</v>
-      </c>
-      <c r="Q25" s="1">
-        <v>49</v>
-      </c>
-      <c r="R25" s="1">
-        <v>-7.5439230000000004</v>
+      <c r="O25" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" s="22">
+        <v>109.46</v>
+      </c>
+      <c r="Q25" s="22">
+        <v>77.95</v>
+      </c>
+      <c r="R25" s="22">
+        <v>119.21</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="3"/>
+        <v>137.78</v>
       </c>
       <c r="T25" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4560769999999996</v>
-      </c>
-      <c r="U25" s="1">
-        <f>P25*SUM(S22:S25)</f>
-        <v>490</v>
-      </c>
-      <c r="V25" s="1"/>
+        <f t="shared" si="3"/>
+        <v>-81.040000000000006</v>
+      </c>
+      <c r="U25" s="20">
+        <f t="shared" si="4"/>
+        <v>159.84620733692745</v>
+      </c>
+      <c r="V25" s="1">
+        <f>P25*SUM(S23:S25)</f>
+        <v>44380.557000000001</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1">
-        <f>X24-P25</f>
-        <v>-18.560606060606062</v>
+        <f t="shared" ref="X25:X26" si="7">X24-P24</f>
+        <v>38.299519912202015</v>
       </c>
       <c r="Y25" s="1">
-        <f>SQRT($S$30^2+X25^2)</f>
-        <v>45.759041306419938</v>
-      </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.3">
+        <f>SQRT($R$34^2+X25^2)</f>
+        <v>75.548849281159264</v>
+      </c>
+      <c r="Z25" s="1">
+        <f t="shared" si="5"/>
+        <v>159.84218150376384</v>
+      </c>
+      <c r="AA25" s="21">
+        <f t="shared" si="6"/>
+        <v>2.518566583893894E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="1">
         <f>SUM(D23:D24)</f>
-        <v>20</v>
+        <v>78.91</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -8962,40 +9116,60 @@
       </c>
       <c r="I26" s="1">
         <f>SUM(I22:I25)</f>
-        <v>400</v>
+        <v>1578.2</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
-      <c r="P26" s="1">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>66</v>
-      </c>
-      <c r="R26" s="1">
-        <v>0</v>
+      <c r="O26" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="22">
+        <v>136.46</v>
+      </c>
+      <c r="Q26" s="22">
+        <v>228.17</v>
+      </c>
+      <c r="R26" s="22">
+        <v>283.36</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f t="shared" si="3"/>
+        <v>150.21999999999997</v>
       </c>
       <c r="T26" s="1">
-        <f t="shared" si="1"/>
-        <v>7.5439230000000004</v>
-      </c>
-      <c r="U26" s="1">
-        <f>P26*SUM(S22:S26)</f>
-        <v>0</v>
-      </c>
-      <c r="V26" s="1"/>
+        <f t="shared" si="3"/>
+        <v>164.15000000000003</v>
+      </c>
+      <c r="U26" s="20">
+        <f t="shared" si="4"/>
+        <v>222.51128263528571</v>
+      </c>
+      <c r="V26" s="1">
+        <f>P26*SUM(S23:S26)</f>
+        <v>75826.728200000012</v>
+      </c>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="X26" s="1">
+        <f t="shared" si="7"/>
+        <v>-71.160480087797978</v>
+      </c>
+      <c r="Y26" s="1">
+        <f>SQRT($R$34^2+X26^2)</f>
+        <v>96.460299235115656</v>
+      </c>
+      <c r="Z26" s="1">
+        <f t="shared" si="5"/>
+        <v>222.51214811152389</v>
+      </c>
+      <c r="AA26" s="21">
+        <f t="shared" si="6"/>
+        <v>-3.8895836108851169E-6</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -9007,33 +9181,49 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
-      <c r="O27" t="s">
-        <v>18</v>
-      </c>
-      <c r="P27" s="1">
-        <f>SUM(P23:P25)</f>
-        <v>40</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
+      <c r="O27" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="22">
+        <f>-Q22</f>
+        <v>327.5</v>
+      </c>
+      <c r="R27" s="22">
+        <v>600.04999999999995</v>
+      </c>
       <c r="S27" s="1">
-        <f>SUM(S22:S26)</f>
-        <v>66</v>
+        <f t="shared" si="3"/>
+        <v>99.330000000000013</v>
       </c>
       <c r="T27" s="1">
-        <f>SUM(T22:T26)</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="1">
-        <f>SUM(U22:U26)</f>
-        <v>1225</v>
+        <f t="shared" si="3"/>
+        <v>316.68999999999994</v>
+      </c>
+      <c r="U27" s="20">
+        <f t="shared" si="4"/>
+        <v>331.90210152995411</v>
       </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="X27" s="1">
+        <f>X26-P26</f>
+        <v>-207.620480087798</v>
+      </c>
+      <c r="Y27" s="1">
+        <f>SQRT($R$34^2+X27^2)</f>
+        <v>217.5937479664567</v>
+      </c>
+      <c r="Z27" s="1">
+        <f t="shared" si="5"/>
+        <v>331.89767657759103</v>
+      </c>
+      <c r="AA27" s="21">
+        <f t="shared" si="6"/>
+        <v>1.3332101070416681E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.3">
       <c r="E28" s="1" t="s">
         <v>20</v>
       </c>
@@ -9052,34 +9242,48 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
-      <c r="P28" s="1"/>
+      <c r="O28" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="1">
+        <f>SUM(P23:P26)</f>
+        <v>340.91999999999996</v>
+      </c>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
+      <c r="S28" s="1">
+        <f>SUM(S23:S27)</f>
+        <v>655.00000000000011</v>
+      </c>
+      <c r="T28" s="1">
+        <f>SUM(T23:T27)</f>
+        <v>-77.449999999999989</v>
+      </c>
+      <c r="V28" s="1">
+        <f>SUM(V23:V27)</f>
+        <v>141035.05420000001</v>
+      </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
     </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D29" s="1"/>
       <c r="E29" s="1">
         <f>(D26-I26/G26)/(1-H26/G26*G23/H23)</f>
-        <v>14.999999999999996</v>
+        <v>59.182499999999976</v>
       </c>
       <c r="F29" s="1">
         <f>D26-E29</f>
-        <v>5.0000000000000036</v>
+        <v>19.72750000000002</v>
       </c>
       <c r="G29" s="1">
         <f>G23/H23*E29</f>
-        <v>-49.999999999999993</v>
+        <v>-197.27499999999992</v>
       </c>
       <c r="H29" s="1">
         <f>-G29</f>
-        <v>49.999999999999993</v>
+        <v>197.27499999999992</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -9087,41 +9291,26 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
-      <c r="Q29" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
     </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D30" s="1"/>
       <c r="E30" s="1">
         <f>D26/(1-H25/G25*G23/H23)</f>
-        <v>15</v>
+        <v>59.182499999999997</v>
       </c>
       <c r="F30" s="1">
         <f>D26-E30</f>
-        <v>5</v>
+        <v>19.727499999999999</v>
       </c>
       <c r="G30" s="1">
         <f>E30*G23/H23</f>
-        <v>-50</v>
+        <v>-197.27499999999998</v>
       </c>
       <c r="H30" s="1">
         <f>-G30</f>
-        <v>50</v>
+        <v>197.27499999999998</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -9129,30 +9318,22 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1">
-        <f>(P27-U27/S27)/(1-T27/S27*S23/T23)</f>
-        <v>21.439393939393938</v>
-      </c>
-      <c r="R30" s="1">
-        <f>P27-Q30</f>
-        <v>18.560606060606062</v>
-      </c>
-      <c r="S30" s="1">
-        <f>S23/T23*Q30</f>
-        <v>-41.825754792300394</v>
-      </c>
-      <c r="T30" s="1">
-        <f>-S30</f>
-        <v>41.825754792300394</v>
-      </c>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
+      <c r="P30" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>94</v>
+      </c>
+      <c r="R30" t="s">
+        <v>95</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>96</v>
+      </c>
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
     </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -9164,30 +9345,27 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
-      <c r="P31" s="1"/>
+      <c r="P31" s="1">
+        <f>ABS(S23/T23)</f>
+        <v>0.48853316371603234</v>
+      </c>
       <c r="Q31" s="1">
-        <f>P27/(1-T26/S26*S23/T23)</f>
-        <v>21.439394868233901</v>
+        <f>P31*-T28</f>
+        <v>37.836893529806702</v>
       </c>
       <c r="R31" s="1">
-        <f>P27-Q31</f>
-        <v>18.560605131766099</v>
+        <f>P28*S28</f>
+        <v>223302.6</v>
       </c>
       <c r="S31" s="1">
-        <f>Q31*S23/T23</f>
-        <v>-41.825756604358723</v>
-      </c>
-      <c r="T31" s="1">
-        <f>-S31</f>
-        <v>41.825756604358723</v>
-      </c>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
+        <f>R31-V28</f>
+        <v>82267.545799999993</v>
+      </c>
       <c r="W31" s="1"/>
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
     </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:27" x14ac:dyDescent="0.3">
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -9199,13 +9377,6 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
       <c r="W32" s="1"/>
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
@@ -9222,10 +9393,18 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="P33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q33" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="T33" s="1"/>
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
@@ -9237,7 +9416,7 @@
       <c r="D34" s="1"/>
       <c r="E34" s="1">
         <f>-H29*H26+F29*G26-D23*G23-D24*SUM(G23:G24)</f>
-        <v>1.1368683772161603E-13</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -9248,12 +9427,27 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
+      <c r="P34" s="1">
+        <f>S31/(S28-Q31)</f>
+        <v>133.29951991220202</v>
+      </c>
+      <c r="Q34" s="1">
+        <f>P28-P34</f>
+        <v>207.62048008779794</v>
+      </c>
+      <c r="R34" s="1">
+        <f>P31*-P34</f>
+        <v>-65.121236184536301</v>
+      </c>
+      <c r="S34" s="1">
+        <f>-R34</f>
+        <v>65.121236184536301</v>
+      </c>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="U34" s="20">
+        <f>P34-P23-P24</f>
+        <v>38.299519912202015</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -9275,17 +9469,10 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
       <c r="P35" s="1"/>
-      <c r="Q35" s="1">
-        <f>-T30*T27+R30*S27-P23*Q23-P24*Q24-P25*Q25</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="1">
-        <f>-T30*T27+R30*S27-U27</f>
-        <v>0</v>
-      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
       <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
@@ -9304,17 +9491,6 @@
       <c r="M36" s="1"/>
       <c r="N36" s="1"/>
       <c r="P36" s="1"/>
-      <c r="Q36" s="1">
-        <f>-T31*T27+R31*S27-P23*Q23-P24*Q24-P25*Q25</f>
-        <v>-6.130343740551325E-5</v>
-      </c>
-      <c r="R36" s="1">
-        <f>-T31*T27+R31*S27-U27</f>
-        <v>-6.130343740551325E-5</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -9332,7 +9508,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
+      <c r="O37" s="20"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
@@ -9356,7 +9532,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
+      <c r="O38" s="20"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -9380,13 +9556,14 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
       <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
     </row>
     <row r="40" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D40" s="1"/>
@@ -9400,9 +9577,13 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
     </row>
     <row r="41" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D41" s="1"/>
@@ -9416,9 +9597,13 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
     </row>
     <row r="42" spans="4:25" x14ac:dyDescent="0.3">
       <c r="D42" s="1"/>
@@ -9543,7 +9728,7 @@
         <v>521.45810021623799</v>
       </c>
       <c r="Y45" s="1">
-        <f t="shared" ref="Y45:Y52" si="2">SQRT($S$57^2+X45^2)</f>
+        <f t="shared" ref="Y45:Y52" si="8">SQRT($S$57^2+X45^2)</f>
         <v>600.54759221068468</v>
       </c>
     </row>
@@ -9558,11 +9743,11 @@
         <v>0</v>
       </c>
       <c r="G46" s="1">
-        <f t="shared" ref="G46:H48" si="3">E46-E45</f>
+        <f t="shared" ref="G46:H48" si="9">E46-E45</f>
         <v>3</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>-1</v>
       </c>
       <c r="I46" s="1">
@@ -9588,11 +9773,11 @@
         <v>281.70999999999998</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" ref="S46:T53" si="4">Q46-Q45</f>
+        <f t="shared" ref="S46:T53" si="10">Q46-Q45</f>
         <v>94.710000000000008</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-165.79000000000002</v>
       </c>
       <c r="U46" s="1">
@@ -9600,11 +9785,11 @@
         <v>18322.596600000001</v>
       </c>
       <c r="X46" s="1">
-        <f t="shared" ref="X46:X52" si="5">X45-P46</f>
+        <f t="shared" ref="X46:X52" si="11">X45-P46</f>
         <v>327.99810021623796</v>
       </c>
       <c r="Y46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>443.08194950187709</v>
       </c>
     </row>
@@ -9619,11 +9804,11 @@
         <v>0.2</v>
       </c>
       <c r="G47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
       <c r="I47" s="1">
@@ -9648,11 +9833,11 @@
         <v>198.1</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>75.929999999999978</v>
       </c>
       <c r="T47" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-83.609999999999985</v>
       </c>
       <c r="U47" s="1">
@@ -9660,11 +9845,11 @@
         <v>22186.612799999999</v>
       </c>
       <c r="X47" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>197.97810021623795</v>
       </c>
       <c r="Y47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>357.67889005944068</v>
       </c>
     </row>
@@ -9679,11 +9864,11 @@
         <v>1</v>
       </c>
       <c r="G48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="H48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>0.8</v>
       </c>
       <c r="I48" s="1">
@@ -9700,11 +9885,11 @@
         <v>144.05000000000001</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>81.340000000000018</v>
       </c>
       <c r="T48" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-54.049999999999983</v>
       </c>
       <c r="U48" s="1">
@@ -9712,11 +9897,11 @@
         <v>34934.5072</v>
       </c>
       <c r="X48" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>59.338100216237962</v>
       </c>
       <c r="Y48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>303.7430992898357</v>
       </c>
     </row>
@@ -9752,11 +9937,11 @@
         <v>129.19999999999999</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>74.53</v>
       </c>
       <c r="T49" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-14.850000000000023</v>
       </c>
       <c r="U49" s="1">
@@ -9764,11 +9949,11 @@
         <v>38639.193399999996</v>
       </c>
       <c r="X49" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-59.001899783762042</v>
       </c>
       <c r="Y49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>303.67759944884938</v>
       </c>
     </row>
@@ -9789,11 +9974,11 @@
         <v>146.68</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>88.24</v>
       </c>
       <c r="T50" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>17.480000000000018</v>
       </c>
       <c r="U50" s="1">
@@ -9801,11 +9986,11 @@
         <v>11932.3575</v>
       </c>
       <c r="X50" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-87.771899783762038</v>
       </c>
       <c r="Y50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>310.55235729353831</v>
       </c>
     </row>
@@ -9834,11 +10019,11 @@
         <v>174.67</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>94.97999999999999</v>
       </c>
       <c r="T51" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>27.989999999999981</v>
       </c>
       <c r="U51" s="1">
@@ -9846,11 +10031,11 @@
         <v>62105.503200000006</v>
       </c>
       <c r="X51" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-209.61189978376206</v>
       </c>
       <c r="Y51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>364.24718085371728</v>
       </c>
     </row>
@@ -9883,11 +10068,11 @@
         <v>210.47</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>50.880000000000024</v>
       </c>
       <c r="T52" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>35.800000000000011</v>
       </c>
       <c r="U52" s="1">
@@ -9895,11 +10080,11 @@
         <v>27469.89</v>
       </c>
       <c r="X52" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>-258.61189978376206</v>
       </c>
       <c r="Y52" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>394.48570942264723</v>
       </c>
     </row>
@@ -9932,11 +10117,11 @@
         <v>292.41000000000003</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>94.389999999999986</v>
       </c>
       <c r="T53" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>81.940000000000026</v>
       </c>
       <c r="U53" s="1">
@@ -10117,7 +10302,520 @@
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
     </row>
+    <row r="66" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O66" s="16"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O67" s="16"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="20"/>
+      <c r="V67" s="1"/>
+      <c r="W67" s="1"/>
+      <c r="X67" s="1"/>
+      <c r="Y67" s="1"/>
+    </row>
+    <row r="68" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O68" s="16"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="20"/>
+      <c r="V68" s="1"/>
+      <c r="W68" s="1"/>
+      <c r="X68" s="1"/>
+      <c r="Y68" s="1"/>
+    </row>
+    <row r="69" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="P69" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q69" s="18"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="18"/>
+      <c r="V69" s="18"/>
+      <c r="X69" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="Y69" s="18"/>
+      <c r="Z69" s="18"/>
+    </row>
+    <row r="70" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="P70" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>11</v>
+      </c>
+      <c r="R70" t="s">
+        <v>12</v>
+      </c>
+      <c r="S70" t="s">
+        <v>24</v>
+      </c>
+      <c r="T70" t="s">
+        <v>25</v>
+      </c>
+      <c r="U70" t="s">
+        <v>91</v>
+      </c>
+      <c r="V70" t="s">
+        <v>92</v>
+      </c>
+      <c r="X70" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O71" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="22">
+        <v>-327.5</v>
+      </c>
+      <c r="R71" s="22">
+        <v>476.39</v>
+      </c>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+      <c r="V71" s="1"/>
+    </row>
+    <row r="72" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O72" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P72" s="22">
+        <v>158.02000000000001</v>
+      </c>
+      <c r="Q72" s="22">
+        <v>-222.4</v>
+      </c>
+      <c r="R72" s="22">
+        <v>276.52</v>
+      </c>
+      <c r="S72" s="1">
+        <f t="shared" ref="S72:S76" si="12">Q72-Q71</f>
+        <v>105.1</v>
+      </c>
+      <c r="T72" s="1">
+        <f t="shared" ref="T72:T76" si="13">R72-R71</f>
+        <v>-199.87</v>
+      </c>
+      <c r="U72" s="20">
+        <f>SQRT(S72^2+T72^2)</f>
+        <v>225.81857075980264</v>
+      </c>
+      <c r="V72" s="1">
+        <f>P72*S72</f>
+        <v>16607.902000000002</v>
+      </c>
+      <c r="W72" s="1"/>
+      <c r="X72" s="1">
+        <f>P83</f>
+        <v>268.90440447652622</v>
+      </c>
+      <c r="Y72" s="1">
+        <f>SQRT($R$83^2+X72^2)</f>
+        <v>303.81552153852516</v>
+      </c>
+      <c r="Z72" s="1">
+        <f>Y72/$S$83*S72</f>
+        <v>225.81857075980261</v>
+      </c>
+      <c r="AA72" s="21">
+        <f>(U72-Z72)/U72</f>
+        <v>1.2586081532078885E-16</v>
+      </c>
+    </row>
+    <row r="73" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O73" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="P73" s="22">
+        <v>143.38999999999999</v>
+      </c>
+      <c r="Q73" s="22">
+        <v>-53.95</v>
+      </c>
+      <c r="R73" s="22">
+        <v>218.29</v>
+      </c>
+      <c r="S73" s="1">
+        <f t="shared" si="12"/>
+        <v>168.45</v>
+      </c>
+      <c r="T73" s="1">
+        <f t="shared" si="13"/>
+        <v>-58.22999999999999</v>
+      </c>
+      <c r="U73" s="20">
+        <f t="shared" ref="U73:U76" si="14">SQRT(S73^2+T73^2)</f>
+        <v>178.23056808527542</v>
+      </c>
+      <c r="V73" s="1">
+        <f>P73*SUM(S72:S73)</f>
+        <v>39224.33449999999</v>
+      </c>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1">
+        <f>X72-P72</f>
+        <v>110.88440447652621</v>
+      </c>
+      <c r="Y73" s="1">
+        <f t="shared" ref="Y73:Y76" si="15">SQRT($R$83^2+X73^2)</f>
+        <v>179.6931927952885</v>
+      </c>
+      <c r="Z73" s="1">
+        <f t="shared" ref="Z73:Z76" si="16">Y73/$S$83*S73</f>
+        <v>214.06694999982815</v>
+      </c>
+      <c r="AA73" s="21">
+        <f t="shared" ref="AA73:AA76" si="17">(U73-Z73)/U73</f>
+        <v>-0.20106754020672038</v>
+      </c>
+    </row>
+    <row r="74" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O74" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="P74" s="22">
+        <v>197.65</v>
+      </c>
+      <c r="Q74" s="22">
+        <v>89.58</v>
+      </c>
+      <c r="R74" s="22">
+        <v>240.89</v>
+      </c>
+      <c r="S74" s="1">
+        <f t="shared" si="12"/>
+        <v>143.53</v>
+      </c>
+      <c r="T74" s="1">
+        <f t="shared" si="13"/>
+        <v>22.599999999999994</v>
+      </c>
+      <c r="U74" s="20">
+        <f t="shared" si="14"/>
+        <v>145.29838574464617</v>
+      </c>
+      <c r="V74" s="1">
+        <f>P74*SUM(S72:S74)</f>
+        <v>82435.861999999994</v>
+      </c>
+      <c r="W74" s="1"/>
+      <c r="X74" s="1">
+        <f t="shared" ref="X74:X75" si="18">X73-P73</f>
+        <v>-32.505595523473772</v>
+      </c>
+      <c r="Y74" s="1">
+        <f t="shared" si="15"/>
+        <v>145.08930395169222</v>
+      </c>
+      <c r="Z74" s="1">
+        <f t="shared" si="16"/>
+        <v>147.27365419412811</v>
+      </c>
+      <c r="AA74" s="21">
+        <f t="shared" si="17"/>
+        <v>-1.3594565688798285E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O75" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="P75" s="22">
+        <v>121.42</v>
+      </c>
+      <c r="Q75" s="22">
+        <v>196.11</v>
+      </c>
+      <c r="R75" s="22">
+        <v>382.24</v>
+      </c>
+      <c r="S75" s="1">
+        <f t="shared" si="12"/>
+        <v>106.53000000000002</v>
+      </c>
+      <c r="T75" s="1">
+        <f t="shared" si="13"/>
+        <v>141.35000000000002</v>
+      </c>
+      <c r="U75" s="20">
+        <f t="shared" si="14"/>
+        <v>176.99848417430022</v>
+      </c>
+      <c r="V75" s="1">
+        <f>P75*SUM(S72:S75)</f>
+        <v>63576.72619999999</v>
+      </c>
+      <c r="W75" s="1"/>
+      <c r="X75" s="1">
+        <f t="shared" si="18"/>
+        <v>-230.15559552347378</v>
+      </c>
+      <c r="Y75" s="1">
+        <f t="shared" si="15"/>
+        <v>270.12199194366923</v>
+      </c>
+      <c r="Z75" s="1">
+        <f t="shared" si="16"/>
+        <v>203.50676532479747</v>
+      </c>
+      <c r="AA75" s="21">
+        <f t="shared" si="17"/>
+        <v>-0.14976558287580069</v>
+      </c>
+    </row>
+    <row r="76" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O76" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="22">
+        <f>-Q71</f>
+        <v>327.5</v>
+      </c>
+      <c r="R76" s="22">
+        <v>677.5</v>
+      </c>
+      <c r="S76" s="1">
+        <f t="shared" si="12"/>
+        <v>131.38999999999999</v>
+      </c>
+      <c r="T76" s="1">
+        <f t="shared" si="13"/>
+        <v>295.26</v>
+      </c>
+      <c r="U76" s="20">
+        <f t="shared" si="14"/>
+        <v>323.17456536676889</v>
+      </c>
+      <c r="V76" s="1"/>
+      <c r="W76" s="1"/>
+      <c r="X76" s="1">
+        <f>X75-P75</f>
+        <v>-351.57559552347379</v>
+      </c>
+      <c r="Y76" s="1">
+        <f t="shared" si="15"/>
+        <v>378.94549970745936</v>
+      </c>
+      <c r="Z76" s="1">
+        <f t="shared" si="16"/>
+        <v>352.11623308762472</v>
+      </c>
+      <c r="AA76" s="21">
+        <f t="shared" si="17"/>
+        <v>-8.9554286823315149E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="O77" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="P77" s="1">
+        <f>SUM(P72:P75)</f>
+        <v>620.4799999999999</v>
+      </c>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1">
+        <f>SUM(S72:S76)</f>
+        <v>654.99999999999989</v>
+      </c>
+      <c r="T77" s="1">
+        <f>SUM(T72:T76)</f>
+        <v>201.10999999999999</v>
+      </c>
+      <c r="V77" s="1">
+        <f>SUM(V72:V76)</f>
+        <v>201844.8247</v>
+      </c>
+      <c r="W77" s="1"/>
+      <c r="X77" s="1"/>
+      <c r="Y77" s="1"/>
+    </row>
+    <row r="78" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="X78" s="1"/>
+      <c r="Y78" s="1"/>
+    </row>
+    <row r="79" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="P79" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>94</v>
+      </c>
+      <c r="R79" t="s">
+        <v>95</v>
+      </c>
+      <c r="S79" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X79" s="1"/>
+      <c r="Y79" s="1"/>
+    </row>
+    <row r="80" spans="15:27" x14ac:dyDescent="0.3">
+      <c r="P80" s="5">
+        <f>ABS(S72/T72)</f>
+        <v>0.52584179716815926</v>
+      </c>
+      <c r="Q80" s="1">
+        <f>P80*-T77</f>
+        <v>-105.7520438284885</v>
+      </c>
+      <c r="R80" s="1">
+        <f>P77*S77</f>
+        <v>406414.39999999985</v>
+      </c>
+      <c r="S80" s="1">
+        <f>R80-V77</f>
+        <v>204569.57529999985</v>
+      </c>
+      <c r="W80" s="1"/>
+      <c r="X80" s="1"/>
+      <c r="Y80" s="1"/>
+    </row>
+    <row r="81" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="W81" s="1"/>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="1"/>
+    </row>
+    <row r="82" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q82" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R82" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S82" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="1"/>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="1"/>
+    </row>
+    <row r="83" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P83" s="1">
+        <f>S80/(S77-Q80)</f>
+        <v>268.90440447652622</v>
+      </c>
+      <c r="Q83" s="1">
+        <f>P77-P83</f>
+        <v>351.57559552347368</v>
+      </c>
+      <c r="R83" s="1">
+        <f>P80*-P83</f>
+        <v>-141.40117531637017</v>
+      </c>
+      <c r="S83" s="1">
+        <f>-R83</f>
+        <v>141.40117531637017</v>
+      </c>
+      <c r="T83" s="1"/>
+      <c r="U83" s="20"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="1"/>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="1"/>
+    </row>
+    <row r="84" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="1"/>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="1"/>
+    </row>
+    <row r="85" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P85" s="20"/>
+    </row>
+    <row r="86" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="X86" s="1"/>
+      <c r="Y86" s="1"/>
+    </row>
+    <row r="87" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="S87" s="6"/>
+      <c r="X87" s="1"/>
+      <c r="Y87" s="1"/>
+    </row>
+    <row r="88" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="W88" s="1"/>
+      <c r="X88" s="1"/>
+      <c r="Y88" s="1"/>
+    </row>
+    <row r="89" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="W89" s="1"/>
+      <c r="X89" s="1"/>
+      <c r="Y89" s="1"/>
+    </row>
+    <row r="90" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+      <c r="U90" s="1"/>
+      <c r="V90" s="1"/>
+      <c r="W90" s="1"/>
+      <c r="X90" s="1"/>
+      <c r="Y90" s="1"/>
+    </row>
+    <row r="91" spans="15:25" x14ac:dyDescent="0.3">
+      <c r="O91" s="23"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+      <c r="U91" s="20"/>
+      <c r="V91" s="1"/>
+      <c r="W91" s="1"/>
+      <c r="X91" s="1"/>
+      <c r="Y91" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="P20:V20"/>
+    <mergeCell ref="X20:Z20"/>
+    <mergeCell ref="P69:V69"/>
+    <mergeCell ref="X69:Z69"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10125,7 +10823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -11926,7 +12624,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14213,10 +14911,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="I30" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
